--- a/GMSVer.xlsx
+++ b/GMSVer.xlsx
@@ -348,6730 +348,6730 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1">
-        <v>4.482677254</v>
+        <v>44.82677254000001</v>
       </c>
       <c r="B1">
-        <v>11.0842421</v>
+        <v>110.842421</v>
       </c>
       <c r="C1">
-        <v>5.66595279</v>
+        <v>56.6595279</v>
       </c>
       <c r="D1">
-        <v>7.393605235</v>
+        <v>73.93605235</v>
       </c>
       <c r="E1">
-        <v>9.325517586</v>
+        <v>93.25517586000001</v>
       </c>
       <c r="F1">
-        <v>10.85670074</v>
+        <v>108.5670074</v>
       </c>
       <c r="G1">
-        <v>10.09889962</v>
+        <v>100.9889962</v>
       </c>
       <c r="H1">
-        <v>10.56004426</v>
+        <v>105.6004426</v>
       </c>
       <c r="I1">
-        <v>10.18925231</v>
+        <v>101.8925231</v>
       </c>
       <c r="J1">
-        <v>10.29019468</v>
+        <v>102.9019468</v>
       </c>
       <c r="K1">
-        <v>8.943378886</v>
+        <v>89.43378885999999</v>
       </c>
       <c r="L1">
-        <v>2.945001921</v>
+        <v>29.45001921</v>
       </c>
       <c r="M1">
-        <v>4.043183874</v>
+        <v>40.43183874</v>
       </c>
       <c r="N1">
-        <v>3.176428553</v>
+        <v>31.76428553</v>
       </c>
       <c r="O1">
-        <v>2.374757838</v>
+        <v>23.74757838</v>
       </c>
       <c r="P1">
-        <v>4.28836469</v>
+        <v>42.8836469</v>
       </c>
       <c r="Q1">
-        <v>2.654946408</v>
+        <v>26.54946408</v>
       </c>
       <c r="R1">
-        <v>3.936718346</v>
+        <v>39.36718346</v>
       </c>
       <c r="S1">
-        <v>2.230448016</v>
+        <v>22.30448016</v>
       </c>
       <c r="T1">
-        <v>9.864805955</v>
+        <v>98.64805955</v>
       </c>
       <c r="U1">
-        <v>8.444112637</v>
+        <v>84.44112637000001</v>
       </c>
       <c r="V1">
-        <v>13.90213561</v>
+        <v>139.0213561</v>
       </c>
       <c r="W1">
-        <v>6.256982056</v>
+        <v>62.56982056</v>
       </c>
       <c r="X1">
-        <v>4.435567066</v>
+        <v>44.35567066</v>
       </c>
       <c r="Y1">
-        <v>17.23546999</v>
+        <v>172.3546999</v>
       </c>
       <c r="Z1">
-        <v>10.43365323</v>
+        <v>104.3365323</v>
       </c>
       <c r="AA1">
-        <v>10.73266043</v>
+        <v>107.3266043</v>
       </c>
       <c r="AB1">
-        <v>9.623985472999999</v>
+        <v>96.23985472999999</v>
       </c>
       <c r="AC1">
-        <v>8.608899289</v>
+        <v>86.08899289</v>
       </c>
       <c r="AD1">
-        <v>15.08247493</v>
+        <v>150.8247493</v>
       </c>
       <c r="AE1">
-        <v>9.198914328000001</v>
+        <v>91.98914328000001</v>
       </c>
       <c r="AF1">
-        <v>12.06809833</v>
+        <v>120.6809833</v>
       </c>
       <c r="AG1">
-        <v>5.980790975</v>
+        <v>59.80790974999999</v>
       </c>
       <c r="AH1">
-        <v>5.961351632</v>
+        <v>59.61351632</v>
       </c>
       <c r="AI1">
-        <v>3.442102475</v>
+        <v>34.42102475</v>
       </c>
       <c r="AJ1">
-        <v>3.471332303</v>
+        <v>34.71332303</v>
       </c>
       <c r="AK1">
-        <v>5.935768877</v>
+        <v>59.35768877</v>
       </c>
       <c r="AL1">
-        <v>3.874514905</v>
+        <v>38.74514904999999</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2">
-        <v>5.723668633</v>
+        <v>57.23668633</v>
       </c>
       <c r="B2">
-        <v>4.646324464</v>
+        <v>46.46324464</v>
       </c>
       <c r="C2">
-        <v>5.909718323</v>
+        <v>59.09718323</v>
       </c>
       <c r="D2">
-        <v>15.31573099</v>
+        <v>153.1573099</v>
       </c>
       <c r="E2">
-        <v>10.30218974</v>
+        <v>103.0218974</v>
       </c>
       <c r="F2">
-        <v>7.98415114</v>
+        <v>79.8415114</v>
       </c>
       <c r="G2">
-        <v>7.460157072</v>
+        <v>74.60157072</v>
       </c>
       <c r="H2">
-        <v>8.060595758</v>
+        <v>80.60595757999999</v>
       </c>
       <c r="I2">
-        <v>10.29401305</v>
+        <v>102.9401305</v>
       </c>
       <c r="J2">
-        <v>8.416200415</v>
+        <v>84.16200415</v>
       </c>
       <c r="K2">
-        <v>5.302945756</v>
+        <v>53.02945756</v>
       </c>
       <c r="L2">
-        <v>4.655705558</v>
+        <v>46.55705558</v>
       </c>
       <c r="M2">
-        <v>5.362903195</v>
+        <v>53.62903195000001</v>
       </c>
       <c r="N2">
-        <v>5.621919588</v>
+        <v>56.21919588</v>
       </c>
       <c r="O2">
-        <v>5.336929402</v>
+        <v>53.36929402</v>
       </c>
       <c r="P2">
-        <v>5.849651397</v>
+        <v>58.49651397</v>
       </c>
       <c r="Q2">
-        <v>6.041210158</v>
+        <v>60.41210158</v>
       </c>
       <c r="R2">
-        <v>3.676427414</v>
+        <v>36.76427414</v>
       </c>
       <c r="S2">
-        <v>9.278681614</v>
+        <v>92.78681614</v>
       </c>
       <c r="T2">
-        <v>10.26591792</v>
+        <v>102.6591792</v>
       </c>
       <c r="U2">
-        <v>9.145193761</v>
+        <v>91.45193761</v>
       </c>
       <c r="V2">
-        <v>6.884134865</v>
+        <v>68.84134865</v>
       </c>
       <c r="W2">
-        <v>7.013805838</v>
+        <v>70.13805837999999</v>
       </c>
       <c r="X2">
-        <v>6.830019094</v>
+        <v>68.30019093999999</v>
       </c>
       <c r="Y2">
-        <v>8.088671230999999</v>
+        <v>80.88671230999999</v>
       </c>
       <c r="Z2">
-        <v>13.99353545</v>
+        <v>139.9353545</v>
       </c>
       <c r="AA2">
-        <v>10.49011588</v>
+        <v>104.9011588</v>
       </c>
       <c r="AB2">
-        <v>13.31548268</v>
+        <v>133.1548268</v>
       </c>
       <c r="AC2">
-        <v>8.581317608999999</v>
+        <v>85.81317608999998</v>
       </c>
       <c r="AD2">
-        <v>6.473627197</v>
+        <v>64.73627197</v>
       </c>
       <c r="AE2">
-        <v>10.52326446</v>
+        <v>105.2326446</v>
       </c>
       <c r="AF2">
-        <v>4.934722643</v>
+        <v>49.34722643</v>
       </c>
       <c r="AG2">
-        <v>7.919598176</v>
+        <v>79.19598176</v>
       </c>
       <c r="AH2">
-        <v>7.433601529</v>
+        <v>74.33601528999999</v>
       </c>
       <c r="AI2">
-        <v>7.519070069</v>
+        <v>75.19070069</v>
       </c>
       <c r="AJ2">
-        <v>4.025090798</v>
+        <v>40.25090798</v>
       </c>
       <c r="AK2">
-        <v>4.123908873</v>
+        <v>41.23908873000001</v>
       </c>
       <c r="AL2">
-        <v>4.331199261</v>
+        <v>43.31199261</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3">
-        <v>8.186991312</v>
+        <v>81.86991312000001</v>
       </c>
       <c r="B3">
-        <v>8.50626941</v>
+        <v>85.0626941</v>
       </c>
       <c r="C3">
-        <v>5.29741237</v>
+        <v>52.9741237</v>
       </c>
       <c r="D3">
-        <v>8.613402921</v>
+        <v>86.13402921000001</v>
       </c>
       <c r="E3">
-        <v>8.392936583999999</v>
+        <v>83.92936583999999</v>
       </c>
       <c r="F3">
-        <v>6.455803988</v>
+        <v>64.55803988000001</v>
       </c>
       <c r="G3">
-        <v>9.961169349</v>
+        <v>99.61169349000001</v>
       </c>
       <c r="H3">
-        <v>8.55537268</v>
+        <v>85.55372679999999</v>
       </c>
       <c r="I3">
-        <v>11.67978383</v>
+        <v>116.7978383</v>
       </c>
       <c r="J3">
-        <v>2.779206539</v>
+        <v>27.79206539</v>
       </c>
       <c r="K3">
-        <v>3.212182039</v>
+        <v>32.12182039</v>
       </c>
       <c r="L3">
-        <v>4.949247126</v>
+        <v>49.49247126</v>
       </c>
       <c r="M3">
-        <v>4.814380946</v>
+        <v>48.14380946</v>
       </c>
       <c r="N3">
-        <v>4.571962159</v>
+        <v>45.71962159</v>
       </c>
       <c r="O3">
-        <v>6.190134835</v>
+        <v>61.90134835000001</v>
       </c>
       <c r="P3">
-        <v>4.608182231</v>
+        <v>46.08182231</v>
       </c>
       <c r="Q3">
-        <v>4.136241268</v>
+        <v>41.36241268</v>
       </c>
       <c r="R3">
-        <v>7.327544519</v>
+        <v>73.27544519</v>
       </c>
       <c r="S3">
-        <v>4.383276347</v>
+        <v>43.83276347</v>
       </c>
       <c r="T3">
-        <v>7.391572273</v>
+        <v>73.91572273</v>
       </c>
       <c r="U3">
-        <v>5.272388413</v>
+        <v>52.72388413</v>
       </c>
       <c r="V3">
-        <v>10.77113067</v>
+        <v>107.7113067</v>
       </c>
       <c r="W3">
-        <v>5.833284783</v>
+        <v>58.33284783</v>
       </c>
       <c r="X3">
-        <v>8.369310213</v>
+        <v>83.69310213</v>
       </c>
       <c r="Y3">
-        <v>7.512418635</v>
+        <v>75.12418635</v>
       </c>
       <c r="Z3">
-        <v>9.838984153</v>
+        <v>98.38984153</v>
       </c>
       <c r="AA3">
-        <v>10.70849626</v>
+        <v>107.0849626</v>
       </c>
       <c r="AB3">
-        <v>8.282935787</v>
+        <v>82.82935787</v>
       </c>
       <c r="AC3">
-        <v>5.875487112</v>
+        <v>58.75487112</v>
       </c>
       <c r="AD3">
-        <v>10.66683579</v>
+        <v>106.6683579</v>
       </c>
       <c r="AE3">
-        <v>5.675263927</v>
+        <v>56.75263927</v>
       </c>
       <c r="AF3">
-        <v>8.757552485</v>
+        <v>87.57552484999999</v>
       </c>
       <c r="AG3">
-        <v>8.134444630999999</v>
+        <v>81.34444631</v>
       </c>
       <c r="AH3">
-        <v>6.177583461</v>
+        <v>61.77583461</v>
       </c>
       <c r="AI3">
-        <v>7.343602083</v>
+        <v>73.43602083</v>
       </c>
       <c r="AJ3">
-        <v>7.04550954</v>
+        <v>70.4550954</v>
       </c>
       <c r="AK3">
-        <v>3.156697762</v>
+        <v>31.56697762</v>
       </c>
       <c r="AL3">
-        <v>8.392474985</v>
+        <v>83.92474985</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4">
-        <v>8.701343763000001</v>
+        <v>87.01343763</v>
       </c>
       <c r="B4">
-        <v>3.393960299</v>
+        <v>33.93960299</v>
       </c>
       <c r="C4">
-        <v>4.799239507</v>
+        <v>47.99239507</v>
       </c>
       <c r="D4">
-        <v>14.72919339</v>
+        <v>147.2919339</v>
       </c>
       <c r="E4">
-        <v>5.730840873</v>
+        <v>57.30840873</v>
       </c>
       <c r="F4">
-        <v>4.007146809</v>
+        <v>40.07146809</v>
       </c>
       <c r="G4">
-        <v>3.874348305</v>
+        <v>38.74348304999999</v>
       </c>
       <c r="H4">
-        <v>6.153713798</v>
+        <v>61.53713798</v>
       </c>
       <c r="I4">
-        <v>7.835302385</v>
+        <v>78.35302385</v>
       </c>
       <c r="J4">
-        <v>3.571149273</v>
+        <v>35.71149273</v>
       </c>
       <c r="K4">
-        <v>3.051268694</v>
+        <v>30.51268694</v>
       </c>
       <c r="L4">
-        <v>5.21345336</v>
+        <v>52.1345336</v>
       </c>
       <c r="M4">
-        <v>4.208580718</v>
+        <v>42.08580718</v>
       </c>
       <c r="N4">
-        <v>5.052269101</v>
+        <v>50.52269101</v>
       </c>
       <c r="O4">
-        <v>6.768851786</v>
+        <v>67.68851786</v>
       </c>
       <c r="P4">
-        <v>10.0973546</v>
+        <v>100.973546</v>
       </c>
       <c r="Q4">
-        <v>7.500123366</v>
+        <v>75.00123366</v>
       </c>
       <c r="R4">
-        <v>7.302505214</v>
+        <v>73.02505214</v>
       </c>
       <c r="S4">
-        <v>7.999351447</v>
+        <v>79.99351446999999</v>
       </c>
       <c r="T4">
-        <v>7.205484479</v>
+        <v>72.05484479</v>
       </c>
       <c r="U4">
-        <v>6.425115898</v>
+        <v>64.25115898</v>
       </c>
       <c r="V4">
-        <v>10.18134851</v>
+        <v>101.8134851</v>
       </c>
       <c r="W4">
-        <v>7.829263695</v>
+        <v>78.29263695</v>
       </c>
       <c r="X4">
-        <v>10.54166467</v>
+        <v>105.4166467</v>
       </c>
       <c r="Y4">
-        <v>4.326524091</v>
+        <v>43.26524091</v>
       </c>
       <c r="Z4">
-        <v>8.678367798</v>
+        <v>86.78367797999999</v>
       </c>
       <c r="AA4">
-        <v>8.164679470999999</v>
+        <v>81.64679470999999</v>
       </c>
       <c r="AB4">
-        <v>5.648664634</v>
+        <v>56.48664634</v>
       </c>
       <c r="AC4">
-        <v>6.130247162</v>
+        <v>61.30247162</v>
       </c>
       <c r="AD4">
-        <v>3.246973947</v>
+        <v>32.46973947</v>
       </c>
       <c r="AE4">
-        <v>2.867347738</v>
+        <v>28.67347738</v>
       </c>
       <c r="AF4">
-        <v>2.694688112</v>
+        <v>26.94688112</v>
       </c>
       <c r="AG4">
-        <v>4.162315247</v>
+        <v>41.62315247000001</v>
       </c>
       <c r="AH4">
-        <v>5.396137766</v>
+        <v>53.96137766</v>
       </c>
       <c r="AI4">
-        <v>5.222506553</v>
+        <v>52.22506552999999</v>
       </c>
       <c r="AJ4">
-        <v>5.104142522</v>
+        <v>51.04142522</v>
       </c>
       <c r="AK4">
-        <v>10.63766994</v>
+        <v>106.3766994</v>
       </c>
       <c r="AL4">
-        <v>10.36356686</v>
+        <v>103.6356686</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5">
-        <v>4.275903689</v>
+        <v>42.75903689</v>
       </c>
       <c r="B5">
-        <v>5.68367522</v>
+        <v>56.83675219999999</v>
       </c>
       <c r="C5">
-        <v>4.784480589</v>
+        <v>47.84480589</v>
       </c>
       <c r="D5">
-        <v>9.150343954</v>
+        <v>91.50343954</v>
       </c>
       <c r="E5">
-        <v>2.634729366</v>
+        <v>26.34729366</v>
       </c>
       <c r="F5">
-        <v>2.528804014</v>
+        <v>25.28804014</v>
       </c>
       <c r="G5">
-        <v>5.745943165</v>
+        <v>57.45943165</v>
       </c>
       <c r="H5">
-        <v>3.523452981</v>
+        <v>35.23452981</v>
       </c>
       <c r="I5">
-        <v>4.678639999</v>
+        <v>46.78639998999999</v>
       </c>
       <c r="J5">
-        <v>3.742771835</v>
+        <v>37.42771835</v>
       </c>
       <c r="K5">
-        <v>3.752804658</v>
+        <v>37.52804658</v>
       </c>
       <c r="L5">
-        <v>5.212848635</v>
+        <v>52.12848635</v>
       </c>
       <c r="M5">
-        <v>5.636732024</v>
+        <v>56.36732024</v>
       </c>
       <c r="N5">
-        <v>4.791418327</v>
+        <v>47.91418327</v>
       </c>
       <c r="O5">
-        <v>3.606884821</v>
+        <v>36.06884821</v>
       </c>
       <c r="P5">
-        <v>4.405128671</v>
+        <v>44.05128671</v>
       </c>
       <c r="Q5">
-        <v>3.675997297</v>
+        <v>36.75997297</v>
       </c>
       <c r="R5">
-        <v>6.445715002</v>
+        <v>64.45715002</v>
       </c>
       <c r="S5">
-        <v>4.601905557</v>
+        <v>46.01905557000001</v>
       </c>
       <c r="T5">
-        <v>6.8622575</v>
+        <v>68.622575</v>
       </c>
       <c r="U5">
-        <v>9.070582358999999</v>
+        <v>90.70582358999999</v>
       </c>
       <c r="V5">
-        <v>9.915671339999999</v>
+        <v>99.1567134</v>
       </c>
       <c r="W5">
-        <v>7.137613446</v>
+        <v>71.37613446</v>
       </c>
       <c r="X5">
-        <v>6.183344889</v>
+        <v>61.83344889</v>
       </c>
       <c r="Y5">
-        <v>7.265938497</v>
+        <v>72.65938496999999</v>
       </c>
       <c r="Z5">
-        <v>6.889830399</v>
+        <v>68.89830399</v>
       </c>
       <c r="AA5">
-        <v>5.276259767</v>
+        <v>52.76259767</v>
       </c>
       <c r="AB5">
-        <v>3.746523972</v>
+        <v>37.46523972</v>
       </c>
       <c r="AC5">
-        <v>4.121373449</v>
+        <v>41.21373449</v>
       </c>
       <c r="AD5">
-        <v>2.54495882</v>
+        <v>25.4495882</v>
       </c>
       <c r="AE5">
-        <v>2.410553693</v>
+        <v>24.10553693</v>
       </c>
       <c r="AF5">
-        <v>4.6493967</v>
+        <v>46.493967</v>
       </c>
       <c r="AG5">
-        <v>5.556201377</v>
+        <v>55.56201377</v>
       </c>
       <c r="AH5">
-        <v>4.99753839</v>
+        <v>49.9753839</v>
       </c>
       <c r="AI5">
-        <v>4.291766712</v>
+        <v>42.91766712</v>
       </c>
       <c r="AJ5">
-        <v>7.149128558</v>
+        <v>71.49128558</v>
       </c>
       <c r="AK5">
-        <v>5.625779798</v>
+        <v>56.25779798</v>
       </c>
       <c r="AL5">
-        <v>4.827411821</v>
+        <v>48.27411821</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6">
-        <v>5.798882167</v>
+        <v>57.98882167000001</v>
       </c>
       <c r="B6">
-        <v>7.058845204</v>
+        <v>70.58845203999999</v>
       </c>
       <c r="C6">
-        <v>6.492528597</v>
+        <v>64.92528597</v>
       </c>
       <c r="D6">
-        <v>1.419890093</v>
+        <v>14.19890093</v>
       </c>
       <c r="E6">
-        <v>2.363038921</v>
+        <v>23.63038921</v>
       </c>
       <c r="F6">
-        <v>5.40931501</v>
+        <v>54.0931501</v>
       </c>
       <c r="G6">
-        <v>4.192958075</v>
+        <v>41.92958075</v>
       </c>
       <c r="H6">
-        <v>5.624661504</v>
+        <v>56.24661503999999</v>
       </c>
       <c r="I6">
-        <v>4.302260014</v>
+        <v>43.02260013999999</v>
       </c>
       <c r="J6">
-        <v>4.039934461</v>
+        <v>40.39934461</v>
       </c>
       <c r="K6">
-        <v>3.018410805</v>
+        <v>30.18410805</v>
       </c>
       <c r="L6">
-        <v>6.650383148</v>
+        <v>66.50383148</v>
       </c>
       <c r="M6">
-        <v>5.021448657</v>
+        <v>50.21448657</v>
       </c>
       <c r="N6">
-        <v>1.838498984</v>
+        <v>18.38498984</v>
       </c>
       <c r="O6">
-        <v>3.46508606</v>
+        <v>34.6508606</v>
       </c>
       <c r="P6">
-        <v>6.122060172</v>
+        <v>61.22060172</v>
       </c>
       <c r="Q6">
-        <v>5.17451942</v>
+        <v>51.7451942</v>
       </c>
       <c r="R6">
-        <v>5.389687843</v>
+        <v>53.89687843</v>
       </c>
       <c r="S6">
-        <v>4.546799002</v>
+        <v>45.46799002</v>
       </c>
       <c r="T6">
-        <v>7.883882371</v>
+        <v>78.83882371</v>
       </c>
       <c r="U6">
-        <v>9.879979820000001</v>
+        <v>98.79979820000001</v>
       </c>
       <c r="V6">
-        <v>11.07613141</v>
+        <v>110.7613141</v>
       </c>
       <c r="W6">
-        <v>8.247700789</v>
+        <v>82.47700789</v>
       </c>
       <c r="X6">
-        <v>8.986104765</v>
+        <v>89.86104765</v>
       </c>
       <c r="Y6">
-        <v>6.167198415</v>
+        <v>61.67198415</v>
       </c>
       <c r="Z6">
-        <v>6.935668673</v>
+        <v>69.35668673000001</v>
       </c>
       <c r="AA6">
-        <v>8.669771795000001</v>
+        <v>86.69771795000001</v>
       </c>
       <c r="AB6">
-        <v>7.176045528</v>
+        <v>71.76045528</v>
       </c>
       <c r="AC6">
-        <v>5.149040925</v>
+        <v>51.49040925000001</v>
       </c>
       <c r="AD6">
-        <v>5.179976239</v>
+        <v>51.79976239</v>
       </c>
       <c r="AE6">
-        <v>3.77401518</v>
+        <v>37.7401518</v>
       </c>
       <c r="AF6">
-        <v>6.719753479</v>
+        <v>67.19753479000001</v>
       </c>
       <c r="AG6">
-        <v>6.587997081</v>
+        <v>65.87997081</v>
       </c>
       <c r="AH6">
-        <v>7.186810487</v>
+        <v>71.86810487</v>
       </c>
       <c r="AI6">
-        <v>6.275687051</v>
+        <v>62.75687051</v>
       </c>
       <c r="AJ6">
-        <v>3.398929296</v>
+        <v>33.98929296</v>
       </c>
       <c r="AK6">
-        <v>10.77449179</v>
+        <v>107.7449179</v>
       </c>
       <c r="AL6">
-        <v>8.930081034000001</v>
+        <v>89.30081034</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7">
-        <v>5.113103044</v>
+        <v>51.13103044</v>
       </c>
       <c r="B7">
-        <v>6.423133413</v>
+        <v>64.23133413000001</v>
       </c>
       <c r="C7">
-        <v>5.375907888</v>
+        <v>53.75907888</v>
       </c>
       <c r="D7">
-        <v>3.708915327</v>
+        <v>37.08915327</v>
       </c>
       <c r="E7">
-        <v>3.860877423</v>
+        <v>38.60877422999999</v>
       </c>
       <c r="F7">
-        <v>9.028014538000001</v>
+        <v>90.28014538000001</v>
       </c>
       <c r="G7">
-        <v>11.79999927</v>
+        <v>117.9999927</v>
       </c>
       <c r="H7">
-        <v>8.453448539</v>
+        <v>84.53448539</v>
       </c>
       <c r="I7">
-        <v>4.892568735</v>
+        <v>48.92568735</v>
       </c>
       <c r="J7">
-        <v>6.145270547</v>
+        <v>61.45270547</v>
       </c>
       <c r="K7">
-        <v>8.811348291</v>
+        <v>88.11348291</v>
       </c>
       <c r="L7">
-        <v>4.319840452</v>
+        <v>43.19840452</v>
       </c>
       <c r="M7">
-        <v>7.665198962</v>
+        <v>76.65198961999999</v>
       </c>
       <c r="N7">
-        <v>5.890365613</v>
+        <v>58.90365613</v>
       </c>
       <c r="O7">
-        <v>3.145004966</v>
+        <v>31.45004966</v>
       </c>
       <c r="P7">
-        <v>4.607984083</v>
+        <v>46.07984082999999</v>
       </c>
       <c r="Q7">
-        <v>5.752504753</v>
+        <v>57.52504753</v>
       </c>
       <c r="R7">
-        <v>6.629630487</v>
+        <v>66.29630487</v>
       </c>
       <c r="S7">
-        <v>6.436298895</v>
+        <v>64.36298895</v>
       </c>
       <c r="T7">
-        <v>5.405410894</v>
+        <v>54.05410894</v>
       </c>
       <c r="U7">
-        <v>7.914982396</v>
+        <v>79.14982396000001</v>
       </c>
       <c r="V7">
-        <v>7.409518587</v>
+        <v>74.09518586999999</v>
       </c>
       <c r="W7">
-        <v>3.875448776</v>
+        <v>38.75448776</v>
       </c>
       <c r="X7">
-        <v>5.189661478</v>
+        <v>51.89661477999999</v>
       </c>
       <c r="Y7">
-        <v>5.198631767</v>
+        <v>51.98631767000001</v>
       </c>
       <c r="Z7">
-        <v>6.474601551</v>
+        <v>64.74601551000001</v>
       </c>
       <c r="AA7">
-        <v>8.842197832</v>
+        <v>88.42197831999999</v>
       </c>
       <c r="AB7">
-        <v>9.614049029</v>
+        <v>96.14049029</v>
       </c>
       <c r="AC7">
-        <v>10.04022445</v>
+        <v>100.4022445</v>
       </c>
       <c r="AD7">
-        <v>4.899486821</v>
+        <v>48.99486821</v>
       </c>
       <c r="AE7">
-        <v>7.131142566</v>
+        <v>71.31142566</v>
       </c>
       <c r="AF7">
-        <v>5.124856216</v>
+        <v>51.24856216000001</v>
       </c>
       <c r="AG7">
-        <v>4.441159403</v>
+        <v>44.41159403</v>
       </c>
       <c r="AH7">
-        <v>4.518894884</v>
+        <v>45.18894883999999</v>
       </c>
       <c r="AI7">
-        <v>4.961819307</v>
+        <v>49.61819307</v>
       </c>
       <c r="AJ7">
-        <v>7.996952001</v>
+        <v>79.96952001</v>
       </c>
       <c r="AK7">
-        <v>13.35395331</v>
+        <v>133.5395331</v>
       </c>
       <c r="AL7">
-        <v>20.25272737</v>
+        <v>202.5272737</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8">
-        <v>4.360289565</v>
+        <v>43.60289565000001</v>
       </c>
       <c r="B8">
-        <v>5.459680487</v>
+        <v>54.59680487</v>
       </c>
       <c r="C8">
-        <v>4.774754071</v>
+        <v>47.74754071</v>
       </c>
       <c r="D8">
-        <v>3.946963185</v>
+        <v>39.46963185</v>
       </c>
       <c r="E8">
-        <v>5.903006924</v>
+        <v>59.03006924</v>
       </c>
       <c r="F8">
-        <v>8.38015549</v>
+        <v>83.8015549</v>
       </c>
       <c r="G8">
-        <v>4.926276699</v>
+        <v>49.26276699</v>
       </c>
       <c r="H8">
-        <v>4.748512776</v>
+        <v>47.48512776</v>
       </c>
       <c r="I8">
-        <v>12.21093021</v>
+        <v>122.1093021</v>
       </c>
       <c r="J8">
-        <v>7.094766994</v>
+        <v>70.94766994</v>
       </c>
       <c r="K8">
-        <v>4.937615238</v>
+        <v>49.37615238</v>
       </c>
       <c r="L8">
-        <v>5.650479276</v>
+        <v>56.50479276</v>
       </c>
       <c r="M8">
-        <v>6.528582007</v>
+        <v>65.28582007</v>
       </c>
       <c r="N8">
-        <v>5.189184051</v>
+        <v>51.89184050999999</v>
       </c>
       <c r="O8">
-        <v>2.399301058</v>
+        <v>23.99301058</v>
       </c>
       <c r="P8">
-        <v>4.604455719</v>
+        <v>46.04455719</v>
       </c>
       <c r="Q8">
-        <v>3.691904573</v>
+        <v>36.91904573</v>
       </c>
       <c r="R8">
-        <v>4.89396821</v>
+        <v>48.9396821</v>
       </c>
       <c r="S8">
-        <v>7.305375662</v>
+        <v>73.05375662</v>
       </c>
       <c r="T8">
-        <v>9.550719282999999</v>
+        <v>95.50719282999999</v>
       </c>
       <c r="U8">
-        <v>4.811180447</v>
+        <v>48.11180447</v>
       </c>
       <c r="V8">
-        <v>6.358300783</v>
+        <v>63.58300783</v>
       </c>
       <c r="W8">
-        <v>5.480500721</v>
+        <v>54.80500721</v>
       </c>
       <c r="X8">
-        <v>3.884030757</v>
+        <v>38.84030757</v>
       </c>
       <c r="Y8">
-        <v>5.349806913</v>
+        <v>53.49806913</v>
       </c>
       <c r="Z8">
-        <v>5.30486577</v>
+        <v>53.0486577</v>
       </c>
       <c r="AA8">
-        <v>7.227870595</v>
+        <v>72.27870595</v>
       </c>
       <c r="AB8">
-        <v>2.796200326</v>
+        <v>27.96200326</v>
       </c>
       <c r="AC8">
-        <v>3.809882959</v>
+        <v>38.09882959</v>
       </c>
       <c r="AD8">
-        <v>3.126594738</v>
+        <v>31.26594738</v>
       </c>
       <c r="AE8">
-        <v>3.761058633</v>
+        <v>37.61058633</v>
       </c>
       <c r="AF8">
-        <v>7.641099216</v>
+        <v>76.41099215999999</v>
       </c>
       <c r="AG8">
-        <v>3.756829822</v>
+        <v>37.56829822</v>
       </c>
       <c r="AH8">
-        <v>4.05123377</v>
+        <v>40.5123377</v>
       </c>
       <c r="AI8">
-        <v>5.327038575</v>
+        <v>53.27038575</v>
       </c>
       <c r="AJ8">
-        <v>10.45981183</v>
+        <v>104.5981183</v>
       </c>
       <c r="AK8">
-        <v>8.321807420000001</v>
+        <v>83.2180742</v>
       </c>
       <c r="AL8">
-        <v>15.07490543</v>
+        <v>150.7490543</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9">
-        <v>6.950075127</v>
+        <v>69.50075126999999</v>
       </c>
       <c r="B9">
-        <v>6.776721763</v>
+        <v>67.76721763</v>
       </c>
       <c r="C9">
-        <v>3.201480853</v>
+        <v>32.01480853</v>
       </c>
       <c r="D9">
-        <v>6.326030645</v>
+        <v>63.26030645</v>
       </c>
       <c r="E9">
-        <v>4.8034695</v>
+        <v>48.034695</v>
       </c>
       <c r="F9">
-        <v>4.60440507</v>
+        <v>46.0440507</v>
       </c>
       <c r="G9">
-        <v>6.854274479</v>
+        <v>68.54274479</v>
       </c>
       <c r="H9">
-        <v>5.755024902</v>
+        <v>57.55024902</v>
       </c>
       <c r="I9">
-        <v>6.507632828</v>
+        <v>65.07632828</v>
       </c>
       <c r="J9">
-        <v>2.525228287</v>
+        <v>25.25228287</v>
       </c>
       <c r="K9">
-        <v>2.445763806</v>
+        <v>24.45763806</v>
       </c>
       <c r="L9">
-        <v>2.798967136</v>
+        <v>27.98967136</v>
       </c>
       <c r="M9">
-        <v>3.621489732</v>
+        <v>36.21489732</v>
       </c>
       <c r="N9">
-        <v>1.712971307</v>
+        <v>17.12971307</v>
       </c>
       <c r="O9">
-        <v>1.203964028</v>
+        <v>12.03964028</v>
       </c>
       <c r="P9">
-        <v>3.143344842</v>
+        <v>31.43344842</v>
       </c>
       <c r="Q9">
-        <v>3.971490517</v>
+        <v>39.71490517</v>
       </c>
       <c r="R9">
-        <v>6.874496945</v>
+        <v>68.74496945</v>
       </c>
       <c r="S9">
-        <v>5.311272609</v>
+        <v>53.11272609</v>
       </c>
       <c r="T9">
-        <v>5.163137665</v>
+        <v>51.63137665</v>
       </c>
       <c r="U9">
-        <v>5.670172663</v>
+        <v>56.70172663</v>
       </c>
       <c r="V9">
-        <v>2.475445721</v>
+        <v>24.75445721</v>
       </c>
       <c r="W9">
-        <v>3.289315437</v>
+        <v>32.89315437</v>
       </c>
       <c r="X9">
-        <v>4.21928832</v>
+        <v>42.1928832</v>
       </c>
       <c r="Y9">
-        <v>5.66280283</v>
+        <v>56.6280283</v>
       </c>
       <c r="Z9">
-        <v>9.262198775</v>
+        <v>92.62198775</v>
       </c>
       <c r="AA9">
-        <v>4.693058346</v>
+        <v>46.93058346</v>
       </c>
       <c r="AB9">
-        <v>3.083861265</v>
+        <v>30.83861265</v>
       </c>
       <c r="AC9">
-        <v>3.86420307</v>
+        <v>38.6420307</v>
       </c>
       <c r="AD9">
-        <v>4.707756508</v>
+        <v>47.07756508</v>
       </c>
       <c r="AE9">
-        <v>3.876568942</v>
+        <v>38.76568942</v>
       </c>
       <c r="AF9">
-        <v>3.252511507</v>
+        <v>32.52511507</v>
       </c>
       <c r="AG9">
-        <v>2.283251376</v>
+        <v>22.83251376</v>
       </c>
       <c r="AH9">
-        <v>1.581951908</v>
+        <v>15.81951908</v>
       </c>
       <c r="AI9">
-        <v>3.747573145</v>
+        <v>37.47573145</v>
       </c>
       <c r="AJ9">
-        <v>5.901896673</v>
+        <v>59.01896673</v>
       </c>
       <c r="AK9">
-        <v>11.18999941</v>
+        <v>111.8999941</v>
       </c>
       <c r="AL9">
-        <v>6.441897691</v>
+        <v>64.41897691</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10">
-        <v>8.831090172</v>
+        <v>88.31090172</v>
       </c>
       <c r="B10">
-        <v>7.505743063</v>
+        <v>75.05743063</v>
       </c>
       <c r="C10">
-        <v>4.21568237</v>
+        <v>42.1568237</v>
       </c>
       <c r="D10">
-        <v>5.966334422</v>
+        <v>59.66334422</v>
       </c>
       <c r="E10">
-        <v>8.466891746</v>
+        <v>84.66891746</v>
       </c>
       <c r="F10">
-        <v>5.191104404</v>
+        <v>51.91104404</v>
       </c>
       <c r="G10">
-        <v>6.251053873</v>
+        <v>62.51053873</v>
       </c>
       <c r="H10">
-        <v>5.861258076</v>
+        <v>58.61258076</v>
       </c>
       <c r="I10">
-        <v>5.110976435</v>
+        <v>51.10976435000001</v>
       </c>
       <c r="J10">
-        <v>5.081311864</v>
+        <v>50.81311864</v>
       </c>
       <c r="K10">
-        <v>5.843234342</v>
+        <v>58.43234342</v>
       </c>
       <c r="L10">
-        <v>3.749904861</v>
+        <v>37.49904861</v>
       </c>
       <c r="M10">
-        <v>2.903992369</v>
+        <v>29.03992369</v>
       </c>
       <c r="N10">
-        <v>3.00076864</v>
+        <v>30.0076864</v>
       </c>
       <c r="O10">
-        <v>2.974903107</v>
+        <v>29.74903107</v>
       </c>
       <c r="P10">
-        <v>3.279960794</v>
+        <v>32.79960794</v>
       </c>
       <c r="Q10">
-        <v>3.232443876</v>
+        <v>32.32443876</v>
       </c>
       <c r="R10">
-        <v>5.551505039</v>
+        <v>55.51505039</v>
       </c>
       <c r="S10">
-        <v>8.645461224</v>
+        <v>86.45461224</v>
       </c>
       <c r="T10">
-        <v>7.637531655</v>
+        <v>76.37531655000001</v>
       </c>
       <c r="U10">
-        <v>3.56624945</v>
+        <v>35.6624945</v>
       </c>
       <c r="V10">
-        <v>3.638994726</v>
+        <v>36.38994726</v>
       </c>
       <c r="W10">
-        <v>3.032187994</v>
+        <v>30.32187994</v>
       </c>
       <c r="X10">
-        <v>3.142006062</v>
+        <v>31.42006062</v>
       </c>
       <c r="Y10">
-        <v>4.374019889</v>
+        <v>43.74019889</v>
       </c>
       <c r="Z10">
-        <v>2.576424202</v>
+        <v>25.76424202</v>
       </c>
       <c r="AA10">
-        <v>3.750456137</v>
+        <v>37.50456137</v>
       </c>
       <c r="AB10">
-        <v>3.722663733</v>
+        <v>37.22663733</v>
       </c>
       <c r="AC10">
-        <v>3.402411583</v>
+        <v>34.02411583</v>
       </c>
       <c r="AD10">
-        <v>3.398956488</v>
+        <v>33.98956488</v>
       </c>
       <c r="AE10">
-        <v>3.488641723</v>
+        <v>34.88641723</v>
       </c>
       <c r="AF10">
-        <v>2.069215333</v>
+        <v>20.69215333</v>
       </c>
       <c r="AG10">
-        <v>2.879326663</v>
+        <v>28.79326663</v>
       </c>
       <c r="AH10">
-        <v>4.463023581</v>
+        <v>44.63023581</v>
       </c>
       <c r="AI10">
-        <v>5.956936204</v>
+        <v>59.56936204</v>
       </c>
       <c r="AJ10">
-        <v>4.378610643</v>
+        <v>43.78610643</v>
       </c>
       <c r="AK10">
-        <v>5.539040934</v>
+        <v>55.39040934</v>
       </c>
       <c r="AL10">
-        <v>6.137828218</v>
+        <v>61.37828218</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11">
-        <v>7.850172211</v>
+        <v>78.50172211</v>
       </c>
       <c r="B11">
-        <v>7.410430014</v>
+        <v>74.10430014000001</v>
       </c>
       <c r="C11">
-        <v>8.145400965</v>
+        <v>81.45400965</v>
       </c>
       <c r="D11">
-        <v>6.70020732</v>
+        <v>67.0020732</v>
       </c>
       <c r="E11">
-        <v>13.39573629</v>
+        <v>133.9573629</v>
       </c>
       <c r="F11">
-        <v>5.088914107</v>
+        <v>50.88914107</v>
       </c>
       <c r="G11">
-        <v>6.65736306</v>
+        <v>66.5736306</v>
       </c>
       <c r="H11">
-        <v>6.545353897</v>
+        <v>65.45353897</v>
       </c>
       <c r="I11">
-        <v>9.993825669</v>
+        <v>99.93825669</v>
       </c>
       <c r="J11">
-        <v>5.857199974</v>
+        <v>58.57199974</v>
       </c>
       <c r="K11">
-        <v>3.716459505</v>
+        <v>37.16459505</v>
       </c>
       <c r="L11">
-        <v>3.609150656</v>
+        <v>36.09150656</v>
       </c>
       <c r="M11">
-        <v>6.796382391</v>
+        <v>67.96382391</v>
       </c>
       <c r="N11">
-        <v>2.015403592</v>
+        <v>20.15403592</v>
       </c>
       <c r="O11">
-        <v>6.252067251</v>
+        <v>62.52067251</v>
       </c>
       <c r="P11">
-        <v>6.61848088</v>
+        <v>66.1848088</v>
       </c>
       <c r="Q11">
-        <v>7.171382614</v>
+        <v>71.71382613999999</v>
       </c>
       <c r="R11">
-        <v>9.233022588000001</v>
+        <v>92.33022588</v>
       </c>
       <c r="S11">
-        <v>7.457337666</v>
+        <v>74.57337665999999</v>
       </c>
       <c r="T11">
-        <v>8.089051406999999</v>
+        <v>80.89051406999999</v>
       </c>
       <c r="U11">
-        <v>7.681297431</v>
+        <v>76.81297431</v>
       </c>
       <c r="V11">
-        <v>3.88059491</v>
+        <v>38.8059491</v>
       </c>
       <c r="W11">
-        <v>2.27133433</v>
+        <v>22.7133433</v>
       </c>
       <c r="X11">
-        <v>2.426537804</v>
+        <v>24.26537804</v>
       </c>
       <c r="Y11">
-        <v>4.998807926</v>
+        <v>49.98807925999999</v>
       </c>
       <c r="Z11">
-        <v>2.066961117</v>
+        <v>20.66961117</v>
       </c>
       <c r="AA11">
-        <v>4.281303286</v>
+        <v>42.81303286</v>
       </c>
       <c r="AB11">
-        <v>4.227917137</v>
+        <v>42.27917137</v>
       </c>
       <c r="AC11">
-        <v>1.825145061</v>
+        <v>18.25145061</v>
       </c>
       <c r="AD11">
-        <v>3.676923765</v>
+        <v>36.76923765</v>
       </c>
       <c r="AE11">
-        <v>2.359914688</v>
+        <v>23.59914688</v>
       </c>
       <c r="AF11">
-        <v>3.100174714</v>
+        <v>31.00174714</v>
       </c>
       <c r="AG11">
-        <v>2.140136194</v>
+        <v>21.40136194</v>
       </c>
       <c r="AH11">
-        <v>3.03735621</v>
+        <v>30.3735621</v>
       </c>
       <c r="AI11">
-        <v>2.801537768</v>
+        <v>28.01537768</v>
       </c>
       <c r="AJ11">
-        <v>3.925726655</v>
+        <v>39.25726655</v>
       </c>
       <c r="AK11">
-        <v>5.143236082</v>
+        <v>51.43236082</v>
       </c>
       <c r="AL11">
-        <v>7.62014554</v>
+        <v>76.2014554</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12">
-        <v>3.60430682</v>
+        <v>36.0430682</v>
       </c>
       <c r="B12">
-        <v>5.367817864</v>
+        <v>53.67817864</v>
       </c>
       <c r="C12">
-        <v>3.730437314</v>
+        <v>37.30437314</v>
       </c>
       <c r="D12">
-        <v>10.26391627</v>
+        <v>102.6391627</v>
       </c>
       <c r="E12">
-        <v>7.471206279</v>
+        <v>74.71206278999999</v>
       </c>
       <c r="F12">
-        <v>6.569837964</v>
+        <v>65.69837964</v>
       </c>
       <c r="G12">
-        <v>9.981620673</v>
+        <v>99.81620673</v>
       </c>
       <c r="H12">
-        <v>10.55350961</v>
+        <v>105.5350961</v>
       </c>
       <c r="I12">
-        <v>4.462974488</v>
+        <v>44.62974488</v>
       </c>
       <c r="J12">
-        <v>4.740589378</v>
+        <v>47.40589378</v>
       </c>
       <c r="K12">
-        <v>4.682936963</v>
+        <v>46.82936963</v>
       </c>
       <c r="L12">
-        <v>8.146769508</v>
+        <v>81.46769508</v>
       </c>
       <c r="M12">
-        <v>4.200486993</v>
+        <v>42.00486993</v>
       </c>
       <c r="N12">
-        <v>5.044696378</v>
+        <v>50.44696378</v>
       </c>
       <c r="O12">
-        <v>7.255192861</v>
+        <v>72.55192861</v>
       </c>
       <c r="P12">
-        <v>6.968628749</v>
+        <v>69.68628749</v>
       </c>
       <c r="Q12">
-        <v>11.06745112</v>
+        <v>110.6745112</v>
       </c>
       <c r="R12">
-        <v>5.619766805</v>
+        <v>56.19766805</v>
       </c>
       <c r="S12">
-        <v>7.574500959</v>
+        <v>75.74500959</v>
       </c>
       <c r="T12">
-        <v>11.24821522</v>
+        <v>112.4821522</v>
       </c>
       <c r="U12">
-        <v>4.298561661</v>
+        <v>42.98561661</v>
       </c>
       <c r="V12">
-        <v>4.306654864</v>
+        <v>43.06654864000001</v>
       </c>
       <c r="W12">
-        <v>2.716783026</v>
+        <v>27.16783026</v>
       </c>
       <c r="X12">
-        <v>1.216660085</v>
+        <v>12.16660085</v>
       </c>
       <c r="Y12">
-        <v>2.748253088</v>
+        <v>27.48253088</v>
       </c>
       <c r="Z12">
-        <v>4.02252361</v>
+        <v>40.2252361</v>
       </c>
       <c r="AA12">
-        <v>2.407898726</v>
+        <v>24.07898726</v>
       </c>
       <c r="AB12">
-        <v>4.441314847</v>
+        <v>44.41314847</v>
       </c>
       <c r="AC12">
-        <v>3.667009461</v>
+        <v>36.67009461</v>
       </c>
       <c r="AD12">
-        <v>4.287086948</v>
+        <v>42.87086948</v>
       </c>
       <c r="AE12">
-        <v>4.120874793</v>
+        <v>41.20874792999999</v>
       </c>
       <c r="AF12">
-        <v>1.544668724</v>
+        <v>15.44668724</v>
       </c>
       <c r="AG12">
-        <v>2.795688668</v>
+        <v>27.95688668</v>
       </c>
       <c r="AH12">
-        <v>3.637346634</v>
+        <v>36.37346634</v>
       </c>
       <c r="AI12">
-        <v>5.042542752</v>
+        <v>50.42542752</v>
       </c>
       <c r="AJ12">
-        <v>4.627868844</v>
+        <v>46.27868844</v>
       </c>
       <c r="AK12">
-        <v>5.102836029</v>
+        <v>51.02836028999999</v>
       </c>
       <c r="AL12">
-        <v>6.168261115</v>
+        <v>61.68261115</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13">
-        <v>7.703359013</v>
+        <v>77.03359012999999</v>
       </c>
       <c r="B13">
-        <v>4.562147562</v>
+        <v>45.62147562</v>
       </c>
       <c r="C13">
-        <v>3.272294658</v>
+        <v>32.72294658</v>
       </c>
       <c r="D13">
-        <v>3.413699052</v>
+        <v>34.13699052</v>
       </c>
       <c r="E13">
-        <v>3.945345262</v>
+        <v>39.45345262</v>
       </c>
       <c r="F13">
-        <v>6.266612699</v>
+        <v>62.66612699</v>
       </c>
       <c r="G13">
-        <v>5.678161889</v>
+        <v>56.78161889</v>
       </c>
       <c r="H13">
-        <v>6.360137326</v>
+        <v>63.60137326</v>
       </c>
       <c r="I13">
-        <v>5.864516668</v>
+        <v>58.64516668</v>
       </c>
       <c r="J13">
-        <v>4.992148954</v>
+        <v>49.92148954</v>
       </c>
       <c r="K13">
-        <v>8.847849802000001</v>
+        <v>88.47849802</v>
       </c>
       <c r="L13">
-        <v>3.871602365</v>
+        <v>38.71602365</v>
       </c>
       <c r="M13">
-        <v>4.29624536</v>
+        <v>42.9624536</v>
       </c>
       <c r="N13">
-        <v>8.965325993</v>
+        <v>89.65325993</v>
       </c>
       <c r="O13">
-        <v>7.62458938</v>
+        <v>76.2458938</v>
       </c>
       <c r="P13">
-        <v>8.594912593</v>
+        <v>85.94912593000001</v>
       </c>
       <c r="Q13">
-        <v>7.476677204</v>
+        <v>74.76677203999999</v>
       </c>
       <c r="R13">
-        <v>12.32911415</v>
+        <v>123.2911415</v>
       </c>
       <c r="S13">
-        <v>6.073397505</v>
+        <v>60.73397505</v>
       </c>
       <c r="T13">
-        <v>6.345179998</v>
+        <v>63.45179998</v>
       </c>
       <c r="U13">
-        <v>2.44239098</v>
+        <v>24.4239098</v>
       </c>
       <c r="V13">
-        <v>2.479481509</v>
+        <v>24.79481509</v>
       </c>
       <c r="W13">
-        <v>1.791869466</v>
+        <v>17.91869466</v>
       </c>
       <c r="X13">
-        <v>2.233818536</v>
+        <v>22.33818536</v>
       </c>
       <c r="Y13">
-        <v>3.243456134</v>
+        <v>32.43456134</v>
       </c>
       <c r="Z13">
-        <v>4.729135751</v>
+        <v>47.29135751</v>
       </c>
       <c r="AA13">
-        <v>3.410802051</v>
+        <v>34.10802051</v>
       </c>
       <c r="AB13">
-        <v>2.860880571</v>
+        <v>28.60880571</v>
       </c>
       <c r="AC13">
-        <v>4.198005238</v>
+        <v>41.98005238</v>
       </c>
       <c r="AD13">
-        <v>3.007973118</v>
+        <v>30.07973118</v>
       </c>
       <c r="AE13">
-        <v>3.038285783</v>
+        <v>30.38285783</v>
       </c>
       <c r="AF13">
-        <v>2.080731406</v>
+        <v>20.80731406</v>
       </c>
       <c r="AG13">
-        <v>3.223921479</v>
+        <v>32.23921479</v>
       </c>
       <c r="AH13">
-        <v>3.061724959</v>
+        <v>30.61724959</v>
       </c>
       <c r="AI13">
-        <v>3.267099111</v>
+        <v>32.67099111</v>
       </c>
       <c r="AJ13">
-        <v>3.352882653</v>
+        <v>33.52882653</v>
       </c>
       <c r="AK13">
-        <v>4.246786033</v>
+        <v>42.46786033</v>
       </c>
       <c r="AL13">
-        <v>4.694612005</v>
+        <v>46.94612005</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14">
-        <v>5.947856183</v>
+        <v>59.47856183</v>
       </c>
       <c r="B14">
-        <v>6.31511565</v>
+        <v>63.1511565</v>
       </c>
       <c r="C14">
-        <v>5.242851183</v>
+        <v>52.42851183</v>
       </c>
       <c r="D14">
-        <v>5.655753634</v>
+        <v>56.55753634</v>
       </c>
       <c r="E14">
-        <v>9.250054738999999</v>
+        <v>92.50054738999999</v>
       </c>
       <c r="F14">
-        <v>7.629859792</v>
+        <v>76.29859792000001</v>
       </c>
       <c r="G14">
-        <v>3.844315137</v>
+        <v>38.44315137</v>
       </c>
       <c r="H14">
-        <v>6.36074284</v>
+        <v>63.6074284</v>
       </c>
       <c r="I14">
-        <v>9.710244568</v>
+        <v>97.10244568</v>
       </c>
       <c r="J14">
-        <v>10.34166074</v>
+        <v>103.4166074</v>
       </c>
       <c r="K14">
-        <v>7.139290982</v>
+        <v>71.39290982</v>
       </c>
       <c r="L14">
-        <v>7.162423986</v>
+        <v>71.62423986</v>
       </c>
       <c r="M14">
-        <v>7.992866603</v>
+        <v>79.92866603</v>
       </c>
       <c r="N14">
-        <v>12.74964552</v>
+        <v>127.4964552</v>
       </c>
       <c r="O14">
-        <v>15.3777317</v>
+        <v>153.777317</v>
       </c>
       <c r="P14">
-        <v>15.29627706</v>
+        <v>152.9627706</v>
       </c>
       <c r="Q14">
-        <v>9.861413045000001</v>
+        <v>98.61413045</v>
       </c>
       <c r="R14">
-        <v>6.494142841</v>
+        <v>64.94142841</v>
       </c>
       <c r="S14">
-        <v>5.598287062</v>
+        <v>55.98287062</v>
       </c>
       <c r="T14">
-        <v>1.914390833</v>
+        <v>19.14390833</v>
       </c>
       <c r="U14">
-        <v>2.763755572</v>
+        <v>27.63755572</v>
       </c>
       <c r="V14">
-        <v>2.768053787</v>
+        <v>27.68053787</v>
       </c>
       <c r="W14">
-        <v>4.0144304</v>
+        <v>40.14430400000001</v>
       </c>
       <c r="X14">
-        <v>3.86601194</v>
+        <v>38.6601194</v>
       </c>
       <c r="Y14">
-        <v>3.152562043</v>
+        <v>31.52562043</v>
       </c>
       <c r="Z14">
-        <v>2.842916521</v>
+        <v>28.42916521</v>
       </c>
       <c r="AA14">
-        <v>4.402090181</v>
+        <v>44.02090181</v>
       </c>
       <c r="AB14">
-        <v>3.690667992</v>
+        <v>36.90667992</v>
       </c>
       <c r="AC14">
-        <v>3.496580424</v>
+        <v>34.96580424</v>
       </c>
       <c r="AD14">
-        <v>4.168884397</v>
+        <v>41.68884397</v>
       </c>
       <c r="AE14">
-        <v>2.569798444</v>
+        <v>25.69798444</v>
       </c>
       <c r="AF14">
-        <v>2.954869446</v>
+        <v>29.54869446</v>
       </c>
       <c r="AG14">
-        <v>2.039285434</v>
+        <v>20.39285434</v>
       </c>
       <c r="AH14">
-        <v>3.583594938</v>
+        <v>35.83594938</v>
       </c>
       <c r="AI14">
-        <v>2.858898667</v>
+        <v>28.58898667</v>
       </c>
       <c r="AJ14">
-        <v>4.166446312</v>
+        <v>41.66446311999999</v>
       </c>
       <c r="AK14">
-        <v>5.10364234</v>
+        <v>51.0364234</v>
       </c>
       <c r="AL14">
-        <v>5.778207244</v>
+        <v>57.78207244</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15">
-        <v>7.586523649</v>
+        <v>75.86523649</v>
       </c>
       <c r="B15">
-        <v>16.11667531</v>
+        <v>161.1667531</v>
       </c>
       <c r="C15">
-        <v>9.385232743</v>
+        <v>93.85232743</v>
       </c>
       <c r="D15">
-        <v>11.92743811</v>
+        <v>119.2743811</v>
       </c>
       <c r="E15">
-        <v>10.38713965</v>
+        <v>103.8713965</v>
       </c>
       <c r="F15">
-        <v>7.469517977</v>
+        <v>74.69517977</v>
       </c>
       <c r="G15">
-        <v>6.187112312</v>
+        <v>61.87112312</v>
       </c>
       <c r="H15">
-        <v>11.39750497</v>
+        <v>113.9750497</v>
       </c>
       <c r="I15">
-        <v>6.46420393</v>
+        <v>64.64203929999999</v>
       </c>
       <c r="J15">
-        <v>16.14997448</v>
+        <v>161.4997448</v>
       </c>
       <c r="K15">
-        <v>9.219321725</v>
+        <v>92.19321725</v>
       </c>
       <c r="L15">
-        <v>12.51292949</v>
+        <v>125.1292949</v>
       </c>
       <c r="M15">
-        <v>14.38467594</v>
+        <v>143.8467594</v>
       </c>
       <c r="N15">
-        <v>12.94406613</v>
+        <v>129.4406613</v>
       </c>
       <c r="O15">
-        <v>17.27930373</v>
+        <v>172.7930373</v>
       </c>
       <c r="P15">
-        <v>18.38820579</v>
+        <v>183.8820579</v>
       </c>
       <c r="Q15">
-        <v>11.03111007</v>
+        <v>110.3111007</v>
       </c>
       <c r="R15">
-        <v>4.982922016</v>
+        <v>49.82922016</v>
       </c>
       <c r="S15">
-        <v>3.813092231</v>
+        <v>38.13092231</v>
       </c>
       <c r="T15">
-        <v>5.031043758</v>
+        <v>50.31043758</v>
       </c>
       <c r="U15">
-        <v>4.463715403</v>
+        <v>44.63715403</v>
       </c>
       <c r="V15">
-        <v>5.289726109</v>
+        <v>52.89726109</v>
       </c>
       <c r="W15">
-        <v>5.665323904</v>
+        <v>56.65323904</v>
       </c>
       <c r="X15">
-        <v>4.879649869</v>
+        <v>48.79649868999999</v>
       </c>
       <c r="Y15">
-        <v>5.795924332</v>
+        <v>57.95924332</v>
       </c>
       <c r="Z15">
-        <v>4.921111744</v>
+        <v>49.21111744</v>
       </c>
       <c r="AA15">
-        <v>3.391042748</v>
+        <v>33.91042748</v>
       </c>
       <c r="AB15">
-        <v>4.913308134</v>
+        <v>49.13308134</v>
       </c>
       <c r="AC15">
-        <v>3.392606379</v>
+        <v>33.92606379</v>
       </c>
       <c r="AD15">
-        <v>3.564431126</v>
+        <v>35.64431126</v>
       </c>
       <c r="AE15">
-        <v>3.542300834</v>
+        <v>35.42300834</v>
       </c>
       <c r="AF15">
-        <v>1.807111057</v>
+        <v>18.07111057</v>
       </c>
       <c r="AG15">
-        <v>2.790200534</v>
+        <v>27.90200534</v>
       </c>
       <c r="AH15">
-        <v>4.503768403</v>
+        <v>45.03768402999999</v>
       </c>
       <c r="AI15">
-        <v>4.848476196</v>
+        <v>48.48476196</v>
       </c>
       <c r="AJ15">
-        <v>3.61192716</v>
+        <v>36.1192716</v>
       </c>
       <c r="AK15">
-        <v>4.062727188</v>
+        <v>40.62727188</v>
       </c>
       <c r="AL15">
-        <v>5.045866883</v>
+        <v>50.45866883000001</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16">
-        <v>9.112959025</v>
+        <v>91.12959025000001</v>
       </c>
       <c r="B16">
-        <v>6.331107423</v>
+        <v>63.31107423</v>
       </c>
       <c r="C16">
-        <v>8.079802824</v>
+        <v>80.79802823999999</v>
       </c>
       <c r="D16">
-        <v>9.381995396000001</v>
+        <v>93.81995396000001</v>
       </c>
       <c r="E16">
-        <v>11.52483727</v>
+        <v>115.2483727</v>
       </c>
       <c r="F16">
-        <v>8.874016118</v>
+        <v>88.74016118</v>
       </c>
       <c r="G16">
-        <v>12.36860577</v>
+        <v>123.6860577</v>
       </c>
       <c r="H16">
-        <v>13.16843225</v>
+        <v>131.6843225</v>
       </c>
       <c r="I16">
-        <v>8.400779248999999</v>
+        <v>84.00779248999999</v>
       </c>
       <c r="J16">
-        <v>9.805137365</v>
+        <v>98.05137365</v>
       </c>
       <c r="K16">
-        <v>15.22831417</v>
+        <v>152.2831417</v>
       </c>
       <c r="L16">
-        <v>15.04325126</v>
+        <v>150.4325126</v>
       </c>
       <c r="M16">
-        <v>13.22607777</v>
+        <v>132.2607777</v>
       </c>
       <c r="N16">
-        <v>10.01601658</v>
+        <v>100.1601658</v>
       </c>
       <c r="O16">
-        <v>13.69813195</v>
+        <v>136.9813195</v>
       </c>
       <c r="P16">
-        <v>6.119410505</v>
+        <v>61.19410505</v>
       </c>
       <c r="Q16">
-        <v>10.30485836</v>
+        <v>103.0485836</v>
       </c>
       <c r="R16">
-        <v>10.44973343</v>
+        <v>104.4973343</v>
       </c>
       <c r="S16">
-        <v>4.773761026</v>
+        <v>47.73761026</v>
       </c>
       <c r="T16">
-        <v>5.672333977</v>
+        <v>56.72333977</v>
       </c>
       <c r="U16">
-        <v>7.315785927</v>
+        <v>73.15785927</v>
       </c>
       <c r="V16">
-        <v>6.146206543</v>
+        <v>61.46206543</v>
       </c>
       <c r="W16">
-        <v>3.222007038</v>
+        <v>32.22007038</v>
       </c>
       <c r="X16">
-        <v>3.369389158</v>
+        <v>33.69389158</v>
       </c>
       <c r="Y16">
-        <v>4.048852344</v>
+        <v>40.48852344</v>
       </c>
       <c r="Z16">
-        <v>7.322973558</v>
+        <v>73.22973558</v>
       </c>
       <c r="AA16">
-        <v>3.654862487</v>
+        <v>36.54862487</v>
       </c>
       <c r="AB16">
-        <v>4.326744749</v>
+        <v>43.26744749</v>
       </c>
       <c r="AC16">
-        <v>4.988476084</v>
+        <v>49.88476084</v>
       </c>
       <c r="AD16">
-        <v>2.615272946</v>
+        <v>26.15272946</v>
       </c>
       <c r="AE16">
-        <v>1.35093841</v>
+        <v>13.5093841</v>
       </c>
       <c r="AF16">
-        <v>2.432035277</v>
+        <v>24.32035277</v>
       </c>
       <c r="AG16">
-        <v>1.878849214</v>
+        <v>18.78849214</v>
       </c>
       <c r="AH16">
-        <v>3.154167106</v>
+        <v>31.54167106</v>
       </c>
       <c r="AI16">
-        <v>3.865787718</v>
+        <v>38.65787718</v>
       </c>
       <c r="AJ16">
-        <v>3.153760244</v>
+        <v>31.53760244</v>
       </c>
       <c r="AK16">
-        <v>4.754276217</v>
+        <v>47.54276217</v>
       </c>
       <c r="AL16">
-        <v>5.43777554</v>
+        <v>54.3777554</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17">
-        <v>6.180318882</v>
+        <v>61.80318882</v>
       </c>
       <c r="B17">
-        <v>5.023658581</v>
+        <v>50.23658581</v>
       </c>
       <c r="C17">
-        <v>5.187373342</v>
+        <v>51.87373342</v>
       </c>
       <c r="D17">
-        <v>6.47905437</v>
+        <v>64.7905437</v>
       </c>
       <c r="E17">
-        <v>4.769404571</v>
+        <v>47.69404571</v>
       </c>
       <c r="F17">
-        <v>6.399152561</v>
+        <v>63.99152561</v>
       </c>
       <c r="G17">
-        <v>8.247164706</v>
+        <v>82.47164706</v>
       </c>
       <c r="H17">
-        <v>9.851467897999999</v>
+        <v>98.51467897999999</v>
       </c>
       <c r="I17">
-        <v>11.8974426</v>
+        <v>118.974426</v>
       </c>
       <c r="J17">
-        <v>9.726347780999999</v>
+        <v>97.26347781</v>
       </c>
       <c r="K17">
-        <v>10.86216304</v>
+        <v>108.6216304</v>
       </c>
       <c r="L17">
-        <v>7.757262251</v>
+        <v>77.57262251</v>
       </c>
       <c r="M17">
-        <v>8.884502522</v>
+        <v>88.84502522</v>
       </c>
       <c r="N17">
-        <v>9.786691662999999</v>
+        <v>97.86691662999999</v>
       </c>
       <c r="O17">
-        <v>16.55816725</v>
+        <v>165.5816725</v>
       </c>
       <c r="P17">
-        <v>11.54745965</v>
+        <v>115.4745965</v>
       </c>
       <c r="Q17">
-        <v>7.84404362</v>
+        <v>78.44043619999999</v>
       </c>
       <c r="R17">
-        <v>7.331436479</v>
+        <v>73.31436479</v>
       </c>
       <c r="S17">
-        <v>5.813764928</v>
+        <v>58.13764928000001</v>
       </c>
       <c r="T17">
-        <v>5.342856683</v>
+        <v>53.42856683</v>
       </c>
       <c r="U17">
-        <v>6.358969076</v>
+        <v>63.58969076</v>
       </c>
       <c r="V17">
-        <v>3.620283976</v>
+        <v>36.20283976</v>
       </c>
       <c r="W17">
-        <v>4.471985392</v>
+        <v>44.71985392</v>
       </c>
       <c r="X17">
-        <v>5.375983152</v>
+        <v>53.75983152</v>
       </c>
       <c r="Y17">
-        <v>6.187712491</v>
+        <v>61.87712491</v>
       </c>
       <c r="Z17">
-        <v>3.535895069</v>
+        <v>35.35895069</v>
       </c>
       <c r="AA17">
-        <v>5.925823527</v>
+        <v>59.25823527</v>
       </c>
       <c r="AB17">
-        <v>2.378503407</v>
+        <v>23.78503407</v>
       </c>
       <c r="AC17">
-        <v>4.571829574</v>
+        <v>45.71829573999999</v>
       </c>
       <c r="AD17">
-        <v>2.928804939</v>
+        <v>29.28804939</v>
       </c>
       <c r="AE17">
-        <v>2.008803898</v>
+        <v>20.08803898</v>
       </c>
       <c r="AF17">
-        <v>3.450128474</v>
+        <v>34.50128474</v>
       </c>
       <c r="AG17">
-        <v>3.364809904</v>
+        <v>33.64809904</v>
       </c>
       <c r="AH17">
-        <v>3.575723271</v>
+        <v>35.75723271</v>
       </c>
       <c r="AI17">
-        <v>2.539005501</v>
+        <v>25.39005501</v>
       </c>
       <c r="AJ17">
-        <v>2.363433582</v>
+        <v>23.63433582</v>
       </c>
       <c r="AK17">
-        <v>6.326388709</v>
+        <v>63.26388709</v>
       </c>
       <c r="AL17">
-        <v>7.652125629</v>
+        <v>76.52125629</v>
       </c>
     </row>
     <row r="18" spans="1:38">
       <c r="A18">
-        <v>7.019868385</v>
+        <v>70.19868384999999</v>
       </c>
       <c r="B18">
-        <v>5.334181591</v>
+        <v>53.34181591</v>
       </c>
       <c r="C18">
-        <v>3.324344358</v>
+        <v>33.24344358</v>
       </c>
       <c r="D18">
-        <v>4.109537407</v>
+        <v>41.09537407000001</v>
       </c>
       <c r="E18">
-        <v>4.901902864</v>
+        <v>49.01902864</v>
       </c>
       <c r="F18">
-        <v>3.462124677</v>
+        <v>34.62124677</v>
       </c>
       <c r="G18">
-        <v>4.173986061</v>
+        <v>41.73986061</v>
       </c>
       <c r="H18">
-        <v>8.018131937</v>
+        <v>80.18131937</v>
       </c>
       <c r="I18">
-        <v>6.189268896</v>
+        <v>61.89268896</v>
       </c>
       <c r="J18">
-        <v>7.944250577</v>
+        <v>79.44250577</v>
       </c>
       <c r="K18">
-        <v>13.13199303</v>
+        <v>131.3199303</v>
       </c>
       <c r="L18">
-        <v>10.88725097</v>
+        <v>108.8725097</v>
       </c>
       <c r="M18">
-        <v>8.926527568999999</v>
+        <v>89.26527569</v>
       </c>
       <c r="N18">
-        <v>10.94028086</v>
+        <v>109.4028086</v>
       </c>
       <c r="O18">
-        <v>9.280556097</v>
+        <v>92.80556097</v>
       </c>
       <c r="P18">
-        <v>7.418504368</v>
+        <v>74.18504367999999</v>
       </c>
       <c r="Q18">
-        <v>6.555311711</v>
+        <v>65.55311711</v>
       </c>
       <c r="R18">
-        <v>4.791844782</v>
+        <v>47.91844782</v>
       </c>
       <c r="S18">
-        <v>5.548786578</v>
+        <v>55.48786577999999</v>
       </c>
       <c r="T18">
-        <v>2.700458219</v>
+        <v>27.00458219</v>
       </c>
       <c r="U18">
-        <v>3.810831738</v>
+        <v>38.10831738</v>
       </c>
       <c r="V18">
-        <v>2.770102905</v>
+        <v>27.70102905</v>
       </c>
       <c r="W18">
-        <v>3.915885437</v>
+        <v>39.15885437</v>
       </c>
       <c r="X18">
-        <v>4.131516245</v>
+        <v>41.31516245</v>
       </c>
       <c r="Y18">
-        <v>4.534879306</v>
+        <v>45.34879306</v>
       </c>
       <c r="Z18">
-        <v>3.695845937</v>
+        <v>36.95845937</v>
       </c>
       <c r="AA18">
-        <v>4.343308866</v>
+        <v>43.43308866</v>
       </c>
       <c r="AB18">
-        <v>3.882593931</v>
+        <v>38.82593931</v>
       </c>
       <c r="AC18">
-        <v>2.596302894</v>
+        <v>25.96302894</v>
       </c>
       <c r="AD18">
-        <v>4.809467972</v>
+        <v>48.09467972</v>
       </c>
       <c r="AE18">
-        <v>3.409318675</v>
+        <v>34.09318675</v>
       </c>
       <c r="AF18">
-        <v>6.086051839</v>
+        <v>60.86051839</v>
       </c>
       <c r="AG18">
-        <v>6.174358986</v>
+        <v>61.74358986</v>
       </c>
       <c r="AH18">
-        <v>3.610024176</v>
+        <v>36.10024176</v>
       </c>
       <c r="AI18">
-        <v>2.74729961</v>
+        <v>27.4729961</v>
       </c>
       <c r="AJ18">
-        <v>4.142756838</v>
+        <v>41.42756838</v>
       </c>
       <c r="AK18">
-        <v>6.629452816</v>
+        <v>66.29452816</v>
       </c>
       <c r="AL18">
-        <v>7.699138729</v>
+        <v>76.99138729000001</v>
       </c>
     </row>
     <row r="19" spans="1:38">
       <c r="A19">
-        <v>3.7324299</v>
+        <v>37.324299</v>
       </c>
       <c r="B19">
-        <v>7.613694009</v>
+        <v>76.13694009</v>
       </c>
       <c r="C19">
-        <v>6.770774412</v>
+        <v>67.70774412</v>
       </c>
       <c r="D19">
-        <v>5.430374331</v>
+        <v>54.30374331</v>
       </c>
       <c r="E19">
-        <v>2.294771947</v>
+        <v>22.94771947</v>
       </c>
       <c r="F19">
-        <v>5.527871104</v>
+        <v>55.27871104</v>
       </c>
       <c r="G19">
-        <v>6.101749109</v>
+        <v>61.01749109</v>
       </c>
       <c r="H19">
-        <v>5.718345808</v>
+        <v>57.18345807999999</v>
       </c>
       <c r="I19">
-        <v>7.802478731</v>
+        <v>78.02478730999999</v>
       </c>
       <c r="J19">
-        <v>8.180624310000001</v>
+        <v>81.8062431</v>
       </c>
       <c r="K19">
-        <v>5.594757336</v>
+        <v>55.94757336</v>
       </c>
       <c r="L19">
-        <v>6.770869204</v>
+        <v>67.70869204</v>
       </c>
       <c r="M19">
-        <v>6.639996718</v>
+        <v>66.39996718</v>
       </c>
       <c r="N19">
-        <v>4.548540759</v>
+        <v>45.48540758999999</v>
       </c>
       <c r="O19">
-        <v>6.860185411</v>
+        <v>68.60185411</v>
       </c>
       <c r="P19">
-        <v>5.899452024</v>
+        <v>58.99452024</v>
       </c>
       <c r="Q19">
-        <v>5.672546126</v>
+        <v>56.72546126</v>
       </c>
       <c r="R19">
-        <v>6.073978757</v>
+        <v>60.73978757</v>
       </c>
       <c r="S19">
-        <v>3.481692302</v>
+        <v>34.81692302</v>
       </c>
       <c r="T19">
-        <v>3.311374862</v>
+        <v>33.11374862</v>
       </c>
       <c r="U19">
-        <v>1.928841318</v>
+        <v>19.28841318</v>
       </c>
       <c r="V19">
-        <v>4.12413157</v>
+        <v>41.2413157</v>
       </c>
       <c r="W19">
-        <v>4.554111582</v>
+        <v>45.54111582</v>
       </c>
       <c r="X19">
-        <v>4.197942269</v>
+        <v>41.97942269000001</v>
       </c>
       <c r="Y19">
-        <v>4.130648718</v>
+        <v>41.30648718</v>
       </c>
       <c r="Z19">
-        <v>4.090701492</v>
+        <v>40.90701492</v>
       </c>
       <c r="AA19">
-        <v>2.919617076</v>
+        <v>29.19617076</v>
       </c>
       <c r="AB19">
-        <v>3.125997616</v>
+        <v>31.25997616</v>
       </c>
       <c r="AC19">
-        <v>3.897683761</v>
+        <v>38.97683761</v>
       </c>
       <c r="AD19">
-        <v>5.182686075</v>
+        <v>51.82686075</v>
       </c>
       <c r="AE19">
-        <v>5.963192901</v>
+        <v>59.63192901</v>
       </c>
       <c r="AF19">
-        <v>5.234668242</v>
+        <v>52.34668241999999</v>
       </c>
       <c r="AG19">
-        <v>2.448105522</v>
+        <v>24.48105522</v>
       </c>
       <c r="AH19">
-        <v>4.479392655</v>
+        <v>44.79392654999999</v>
       </c>
       <c r="AI19">
-        <v>6.795668808</v>
+        <v>67.95668808000001</v>
       </c>
       <c r="AJ19">
-        <v>6.79210881</v>
+        <v>67.92108810000001</v>
       </c>
       <c r="AK19">
-        <v>10.05098329</v>
+        <v>100.5098329</v>
       </c>
       <c r="AL19">
-        <v>12.13805391</v>
+        <v>121.3805391</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20">
-        <v>6.384397794</v>
+        <v>63.84397794</v>
       </c>
       <c r="B20">
-        <v>8.446654698</v>
+        <v>84.46654698</v>
       </c>
       <c r="C20">
-        <v>4.433309937</v>
+        <v>44.33309937</v>
       </c>
       <c r="D20">
-        <v>5.940545352</v>
+        <v>59.40545352</v>
       </c>
       <c r="E20">
-        <v>4.607583206</v>
+        <v>46.07583206</v>
       </c>
       <c r="F20">
-        <v>3.825218039</v>
+        <v>38.25218039</v>
       </c>
       <c r="G20">
-        <v>14.72178647</v>
+        <v>147.2178647</v>
       </c>
       <c r="H20">
-        <v>4.278260361</v>
+        <v>42.78260361</v>
       </c>
       <c r="I20">
-        <v>5.198085939</v>
+        <v>51.98085939000001</v>
       </c>
       <c r="J20">
-        <v>7.237844704</v>
+        <v>72.37844704</v>
       </c>
       <c r="K20">
-        <v>5.679440755</v>
+        <v>56.79440755</v>
       </c>
       <c r="L20">
-        <v>5.0291625</v>
+        <v>50.291625</v>
       </c>
       <c r="M20">
-        <v>4.02721258</v>
+        <v>40.2721258</v>
       </c>
       <c r="N20">
-        <v>3.405859972</v>
+        <v>34.05859972</v>
       </c>
       <c r="O20">
-        <v>5.919467344</v>
+        <v>59.19467344</v>
       </c>
       <c r="P20">
-        <v>5.414548347</v>
+        <v>54.14548347</v>
       </c>
       <c r="Q20">
-        <v>5.254697662</v>
+        <v>52.54697662</v>
       </c>
       <c r="R20">
-        <v>6.257455102</v>
+        <v>62.57455102</v>
       </c>
       <c r="S20">
-        <v>4.508770362</v>
+        <v>45.08770362</v>
       </c>
       <c r="T20">
-        <v>3.101415032</v>
+        <v>31.01415032</v>
       </c>
       <c r="U20">
-        <v>3.688122309</v>
+        <v>36.88122309</v>
       </c>
       <c r="V20">
-        <v>2.530918978</v>
+        <v>25.30918978</v>
       </c>
       <c r="W20">
-        <v>4.298024374</v>
+        <v>42.98024374</v>
       </c>
       <c r="X20">
-        <v>6.248860138</v>
+        <v>62.48860138000001</v>
       </c>
       <c r="Y20">
-        <v>4.438220329</v>
+        <v>44.38220329</v>
       </c>
       <c r="Z20">
-        <v>5.527306737</v>
+        <v>55.27306737</v>
       </c>
       <c r="AA20">
-        <v>3.79827672</v>
+        <v>37.9827672</v>
       </c>
       <c r="AB20">
-        <v>3.8156822</v>
+        <v>38.156822</v>
       </c>
       <c r="AC20">
-        <v>5.089412845</v>
+        <v>50.89412845</v>
       </c>
       <c r="AD20">
-        <v>4.732092384</v>
+        <v>47.32092384000001</v>
       </c>
       <c r="AE20">
-        <v>4.262570872</v>
+        <v>42.62570872000001</v>
       </c>
       <c r="AF20">
-        <v>3.556341931</v>
+        <v>35.56341931</v>
       </c>
       <c r="AG20">
-        <v>4.710525483</v>
+        <v>47.10525482999999</v>
       </c>
       <c r="AH20">
-        <v>4.365516322</v>
+        <v>43.65516322000001</v>
       </c>
       <c r="AI20">
-        <v>7.101559936</v>
+        <v>71.01559936</v>
       </c>
       <c r="AJ20">
-        <v>10.78544424</v>
+        <v>107.8544424</v>
       </c>
       <c r="AK20">
-        <v>10.87360692</v>
+        <v>108.7360692</v>
       </c>
       <c r="AL20">
-        <v>5.812496503</v>
+        <v>58.12496503</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21">
-        <v>6.627721429</v>
+        <v>66.27721429</v>
       </c>
       <c r="B21">
-        <v>4.805453742</v>
+        <v>48.05453742</v>
       </c>
       <c r="C21">
-        <v>8.449974885</v>
+        <v>84.49974885</v>
       </c>
       <c r="D21">
-        <v>6.985233837</v>
+        <v>69.85233837</v>
       </c>
       <c r="E21">
-        <v>8.503853972</v>
+        <v>85.03853972</v>
       </c>
       <c r="F21">
-        <v>5.128003844</v>
+        <v>51.28003844</v>
       </c>
       <c r="G21">
-        <v>7.154900233</v>
+        <v>71.54900233000001</v>
       </c>
       <c r="H21">
-        <v>6.490420816</v>
+        <v>64.90420816</v>
       </c>
       <c r="I21">
-        <v>6.535092942</v>
+        <v>65.35092942</v>
       </c>
       <c r="J21">
-        <v>4.63578927</v>
+        <v>46.3578927</v>
       </c>
       <c r="K21">
-        <v>5.757643459</v>
+        <v>57.57643459</v>
       </c>
       <c r="L21">
-        <v>3.203854029</v>
+        <v>32.03854029</v>
       </c>
       <c r="M21">
-        <v>3.901002101</v>
+        <v>39.01002101</v>
       </c>
       <c r="N21">
-        <v>8.641096367999999</v>
+        <v>86.41096367999999</v>
       </c>
       <c r="O21">
-        <v>9.495134116999999</v>
+        <v>94.95134116999999</v>
       </c>
       <c r="P21">
-        <v>7.80138646</v>
+        <v>78.01386460000001</v>
       </c>
       <c r="Q21">
-        <v>6.07105909</v>
+        <v>60.7105909</v>
       </c>
       <c r="R21">
-        <v>4.601233728</v>
+        <v>46.01233728</v>
       </c>
       <c r="S21">
-        <v>4.011685468</v>
+        <v>40.11685468</v>
       </c>
       <c r="T21">
-        <v>3.304451402</v>
+        <v>33.04451402</v>
       </c>
       <c r="U21">
-        <v>2.219450115</v>
+        <v>22.19450115</v>
       </c>
       <c r="V21">
-        <v>2.763059193</v>
+        <v>27.63059193</v>
       </c>
       <c r="W21">
-        <v>3.802061689</v>
+        <v>38.02061689</v>
       </c>
       <c r="X21">
-        <v>6.036061799</v>
+        <v>60.36061798999999</v>
       </c>
       <c r="Y21">
-        <v>5.092594722</v>
+        <v>50.92594722</v>
       </c>
       <c r="Z21">
-        <v>2.967202142</v>
+        <v>29.67202142</v>
       </c>
       <c r="AA21">
-        <v>3.836288909</v>
+        <v>38.36288909</v>
       </c>
       <c r="AB21">
-        <v>2.701698013</v>
+        <v>27.01698013</v>
       </c>
       <c r="AC21">
-        <v>3.581112367</v>
+        <v>35.81112367</v>
       </c>
       <c r="AD21">
-        <v>3.681169384</v>
+        <v>36.81169384</v>
       </c>
       <c r="AE21">
-        <v>4.839887464</v>
+        <v>48.39887464</v>
       </c>
       <c r="AF21">
-        <v>2.431128297</v>
+        <v>24.31128297</v>
       </c>
       <c r="AG21">
-        <v>5.141215187</v>
+        <v>51.41215187</v>
       </c>
       <c r="AH21">
-        <v>8.052539191999999</v>
+        <v>80.52539191999999</v>
       </c>
       <c r="AI21">
-        <v>9.198711954</v>
+        <v>91.98711954000001</v>
       </c>
       <c r="AJ21">
-        <v>25.91415823</v>
+        <v>259.1415823</v>
       </c>
       <c r="AK21">
-        <v>10.50399299</v>
+        <v>105.0399299</v>
       </c>
       <c r="AL21">
-        <v>13.7637107</v>
+        <v>137.637107</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22">
-        <v>7.771750816</v>
+        <v>77.71750815999999</v>
       </c>
       <c r="B22">
-        <v>6.772487635</v>
+        <v>67.72487635</v>
       </c>
       <c r="C22">
-        <v>7.524184775</v>
+        <v>75.24184775000001</v>
       </c>
       <c r="D22">
-        <v>6.563240563</v>
+        <v>65.63240562999999</v>
       </c>
       <c r="E22">
-        <v>6.662178074</v>
+        <v>66.62178073999999</v>
       </c>
       <c r="F22">
-        <v>8.605929731</v>
+        <v>86.05929731000001</v>
       </c>
       <c r="G22">
-        <v>12.85071522</v>
+        <v>128.5071522</v>
       </c>
       <c r="H22">
-        <v>8.749577988</v>
+        <v>87.49577988</v>
       </c>
       <c r="I22">
-        <v>6.843282192</v>
+        <v>68.43282192000001</v>
       </c>
       <c r="J22">
-        <v>4.1925388</v>
+        <v>41.92538800000001</v>
       </c>
       <c r="K22">
-        <v>5.535669239</v>
+        <v>55.35669239</v>
       </c>
       <c r="L22">
-        <v>4.145753135</v>
+        <v>41.45753135</v>
       </c>
       <c r="M22">
-        <v>6.44333826</v>
+        <v>64.4333826</v>
       </c>
       <c r="N22">
-        <v>8.135835739999999</v>
+        <v>81.35835739999999</v>
       </c>
       <c r="O22">
-        <v>7.544323825</v>
+        <v>75.44323825000001</v>
       </c>
       <c r="P22">
-        <v>3.329341275</v>
+        <v>33.29341275</v>
       </c>
       <c r="Q22">
-        <v>4.586638805</v>
+        <v>45.86638805</v>
       </c>
       <c r="R22">
-        <v>4.61995733</v>
+        <v>46.1995733</v>
       </c>
       <c r="S22">
-        <v>4.83851797</v>
+        <v>48.38517969999999</v>
       </c>
       <c r="T22">
-        <v>2.598261245</v>
+        <v>25.98261245</v>
       </c>
       <c r="U22">
-        <v>2.647049092</v>
+        <v>26.47049092</v>
       </c>
       <c r="V22">
-        <v>3.601561384</v>
+        <v>36.01561384</v>
       </c>
       <c r="W22">
-        <v>4.139878623</v>
+        <v>41.39878623000001</v>
       </c>
       <c r="X22">
-        <v>5.713523846</v>
+        <v>57.13523846</v>
       </c>
       <c r="Y22">
-        <v>7.212628653</v>
+        <v>72.12628653</v>
       </c>
       <c r="Z22">
-        <v>3.108003222</v>
+        <v>31.08003222</v>
       </c>
       <c r="AA22">
-        <v>3.522709611</v>
+        <v>35.22709611</v>
       </c>
       <c r="AB22">
-        <v>4.570343971</v>
+        <v>45.70343971</v>
       </c>
       <c r="AC22">
-        <v>10.15091114</v>
+        <v>101.5091114</v>
       </c>
       <c r="AD22">
-        <v>5.250133313</v>
+        <v>52.50133313</v>
       </c>
       <c r="AE22">
-        <v>8.670448064</v>
+        <v>86.70448064</v>
       </c>
       <c r="AF22">
-        <v>12.63489549</v>
+        <v>126.3489549</v>
       </c>
       <c r="AG22">
-        <v>9.130180544</v>
+        <v>91.30180544</v>
       </c>
       <c r="AH22">
-        <v>13.87909109</v>
+        <v>138.7909109</v>
       </c>
       <c r="AI22">
-        <v>26.79270018</v>
+        <v>267.9270018</v>
       </c>
       <c r="AJ22">
-        <v>17.08907669</v>
+        <v>170.8907669</v>
       </c>
       <c r="AK22">
-        <v>9.007976559999999</v>
+        <v>90.0797656</v>
       </c>
       <c r="AL22">
-        <v>9.190547123</v>
+        <v>91.90547123</v>
       </c>
     </row>
     <row r="23" spans="1:38">
       <c r="A23">
-        <v>7.068303328</v>
+        <v>70.68303328</v>
       </c>
       <c r="B23">
-        <v>4.947530035</v>
+        <v>49.47530035</v>
       </c>
       <c r="C23">
-        <v>6.993977833</v>
+        <v>69.93977833</v>
       </c>
       <c r="D23">
-        <v>10.18473947</v>
+        <v>101.8473947</v>
       </c>
       <c r="E23">
-        <v>6.898337698</v>
+        <v>68.98337698</v>
       </c>
       <c r="F23">
-        <v>8.461542360999999</v>
+        <v>84.61542360999999</v>
       </c>
       <c r="G23">
-        <v>8.061063287</v>
+        <v>80.61063286999999</v>
       </c>
       <c r="H23">
-        <v>8.480051045</v>
+        <v>84.80051044999999</v>
       </c>
       <c r="I23">
-        <v>3.224940399</v>
+        <v>32.24940399</v>
       </c>
       <c r="J23">
-        <v>3.615363737</v>
+        <v>36.15363737</v>
       </c>
       <c r="K23">
-        <v>5.274318461</v>
+        <v>52.74318461</v>
       </c>
       <c r="L23">
-        <v>3.997437254</v>
+        <v>39.97437254</v>
       </c>
       <c r="M23">
-        <v>5.873197293</v>
+        <v>58.73197293</v>
       </c>
       <c r="N23">
-        <v>8.244641459</v>
+        <v>82.44641459</v>
       </c>
       <c r="O23">
-        <v>5.454083909</v>
+        <v>54.54083909000001</v>
       </c>
       <c r="P23">
-        <v>6.186559209</v>
+        <v>61.86559209000001</v>
       </c>
       <c r="Q23">
-        <v>5.607123087</v>
+        <v>56.07123086999999</v>
       </c>
       <c r="R23">
-        <v>4.034621404</v>
+        <v>40.34621404</v>
       </c>
       <c r="S23">
-        <v>3.440598605</v>
+        <v>34.40598605</v>
       </c>
       <c r="T23">
-        <v>2.809370591</v>
+        <v>28.09370591</v>
       </c>
       <c r="U23">
-        <v>6.037816013</v>
+        <v>60.37816013</v>
       </c>
       <c r="V23">
-        <v>5.636828413</v>
+        <v>56.36828413</v>
       </c>
       <c r="W23">
-        <v>3.652597175</v>
+        <v>36.52597175</v>
       </c>
       <c r="X23">
-        <v>5.432947852</v>
+        <v>54.32947852</v>
       </c>
       <c r="Y23">
-        <v>8.432779805999999</v>
+        <v>84.32779805999999</v>
       </c>
       <c r="Z23">
-        <v>5.124354005</v>
+        <v>51.24354005</v>
       </c>
       <c r="AA23">
-        <v>4.003882315</v>
+        <v>40.03882315</v>
       </c>
       <c r="AB23">
-        <v>7.796200263</v>
+        <v>77.96200263</v>
       </c>
       <c r="AC23">
-        <v>7.882092933</v>
+        <v>78.82092933</v>
       </c>
       <c r="AD23">
-        <v>7.984845792</v>
+        <v>79.84845792</v>
       </c>
       <c r="AE23">
-        <v>15.73798897</v>
+        <v>157.3798897</v>
       </c>
       <c r="AF23">
-        <v>13.75365311</v>
+        <v>137.5365311</v>
       </c>
       <c r="AG23">
-        <v>22.63731089</v>
+        <v>226.3731089</v>
       </c>
       <c r="AH23">
-        <v>21.63493716</v>
+        <v>216.3493716</v>
       </c>
       <c r="AI23">
-        <v>18.9889925</v>
+        <v>189.889925</v>
       </c>
       <c r="AJ23">
-        <v>24.55313315</v>
+        <v>245.5313315</v>
       </c>
       <c r="AK23">
-        <v>15.24210203</v>
+        <v>152.4210203</v>
       </c>
       <c r="AL23">
-        <v>10.62082259</v>
+        <v>106.2082259</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24">
-        <v>13.33551089</v>
+        <v>133.3551089</v>
       </c>
       <c r="B24">
-        <v>4.501427052</v>
+        <v>45.01427052</v>
       </c>
       <c r="C24">
-        <v>3.506349505</v>
+        <v>35.06349505</v>
       </c>
       <c r="D24">
-        <v>4.074583241</v>
+        <v>40.74583241</v>
       </c>
       <c r="E24">
-        <v>4.331242573</v>
+        <v>43.31242573</v>
       </c>
       <c r="F24">
-        <v>4.272531331</v>
+        <v>42.72531331</v>
       </c>
       <c r="G24">
-        <v>6.447566477</v>
+        <v>64.47566476999999</v>
       </c>
       <c r="H24">
-        <v>4.487525648</v>
+        <v>44.87525648</v>
       </c>
       <c r="I24">
-        <v>5.07611634</v>
+        <v>50.76116339999999</v>
       </c>
       <c r="J24">
-        <v>7.15047272</v>
+        <v>71.50472719999999</v>
       </c>
       <c r="K24">
-        <v>6.492171518</v>
+        <v>64.92171518000001</v>
       </c>
       <c r="L24">
-        <v>8.809744772</v>
+        <v>88.09744772000001</v>
       </c>
       <c r="M24">
-        <v>6.478944875</v>
+        <v>64.78944874999999</v>
       </c>
       <c r="N24">
-        <v>6.141080901</v>
+        <v>61.41080900999999</v>
       </c>
       <c r="O24">
-        <v>5.086304163</v>
+        <v>50.86304163000001</v>
       </c>
       <c r="P24">
-        <v>2.696933722</v>
+        <v>26.96933722</v>
       </c>
       <c r="Q24">
-        <v>2.91108094</v>
+        <v>29.1108094</v>
       </c>
       <c r="R24">
-        <v>2.659232292</v>
+        <v>26.59232292</v>
       </c>
       <c r="S24">
-        <v>5.251619311</v>
+        <v>52.51619311</v>
       </c>
       <c r="T24">
-        <v>7.822032797</v>
+        <v>78.22032797</v>
       </c>
       <c r="U24">
-        <v>3.102314573</v>
+        <v>31.02314573</v>
       </c>
       <c r="V24">
-        <v>3.441114733</v>
+        <v>34.41114733</v>
       </c>
       <c r="W24">
-        <v>4.80621787</v>
+        <v>48.0621787</v>
       </c>
       <c r="X24">
-        <v>4.406199248</v>
+        <v>44.06199248</v>
       </c>
       <c r="Y24">
-        <v>4.936430352</v>
+        <v>49.36430352000001</v>
       </c>
       <c r="Z24">
-        <v>5.450784096</v>
+        <v>54.50784096</v>
       </c>
       <c r="AA24">
-        <v>3.487644114</v>
+        <v>34.87644114</v>
       </c>
       <c r="AB24">
-        <v>6.73062811</v>
+        <v>67.30628109999999</v>
       </c>
       <c r="AC24">
-        <v>6.271269268</v>
+        <v>62.71269268</v>
       </c>
       <c r="AD24">
-        <v>13.0514008</v>
+        <v>130.514008</v>
       </c>
       <c r="AE24">
-        <v>12.30329939</v>
+        <v>123.0329939</v>
       </c>
       <c r="AF24">
-        <v>26.73756403</v>
+        <v>267.3756403</v>
       </c>
       <c r="AG24">
-        <v>15.06972055</v>
+        <v>150.6972055</v>
       </c>
       <c r="AH24">
-        <v>25.09426839</v>
+        <v>250.9426839</v>
       </c>
       <c r="AI24">
-        <v>23.97470867</v>
+        <v>239.7470867</v>
       </c>
       <c r="AJ24">
-        <v>16.57075624</v>
+        <v>165.7075624</v>
       </c>
       <c r="AK24">
-        <v>17.82442075</v>
+        <v>178.2442075</v>
       </c>
       <c r="AL24">
-        <v>15.22839031</v>
+        <v>152.2839031</v>
       </c>
     </row>
     <row r="25" spans="1:38">
       <c r="A25">
-        <v>4.783193737</v>
+        <v>47.83193737000001</v>
       </c>
       <c r="B25">
-        <v>3.537872187</v>
+        <v>35.37872187</v>
       </c>
       <c r="C25">
-        <v>2.760269912</v>
+        <v>27.60269912</v>
       </c>
       <c r="D25">
-        <v>2.610107659</v>
+        <v>26.10107659</v>
       </c>
       <c r="E25">
-        <v>1.696910881</v>
+        <v>16.96910881</v>
       </c>
       <c r="F25">
-        <v>3.447486688</v>
+        <v>34.47486688</v>
       </c>
       <c r="G25">
-        <v>3.112463296</v>
+        <v>31.12463296</v>
       </c>
       <c r="H25">
-        <v>6.036006267</v>
+        <v>60.36006267</v>
       </c>
       <c r="I25">
-        <v>7.185955307</v>
+        <v>71.85955307</v>
       </c>
       <c r="J25">
-        <v>12.06695191</v>
+        <v>120.6695191</v>
       </c>
       <c r="K25">
-        <v>10.19914068</v>
+        <v>101.9914068</v>
       </c>
       <c r="L25">
-        <v>8.618400143000001</v>
+        <v>86.18400143000001</v>
       </c>
       <c r="M25">
-        <v>4.91848949</v>
+        <v>49.1848949</v>
       </c>
       <c r="N25">
-        <v>3.113191697</v>
+        <v>31.13191697</v>
       </c>
       <c r="O25">
-        <v>3.787429168</v>
+        <v>37.87429168</v>
       </c>
       <c r="P25">
-        <v>4.143481884</v>
+        <v>41.43481884</v>
       </c>
       <c r="Q25">
-        <v>5.22211488</v>
+        <v>52.2211488</v>
       </c>
       <c r="R25">
-        <v>2.892069886</v>
+        <v>28.92069886</v>
       </c>
       <c r="S25">
-        <v>1.877759797</v>
+        <v>18.77759797</v>
       </c>
       <c r="T25">
-        <v>4.357682892</v>
+        <v>43.57682892</v>
       </c>
       <c r="U25">
-        <v>3.108929545</v>
+        <v>31.08929545</v>
       </c>
       <c r="V25">
-        <v>4.541950154</v>
+        <v>45.41950154</v>
       </c>
       <c r="W25">
-        <v>3.319288555</v>
+        <v>33.19288555</v>
       </c>
       <c r="X25">
-        <v>4.823377791</v>
+        <v>48.23377791</v>
       </c>
       <c r="Y25">
-        <v>4.3756342</v>
+        <v>43.756342</v>
       </c>
       <c r="Z25">
-        <v>7.842867101</v>
+        <v>78.42867101</v>
       </c>
       <c r="AA25">
-        <v>4.087794037</v>
+        <v>40.87794037</v>
       </c>
       <c r="AB25">
-        <v>5.345608962</v>
+        <v>53.45608962</v>
       </c>
       <c r="AC25">
-        <v>7.637967007</v>
+        <v>76.37967007</v>
       </c>
       <c r="AD25">
-        <v>23.57907036</v>
+        <v>235.7907036</v>
       </c>
       <c r="AE25">
-        <v>29.10149272</v>
+        <v>291.0149272</v>
       </c>
       <c r="AF25">
-        <v>25.95513497</v>
+        <v>259.5513497</v>
       </c>
       <c r="AG25">
-        <v>19.56768477</v>
+        <v>195.6768477</v>
       </c>
       <c r="AH25">
-        <v>28.02759244</v>
+        <v>280.2759244</v>
       </c>
       <c r="AI25">
-        <v>11.86614597</v>
+        <v>118.6614597</v>
       </c>
       <c r="AJ25">
-        <v>23.06576467</v>
+        <v>230.6576467</v>
       </c>
       <c r="AK25">
-        <v>13.75689935</v>
+        <v>137.5689935</v>
       </c>
       <c r="AL25">
-        <v>12.20705996</v>
+        <v>122.0705996</v>
       </c>
     </row>
     <row r="26" spans="1:38">
       <c r="A26">
-        <v>6.28389725</v>
+        <v>62.8389725</v>
       </c>
       <c r="B26">
-        <v>2.213961554</v>
+        <v>22.13961554</v>
       </c>
       <c r="C26">
-        <v>3.232547316</v>
+        <v>32.32547316</v>
       </c>
       <c r="D26">
-        <v>2.563738306</v>
+        <v>25.63738306</v>
       </c>
       <c r="E26">
-        <v>3.124391266</v>
+        <v>31.24391266</v>
       </c>
       <c r="F26">
-        <v>5.726883376</v>
+        <v>57.26883376</v>
       </c>
       <c r="G26">
-        <v>5.649014862</v>
+        <v>56.49014862</v>
       </c>
       <c r="H26">
-        <v>6.57988435</v>
+        <v>65.7988435</v>
       </c>
       <c r="I26">
-        <v>10.13747009</v>
+        <v>101.3747009</v>
       </c>
       <c r="J26">
-        <v>6.673286513</v>
+        <v>66.73286512999999</v>
       </c>
       <c r="K26">
-        <v>9.04782565</v>
+        <v>90.4782565</v>
       </c>
       <c r="L26">
-        <v>3.886268603</v>
+        <v>38.86268603</v>
       </c>
       <c r="M26">
-        <v>6.230207066</v>
+        <v>62.30207066</v>
       </c>
       <c r="N26">
-        <v>4.355217141</v>
+        <v>43.55217141</v>
       </c>
       <c r="O26">
-        <v>4.627924379</v>
+        <v>46.27924379</v>
       </c>
       <c r="P26">
-        <v>2.053302493</v>
+        <v>20.53302493</v>
       </c>
       <c r="Q26">
-        <v>2.943744673</v>
+        <v>29.43744673</v>
       </c>
       <c r="R26">
-        <v>1.909343507</v>
+        <v>19.09343507</v>
       </c>
       <c r="S26">
-        <v>5.48127243</v>
+        <v>54.8127243</v>
       </c>
       <c r="T26">
-        <v>5.695301685</v>
+        <v>56.95301685</v>
       </c>
       <c r="U26">
-        <v>3.414894055</v>
+        <v>34.14894055</v>
       </c>
       <c r="V26">
-        <v>4.888773574</v>
+        <v>48.88773574</v>
       </c>
       <c r="W26">
-        <v>4.105236973</v>
+        <v>41.05236973</v>
       </c>
       <c r="X26">
-        <v>3.242596732</v>
+        <v>32.42596732</v>
       </c>
       <c r="Y26">
-        <v>4.465295838</v>
+        <v>44.65295838</v>
       </c>
       <c r="Z26">
-        <v>4.75212777</v>
+        <v>47.52127770000001</v>
       </c>
       <c r="AA26">
-        <v>4.7132301</v>
+        <v>47.132301</v>
       </c>
       <c r="AB26">
-        <v>9.763778522999999</v>
+        <v>97.63778522999999</v>
       </c>
       <c r="AC26">
-        <v>28.54607559</v>
+        <v>285.4607559</v>
       </c>
       <c r="AD26">
-        <v>26.10350168</v>
+        <v>261.0350168</v>
       </c>
       <c r="AE26">
-        <v>24.90278063</v>
+        <v>249.0278063</v>
       </c>
       <c r="AF26">
-        <v>16.13033191</v>
+        <v>161.3033191</v>
       </c>
       <c r="AG26">
-        <v>18.84183134</v>
+        <v>188.4183134</v>
       </c>
       <c r="AH26">
-        <v>16.65265177</v>
+        <v>166.5265177</v>
       </c>
       <c r="AI26">
-        <v>19.11664591</v>
+        <v>191.1664591</v>
       </c>
       <c r="AJ26">
-        <v>13.38988364</v>
+        <v>133.8988364</v>
       </c>
       <c r="AK26">
-        <v>15.98646568</v>
+        <v>159.8646568</v>
       </c>
       <c r="AL26">
-        <v>20.68728932</v>
+        <v>206.8728932</v>
       </c>
     </row>
     <row r="27" spans="1:38">
       <c r="A27">
-        <v>2.030494723</v>
+        <v>20.30494723</v>
       </c>
       <c r="B27">
-        <v>2.047131345</v>
+        <v>20.47131345</v>
       </c>
       <c r="C27">
-        <v>2.384588253</v>
+        <v>23.84588253</v>
       </c>
       <c r="D27">
-        <v>2.699518623</v>
+        <v>26.99518623</v>
       </c>
       <c r="E27">
-        <v>3.331452747</v>
+        <v>33.31452747</v>
       </c>
       <c r="F27">
-        <v>4.99140518</v>
+        <v>49.9140518</v>
       </c>
       <c r="G27">
-        <v>4.483354189</v>
+        <v>44.83354189</v>
       </c>
       <c r="H27">
-        <v>5.952177204</v>
+        <v>59.52177204</v>
       </c>
       <c r="I27">
-        <v>5.494570205</v>
+        <v>54.94570204999999</v>
       </c>
       <c r="J27">
-        <v>6.512792171</v>
+        <v>65.12792171</v>
       </c>
       <c r="K27">
-        <v>2.899491768</v>
+        <v>28.99491768</v>
       </c>
       <c r="L27">
-        <v>4.658714116</v>
+        <v>46.58714115999999</v>
       </c>
       <c r="M27">
-        <v>7.358407001</v>
+        <v>73.58407001</v>
       </c>
       <c r="N27">
-        <v>3.137569543</v>
+        <v>31.37569543</v>
       </c>
       <c r="O27">
-        <v>3.715764592</v>
+        <v>37.15764592</v>
       </c>
       <c r="P27">
-        <v>8.225749928999999</v>
+        <v>82.25749929</v>
       </c>
       <c r="Q27">
-        <v>5.731326296</v>
+        <v>57.31326296</v>
       </c>
       <c r="R27">
-        <v>6.754307633</v>
+        <v>67.54307632999999</v>
       </c>
       <c r="S27">
-        <v>4.422589876</v>
+        <v>44.22589876</v>
       </c>
       <c r="T27">
-        <v>6.461998073</v>
+        <v>64.61998073000001</v>
       </c>
       <c r="U27">
-        <v>7.320279199</v>
+        <v>73.20279198999999</v>
       </c>
       <c r="V27">
-        <v>4.27026749</v>
+        <v>42.70267490000001</v>
       </c>
       <c r="W27">
-        <v>5.059119565</v>
+        <v>50.59119565</v>
       </c>
       <c r="X27">
-        <v>6.337896742</v>
+        <v>63.37896742</v>
       </c>
       <c r="Y27">
-        <v>16.65514986</v>
+        <v>166.5514986</v>
       </c>
       <c r="Z27">
-        <v>13.73301062</v>
+        <v>137.3301062</v>
       </c>
       <c r="AA27">
-        <v>12.46064739</v>
+        <v>124.6064739</v>
       </c>
       <c r="AB27">
-        <v>27.37306414</v>
+        <v>273.7306414</v>
       </c>
       <c r="AC27">
-        <v>25.13797043</v>
+        <v>251.3797043</v>
       </c>
       <c r="AD27">
-        <v>20.81324305</v>
+        <v>208.1324305</v>
       </c>
       <c r="AE27">
-        <v>23.80009255</v>
+        <v>238.0009255</v>
       </c>
       <c r="AF27">
-        <v>24.35603029</v>
+        <v>243.5603029</v>
       </c>
       <c r="AG27">
-        <v>17.94406589</v>
+        <v>179.4406589</v>
       </c>
       <c r="AH27">
-        <v>25.99617649</v>
+        <v>259.9617649</v>
       </c>
       <c r="AI27">
-        <v>14.55993341</v>
+        <v>145.5993341</v>
       </c>
       <c r="AJ27">
-        <v>20.5896695</v>
+        <v>205.896695</v>
       </c>
       <c r="AK27">
-        <v>33.52895753</v>
+        <v>335.2895753</v>
       </c>
       <c r="AL27">
-        <v>61.558594</v>
+        <v>615.5859399999999</v>
       </c>
     </row>
     <row r="28" spans="1:38">
       <c r="A28">
-        <v>1.1809267</v>
+        <v>11.809267</v>
       </c>
       <c r="B28">
-        <v>2.25562133</v>
+        <v>22.5562133</v>
       </c>
       <c r="C28">
-        <v>2.512098524</v>
+        <v>25.12098524</v>
       </c>
       <c r="D28">
-        <v>2.999883544</v>
+        <v>29.99883544</v>
       </c>
       <c r="E28">
-        <v>4.430420361</v>
+        <v>44.30420361</v>
       </c>
       <c r="F28">
-        <v>4.431430612</v>
+        <v>44.31430612</v>
       </c>
       <c r="G28">
-        <v>6.688177859</v>
+        <v>66.88177859</v>
       </c>
       <c r="H28">
-        <v>7.02744691</v>
+        <v>70.2744691</v>
       </c>
       <c r="I28">
-        <v>6.292903496</v>
+        <v>62.92903496</v>
       </c>
       <c r="J28">
-        <v>5.490705586</v>
+        <v>54.90705586</v>
       </c>
       <c r="K28">
-        <v>4.772582052</v>
+        <v>47.72582052</v>
       </c>
       <c r="L28">
-        <v>3.581366635</v>
+        <v>35.81366635000001</v>
       </c>
       <c r="M28">
-        <v>8.056783998</v>
+        <v>80.56783998</v>
       </c>
       <c r="N28">
-        <v>3.606866786</v>
+        <v>36.06866786</v>
       </c>
       <c r="O28">
-        <v>3.527972944</v>
+        <v>35.27972944</v>
       </c>
       <c r="P28">
-        <v>8.79278474</v>
+        <v>87.9278474</v>
       </c>
       <c r="Q28">
-        <v>10.08313745</v>
+        <v>100.8313745</v>
       </c>
       <c r="R28">
-        <v>7.33739936</v>
+        <v>73.37399360000001</v>
       </c>
       <c r="S28">
-        <v>6.374783115</v>
+        <v>63.74783115</v>
       </c>
       <c r="T28">
-        <v>3.842216714</v>
+        <v>38.42216714</v>
       </c>
       <c r="U28">
-        <v>5.768700677</v>
+        <v>57.68700677</v>
       </c>
       <c r="V28">
-        <v>4.348880559</v>
+        <v>43.48880559000001</v>
       </c>
       <c r="W28">
-        <v>4.222635542</v>
+        <v>42.22635542</v>
       </c>
       <c r="X28">
-        <v>3.816586624</v>
+        <v>38.16586624</v>
       </c>
       <c r="Y28">
-        <v>10.92887609</v>
+        <v>109.2887609</v>
       </c>
       <c r="Z28">
-        <v>23.03602902</v>
+        <v>230.3602902</v>
       </c>
       <c r="AA28">
-        <v>26.58080847</v>
+        <v>265.8080847</v>
       </c>
       <c r="AB28">
-        <v>18.69225878</v>
+        <v>186.9225878</v>
       </c>
       <c r="AC28">
-        <v>40.80764614</v>
+        <v>408.0764614</v>
       </c>
       <c r="AD28">
-        <v>33.02251063</v>
+        <v>330.2251063</v>
       </c>
       <c r="AE28">
-        <v>17.78756236</v>
+        <v>177.8756236</v>
       </c>
       <c r="AF28">
-        <v>20.15312714</v>
+        <v>201.5312714</v>
       </c>
       <c r="AG28">
-        <v>24.39795871</v>
+        <v>243.9795871</v>
       </c>
       <c r="AH28">
-        <v>15.29886235</v>
+        <v>152.9886235</v>
       </c>
       <c r="AI28">
-        <v>12.28420719</v>
+        <v>122.8420719</v>
       </c>
       <c r="AJ28">
-        <v>33.04464313</v>
+        <v>330.4464313</v>
       </c>
       <c r="AK28">
-        <v>41.44965131</v>
+        <v>414.4965131</v>
       </c>
       <c r="AL28">
-        <v>55.75736277</v>
+        <v>557.5736277</v>
       </c>
     </row>
     <row r="29" spans="1:38">
       <c r="A29">
-        <v>1.876727314</v>
+        <v>18.76727314</v>
       </c>
       <c r="B29">
-        <v>1.611716031</v>
+        <v>16.11716031</v>
       </c>
       <c r="C29">
-        <v>3.916073404</v>
+        <v>39.16073404</v>
       </c>
       <c r="D29">
-        <v>3.26529617</v>
+        <v>32.6529617</v>
       </c>
       <c r="E29">
-        <v>3.388141257</v>
+        <v>33.88141257</v>
       </c>
       <c r="F29">
-        <v>5.65309775</v>
+        <v>56.5309775</v>
       </c>
       <c r="G29">
-        <v>6.08624477</v>
+        <v>60.8624477</v>
       </c>
       <c r="H29">
-        <v>5.095554379</v>
+        <v>50.95554379</v>
       </c>
       <c r="I29">
-        <v>6.425984632</v>
+        <v>64.25984631999999</v>
       </c>
       <c r="J29">
-        <v>4.589795498</v>
+        <v>45.89795498</v>
       </c>
       <c r="K29">
-        <v>5.451657927</v>
+        <v>54.51657927</v>
       </c>
       <c r="L29">
-        <v>4.949341162</v>
+        <v>49.49341162</v>
       </c>
       <c r="M29">
-        <v>4.673683268</v>
+        <v>46.73683267999999</v>
       </c>
       <c r="N29">
-        <v>5.521929074</v>
+        <v>55.21929074</v>
       </c>
       <c r="O29">
-        <v>6.866829286</v>
+        <v>68.66829285999999</v>
       </c>
       <c r="P29">
-        <v>9.121538356</v>
+        <v>91.21538356000001</v>
       </c>
       <c r="Q29">
-        <v>5.994859951</v>
+        <v>59.94859950999999</v>
       </c>
       <c r="R29">
-        <v>3.757021425</v>
+        <v>37.57021425</v>
       </c>
       <c r="S29">
-        <v>4.052153504</v>
+        <v>40.52153504</v>
       </c>
       <c r="T29">
-        <v>5.316496157</v>
+        <v>53.16496157</v>
       </c>
       <c r="U29">
-        <v>8.254631767999999</v>
+        <v>82.54631767999999</v>
       </c>
       <c r="V29">
-        <v>3.763530461</v>
+        <v>37.63530461000001</v>
       </c>
       <c r="W29">
-        <v>9.715023184</v>
+        <v>97.15023184</v>
       </c>
       <c r="X29">
-        <v>9.525252875</v>
+        <v>95.25252875</v>
       </c>
       <c r="Y29">
-        <v>12.54400007</v>
+        <v>125.4400007</v>
       </c>
       <c r="Z29">
-        <v>19.49093468</v>
+        <v>194.9093468</v>
       </c>
       <c r="AA29">
-        <v>26.47178554</v>
+        <v>264.7178554</v>
       </c>
       <c r="AB29">
-        <v>24.92894228</v>
+        <v>249.2894228</v>
       </c>
       <c r="AC29">
-        <v>19.2956459</v>
+        <v>192.956459</v>
       </c>
       <c r="AD29">
-        <v>28.07022677</v>
+        <v>280.7022677</v>
       </c>
       <c r="AE29">
-        <v>20.22884324</v>
+        <v>202.2884324</v>
       </c>
       <c r="AF29">
-        <v>26.59543193</v>
+        <v>265.9543193</v>
       </c>
       <c r="AG29">
-        <v>20.37257165</v>
+        <v>203.7257165</v>
       </c>
       <c r="AH29">
-        <v>17.52712129</v>
+        <v>175.2712129</v>
       </c>
       <c r="AI29">
-        <v>27.66144231</v>
+        <v>276.6144231</v>
       </c>
       <c r="AJ29">
-        <v>43.44950543</v>
+        <v>434.4950543</v>
       </c>
       <c r="AK29">
-        <v>48.29506924</v>
+        <v>482.9506924</v>
       </c>
       <c r="AL29">
-        <v>88.01871561</v>
+        <v>880.1871561</v>
       </c>
     </row>
     <row r="30" spans="1:38">
       <c r="A30">
-        <v>2.116617867</v>
+        <v>21.16617867</v>
       </c>
       <c r="B30">
-        <v>2.139258918</v>
+        <v>21.39258918</v>
       </c>
       <c r="C30">
-        <v>3.243589118</v>
+        <v>32.43589118</v>
       </c>
       <c r="D30">
-        <v>3.127298301</v>
+        <v>31.27298301</v>
       </c>
       <c r="E30">
-        <v>3.701179191</v>
+        <v>37.01179191</v>
       </c>
       <c r="F30">
-        <v>4.960693102</v>
+        <v>49.60693102</v>
       </c>
       <c r="G30">
-        <v>2.663802116</v>
+        <v>26.63802116</v>
       </c>
       <c r="H30">
-        <v>4.574706159</v>
+        <v>45.74706159</v>
       </c>
       <c r="I30">
-        <v>4.843015041</v>
+        <v>48.43015041</v>
       </c>
       <c r="J30">
-        <v>5.068507873</v>
+        <v>50.68507873</v>
       </c>
       <c r="K30">
-        <v>5.614826954</v>
+        <v>56.14826954</v>
       </c>
       <c r="L30">
-        <v>6.377874359</v>
+        <v>63.77874359</v>
       </c>
       <c r="M30">
-        <v>4.950959862</v>
+        <v>49.50959862000001</v>
       </c>
       <c r="N30">
-        <v>4.766982329</v>
+        <v>47.66982329</v>
       </c>
       <c r="O30">
-        <v>9.155588604</v>
+        <v>91.55588604</v>
       </c>
       <c r="P30">
-        <v>8.341803744</v>
+        <v>83.41803744000001</v>
       </c>
       <c r="Q30">
-        <v>8.325369916</v>
+        <v>83.25369916</v>
       </c>
       <c r="R30">
-        <v>7.155959237</v>
+        <v>71.55959237</v>
       </c>
       <c r="S30">
-        <v>2.876325091</v>
+        <v>28.76325091</v>
       </c>
       <c r="T30">
-        <v>6.431758402</v>
+        <v>64.31758402</v>
       </c>
       <c r="U30">
-        <v>7.560334757</v>
+        <v>75.60334757</v>
       </c>
       <c r="V30">
-        <v>7.065893448</v>
+        <v>70.65893448</v>
       </c>
       <c r="W30">
-        <v>4.724919242</v>
+        <v>47.24919242</v>
       </c>
       <c r="X30">
-        <v>8.833430720999999</v>
+        <v>88.33430720999999</v>
       </c>
       <c r="Y30">
-        <v>11.23866954</v>
+        <v>112.3866954</v>
       </c>
       <c r="Z30">
-        <v>18.43257481</v>
+        <v>184.3257481</v>
       </c>
       <c r="AA30">
-        <v>19.96237934</v>
+        <v>199.6237934</v>
       </c>
       <c r="AB30">
-        <v>18.95181053</v>
+        <v>189.5181053</v>
       </c>
       <c r="AC30">
-        <v>23.16006523</v>
+        <v>231.6006523</v>
       </c>
       <c r="AD30">
-        <v>14.31009839</v>
+        <v>143.1009839</v>
       </c>
       <c r="AE30">
-        <v>21.51670197</v>
+        <v>215.1670197</v>
       </c>
       <c r="AF30">
-        <v>24.99059288</v>
+        <v>249.9059288</v>
       </c>
       <c r="AG30">
-        <v>21.63493716</v>
+        <v>216.3493716</v>
       </c>
       <c r="AH30">
-        <v>25.2513462</v>
+        <v>252.513462</v>
       </c>
       <c r="AI30">
-        <v>47.50901437</v>
+        <v>475.0901437</v>
       </c>
       <c r="AJ30">
-        <v>25.1608564</v>
+        <v>251.608564</v>
       </c>
       <c r="AK30">
-        <v>36.48274719</v>
+        <v>364.8274719</v>
       </c>
       <c r="AL30">
-        <v>46.92776334</v>
+        <v>469.2776334</v>
       </c>
     </row>
     <row r="31" spans="1:38">
       <c r="A31">
-        <v>3.353301789</v>
+        <v>33.53301789</v>
       </c>
       <c r="B31">
-        <v>3.172308224</v>
+        <v>31.72308224</v>
       </c>
       <c r="C31">
-        <v>3.248396433</v>
+        <v>32.48396433</v>
       </c>
       <c r="D31">
-        <v>4.597407093</v>
+        <v>45.97407093</v>
       </c>
       <c r="E31">
-        <v>3.246431747</v>
+        <v>32.46431747</v>
       </c>
       <c r="F31">
-        <v>3.812249631</v>
+        <v>38.12249631</v>
       </c>
       <c r="G31">
-        <v>4.642673888</v>
+        <v>46.42673888</v>
       </c>
       <c r="H31">
-        <v>4.962648</v>
+        <v>49.62648</v>
       </c>
       <c r="I31">
-        <v>5.606436817</v>
+        <v>56.06436816999999</v>
       </c>
       <c r="J31">
-        <v>5.511860744</v>
+        <v>55.11860744</v>
       </c>
       <c r="K31">
-        <v>8.305379764</v>
+        <v>83.05379764</v>
       </c>
       <c r="L31">
-        <v>6.641417829</v>
+        <v>66.41417829</v>
       </c>
       <c r="M31">
-        <v>4.433429638</v>
+        <v>44.33429638</v>
       </c>
       <c r="N31">
-        <v>7.629386755</v>
+        <v>76.29386755</v>
       </c>
       <c r="O31">
-        <v>8.972608793999999</v>
+        <v>89.72608793999999</v>
       </c>
       <c r="P31">
-        <v>10.36059294</v>
+        <v>103.6059294</v>
       </c>
       <c r="Q31">
-        <v>7.313876756</v>
+        <v>73.13876756000001</v>
       </c>
       <c r="R31">
-        <v>4.476110464</v>
+        <v>44.76110464</v>
       </c>
       <c r="S31">
-        <v>5.3558449</v>
+        <v>53.558449</v>
       </c>
       <c r="T31">
-        <v>5.229770885</v>
+        <v>52.29770885</v>
       </c>
       <c r="U31">
-        <v>6.632855924</v>
+        <v>66.32855924</v>
       </c>
       <c r="V31">
-        <v>6.68147298</v>
+        <v>66.81472979999999</v>
       </c>
       <c r="W31">
-        <v>6.507441507</v>
+        <v>65.07441507</v>
       </c>
       <c r="X31">
-        <v>6.944829801</v>
+        <v>69.44829801</v>
       </c>
       <c r="Y31">
-        <v>13.70421527</v>
+        <v>137.0421527</v>
       </c>
       <c r="Z31">
-        <v>21.3271193</v>
+        <v>213.271193</v>
       </c>
       <c r="AA31">
-        <v>11.87116641</v>
+        <v>118.7116641</v>
       </c>
       <c r="AB31">
-        <v>18.29027448</v>
+        <v>182.9027448</v>
       </c>
       <c r="AC31">
-        <v>20.08773579</v>
+        <v>200.8773579</v>
       </c>
       <c r="AD31">
-        <v>20.32251672</v>
+        <v>203.2251672</v>
       </c>
       <c r="AE31">
-        <v>18.36266394</v>
+        <v>183.6266394</v>
       </c>
       <c r="AF31">
-        <v>12.76495428</v>
+        <v>127.6495428</v>
       </c>
       <c r="AG31">
-        <v>18.66629459</v>
+        <v>186.6629459</v>
       </c>
       <c r="AH31">
-        <v>29.8292504</v>
+        <v>298.292504</v>
       </c>
       <c r="AI31">
-        <v>31.70135642</v>
+        <v>317.0135642</v>
       </c>
       <c r="AJ31">
-        <v>37.45909244</v>
+        <v>374.5909244</v>
       </c>
       <c r="AK31">
-        <v>48.44356292</v>
+        <v>484.4356292</v>
       </c>
       <c r="AL31">
-        <v>39.6467695</v>
+        <v>396.467695</v>
       </c>
     </row>
     <row r="32" spans="1:38">
       <c r="A32">
-        <v>5.527465373</v>
+        <v>55.27465373</v>
       </c>
       <c r="B32">
-        <v>5.623800997</v>
+        <v>56.23800997</v>
       </c>
       <c r="C32">
-        <v>5.03895374</v>
+        <v>50.3895374</v>
       </c>
       <c r="D32">
-        <v>2.65544293</v>
+        <v>26.5544293</v>
       </c>
       <c r="E32">
-        <v>5.756278483</v>
+        <v>57.56278483</v>
       </c>
       <c r="F32">
-        <v>4.489258167</v>
+        <v>44.89258167</v>
       </c>
       <c r="G32">
-        <v>4.445682806</v>
+        <v>44.45682806</v>
       </c>
       <c r="H32">
-        <v>6.084539035</v>
+        <v>60.84539035</v>
       </c>
       <c r="I32">
-        <v>10.06885976</v>
+        <v>100.6885976</v>
       </c>
       <c r="J32">
-        <v>6.151412125</v>
+        <v>61.51412125</v>
       </c>
       <c r="K32">
-        <v>7.464418038</v>
+        <v>74.64418037999999</v>
       </c>
       <c r="L32">
-        <v>7.918766662</v>
+        <v>79.18766662</v>
       </c>
       <c r="M32">
-        <v>10.49472205</v>
+        <v>104.9472205</v>
       </c>
       <c r="N32">
-        <v>7.309533604</v>
+        <v>73.09533604000001</v>
       </c>
       <c r="O32">
-        <v>5.561475603</v>
+        <v>55.61475603</v>
       </c>
       <c r="P32">
-        <v>3.939392286</v>
+        <v>39.39392286</v>
       </c>
       <c r="Q32">
-        <v>6.795464941</v>
+        <v>67.95464941</v>
       </c>
       <c r="R32">
-        <v>2.455301267</v>
+        <v>24.55301267</v>
       </c>
       <c r="S32">
-        <v>3.700709171</v>
+        <v>37.00709171</v>
       </c>
       <c r="T32">
-        <v>5.169264779</v>
+        <v>51.69264779</v>
       </c>
       <c r="U32">
-        <v>14.16725717</v>
+        <v>141.6725717</v>
       </c>
       <c r="V32">
-        <v>8.259511697000001</v>
+        <v>82.59511697000001</v>
       </c>
       <c r="W32">
-        <v>14.27189857</v>
+        <v>142.7189857</v>
       </c>
       <c r="X32">
-        <v>12.74772047</v>
+        <v>127.4772047</v>
       </c>
       <c r="Y32">
-        <v>19.15223596</v>
+        <v>191.5223596</v>
       </c>
       <c r="Z32">
-        <v>13.12583557</v>
+        <v>131.2583557</v>
       </c>
       <c r="AA32">
-        <v>12.70967443</v>
+        <v>127.0967443</v>
       </c>
       <c r="AB32">
-        <v>21.16818759</v>
+        <v>211.6818759</v>
       </c>
       <c r="AC32">
-        <v>16.89756399</v>
+        <v>168.9756399</v>
       </c>
       <c r="AD32">
-        <v>11.40375252</v>
+        <v>114.0375252</v>
       </c>
       <c r="AE32">
-        <v>15.52611538</v>
+        <v>155.2611538</v>
       </c>
       <c r="AF32">
-        <v>28.18921532</v>
+        <v>281.8921532</v>
       </c>
       <c r="AG32">
-        <v>17.59437888</v>
+        <v>175.9437888</v>
       </c>
       <c r="AH32">
-        <v>26.31921996</v>
+        <v>263.1921996</v>
       </c>
       <c r="AI32">
-        <v>27.797316</v>
+        <v>277.97316</v>
       </c>
       <c r="AJ32">
-        <v>23.59864911</v>
+        <v>235.9864911</v>
       </c>
       <c r="AK32">
-        <v>58.98478146</v>
+        <v>589.8478146</v>
       </c>
       <c r="AL32">
-        <v>30.62753587</v>
+        <v>306.2753587</v>
       </c>
     </row>
     <row r="33" spans="1:38">
       <c r="A33">
-        <v>4.043034279</v>
+        <v>40.43034279</v>
       </c>
       <c r="B33">
-        <v>2.471690845</v>
+        <v>24.71690845</v>
       </c>
       <c r="C33">
-        <v>4.97966923</v>
+        <v>49.7966923</v>
       </c>
       <c r="D33">
-        <v>3.469440942</v>
+        <v>34.69440942</v>
       </c>
       <c r="E33">
-        <v>4.600796631</v>
+        <v>46.00796631</v>
       </c>
       <c r="F33">
-        <v>3.855888534</v>
+        <v>38.55888534</v>
       </c>
       <c r="G33">
-        <v>5.110935548</v>
+        <v>51.10935548</v>
       </c>
       <c r="H33">
-        <v>4.271202781</v>
+        <v>42.71202781</v>
       </c>
       <c r="I33">
-        <v>8.596855262</v>
+        <v>85.96855262</v>
       </c>
       <c r="J33">
-        <v>4.258335981</v>
+        <v>42.58335981</v>
       </c>
       <c r="K33">
-        <v>6.04222565</v>
+        <v>60.4222565</v>
       </c>
       <c r="L33">
-        <v>5.921814879</v>
+        <v>59.21814879</v>
       </c>
       <c r="M33">
-        <v>6.400031865</v>
+        <v>64.00031865</v>
       </c>
       <c r="N33">
-        <v>4.80797246</v>
+        <v>48.07972460000001</v>
       </c>
       <c r="O33">
-        <v>7.299453404</v>
+        <v>72.99453404</v>
       </c>
       <c r="P33">
-        <v>6.703035404</v>
+        <v>67.03035404000001</v>
       </c>
       <c r="Q33">
-        <v>4.69490308</v>
+        <v>46.9490308</v>
       </c>
       <c r="R33">
-        <v>4.57908167</v>
+        <v>45.7908167</v>
       </c>
       <c r="S33">
-        <v>8.422051707</v>
+        <v>84.22051707</v>
       </c>
       <c r="T33">
-        <v>14.78984016</v>
+        <v>147.8984016</v>
       </c>
       <c r="U33">
-        <v>12.36071711</v>
+        <v>123.6071711</v>
       </c>
       <c r="V33">
-        <v>17.48790448</v>
+        <v>174.8790448</v>
       </c>
       <c r="W33">
-        <v>11.16267328</v>
+        <v>111.6267328</v>
       </c>
       <c r="X33">
-        <v>9.872325802000001</v>
+        <v>98.72325802</v>
       </c>
       <c r="Y33">
-        <v>12.35689824</v>
+        <v>123.5689824</v>
       </c>
       <c r="Z33">
-        <v>22.990003</v>
+        <v>229.90003</v>
       </c>
       <c r="AA33">
-        <v>13.22123791</v>
+        <v>132.2123791</v>
       </c>
       <c r="AB33">
-        <v>34.76668043</v>
+        <v>347.6668043</v>
       </c>
       <c r="AC33">
-        <v>22.89753973</v>
+        <v>228.9753973</v>
       </c>
       <c r="AD33">
-        <v>29.31324522</v>
+        <v>293.1324522</v>
       </c>
       <c r="AE33">
-        <v>28.41847521</v>
+        <v>284.1847521</v>
       </c>
       <c r="AF33">
-        <v>29.39396759</v>
+        <v>293.9396759</v>
       </c>
       <c r="AG33">
-        <v>53.25967452</v>
+        <v>532.5967452</v>
       </c>
       <c r="AH33">
-        <v>15.64849067</v>
+        <v>156.4849067</v>
       </c>
       <c r="AI33">
-        <v>19.78807472</v>
+        <v>197.8807472</v>
       </c>
       <c r="AJ33">
-        <v>19.86619352</v>
+        <v>198.6619352</v>
       </c>
       <c r="AK33">
-        <v>23.50115266</v>
+        <v>235.0115266</v>
       </c>
       <c r="AL33">
-        <v>11.15921338</v>
+        <v>111.5921338</v>
       </c>
     </row>
     <row r="34" spans="1:38">
       <c r="A34">
-        <v>3.323250829</v>
+        <v>33.23250829</v>
       </c>
       <c r="B34">
-        <v>3.266788752</v>
+        <v>32.66788752</v>
       </c>
       <c r="C34">
-        <v>2.939006118</v>
+        <v>29.39006118</v>
       </c>
       <c r="D34">
-        <v>2.884462197</v>
+        <v>28.84462197</v>
       </c>
       <c r="E34">
-        <v>3.732209693</v>
+        <v>37.32209693</v>
       </c>
       <c r="F34">
-        <v>4.002044955</v>
+        <v>40.02044955</v>
       </c>
       <c r="G34">
-        <v>1.719063162</v>
+        <v>17.19063162</v>
       </c>
       <c r="H34">
-        <v>5.272008815</v>
+        <v>52.72008815</v>
       </c>
       <c r="I34">
-        <v>3.790122988</v>
+        <v>37.90122988</v>
       </c>
       <c r="J34">
-        <v>3.532781317</v>
+        <v>35.32781317</v>
       </c>
       <c r="K34">
-        <v>4.259302733</v>
+        <v>42.59302733</v>
       </c>
       <c r="L34">
-        <v>8.646775434</v>
+        <v>86.46775434</v>
       </c>
       <c r="M34">
-        <v>9.241400737999999</v>
+        <v>92.41400737999999</v>
       </c>
       <c r="N34">
-        <v>6.395764467</v>
+        <v>63.95764467</v>
       </c>
       <c r="O34">
-        <v>5.432844084</v>
+        <v>54.32844084</v>
       </c>
       <c r="P34">
-        <v>8.852735163</v>
+        <v>88.52735163</v>
       </c>
       <c r="Q34">
-        <v>5.604265304</v>
+        <v>56.04265304</v>
       </c>
       <c r="R34">
-        <v>6.939831323</v>
+        <v>69.39831323</v>
       </c>
       <c r="S34">
-        <v>8.808264858999999</v>
+        <v>88.08264858999999</v>
       </c>
       <c r="T34">
-        <v>9.359580482</v>
+        <v>93.59580482</v>
       </c>
       <c r="U34">
-        <v>9.030488552</v>
+        <v>90.30488552</v>
       </c>
       <c r="V34">
-        <v>13.79294831</v>
+        <v>137.9294831</v>
       </c>
       <c r="W34">
-        <v>9.630262358</v>
+        <v>96.30262357999999</v>
       </c>
       <c r="X34">
-        <v>9.001232111</v>
+        <v>90.01232111</v>
       </c>
       <c r="Y34">
-        <v>15.07428737</v>
+        <v>150.7428737</v>
       </c>
       <c r="Z34">
-        <v>32.10781535</v>
+        <v>321.0781535</v>
       </c>
       <c r="AA34">
-        <v>23.37271857</v>
+        <v>233.7271857</v>
       </c>
       <c r="AB34">
-        <v>44.06956769</v>
+        <v>440.6956769</v>
       </c>
       <c r="AC34">
-        <v>24.53546125</v>
+        <v>245.3546125</v>
       </c>
       <c r="AD34">
-        <v>42.37715709</v>
+        <v>423.7715709</v>
       </c>
       <c r="AE34">
-        <v>38.98938655</v>
+        <v>389.8938655</v>
       </c>
       <c r="AF34">
-        <v>30.63274299</v>
+        <v>306.3274299</v>
       </c>
       <c r="AG34">
-        <v>43.61579997</v>
+        <v>436.1579997</v>
       </c>
       <c r="AH34">
-        <v>27.93637126</v>
+        <v>279.3637126</v>
       </c>
       <c r="AI34">
-        <v>28.42415947</v>
+        <v>284.2415947</v>
       </c>
       <c r="AJ34">
-        <v>23.3439878</v>
+        <v>233.439878</v>
       </c>
       <c r="AK34">
-        <v>26.79832724</v>
+        <v>267.9832724</v>
       </c>
       <c r="AL34">
-        <v>20.78142314</v>
+        <v>207.8142314</v>
       </c>
     </row>
     <row r="35" spans="1:38">
       <c r="A35">
-        <v>1.22639561</v>
+        <v>12.2639561</v>
       </c>
       <c r="B35">
-        <v>2.582235429</v>
+        <v>25.82235429</v>
       </c>
       <c r="C35">
-        <v>2.061882642</v>
+        <v>20.61882642</v>
       </c>
       <c r="D35">
-        <v>3.292797374</v>
+        <v>32.92797374</v>
       </c>
       <c r="E35">
-        <v>4.598579582</v>
+        <v>45.98579582</v>
       </c>
       <c r="F35">
-        <v>6.278847655</v>
+        <v>62.78847655</v>
       </c>
       <c r="G35">
-        <v>4.407111425</v>
+        <v>44.07111425</v>
       </c>
       <c r="H35">
-        <v>3.950912122</v>
+        <v>39.50912122</v>
       </c>
       <c r="I35">
-        <v>4.413012087</v>
+        <v>44.13012087</v>
       </c>
       <c r="J35">
-        <v>3.434136356</v>
+        <v>34.34136356</v>
       </c>
       <c r="K35">
-        <v>4.199693176</v>
+        <v>41.99693176</v>
       </c>
       <c r="L35">
-        <v>10.87574923</v>
+        <v>108.7574923</v>
       </c>
       <c r="M35">
-        <v>7.00741917</v>
+        <v>70.0741917</v>
       </c>
       <c r="N35">
-        <v>7.93920758</v>
+        <v>79.3920758</v>
       </c>
       <c r="O35">
-        <v>3.774600198</v>
+        <v>37.74600198</v>
       </c>
       <c r="P35">
-        <v>5.908621581</v>
+        <v>59.08621581</v>
       </c>
       <c r="Q35">
-        <v>6.32428174</v>
+        <v>63.2428174</v>
       </c>
       <c r="R35">
-        <v>6.20943475</v>
+        <v>62.0943475</v>
       </c>
       <c r="S35">
-        <v>15.85675305</v>
+        <v>158.5675305</v>
       </c>
       <c r="T35">
-        <v>10.2590318</v>
+        <v>102.590318</v>
       </c>
       <c r="U35">
-        <v>11.13356555</v>
+        <v>111.3356555</v>
       </c>
       <c r="V35">
-        <v>16.44743387</v>
+        <v>164.4743387</v>
       </c>
       <c r="W35">
-        <v>22.90234871</v>
+        <v>229.0234871</v>
       </c>
       <c r="X35">
-        <v>12.10769825</v>
+        <v>121.0769825</v>
       </c>
       <c r="Y35">
-        <v>27.54220263</v>
+        <v>275.4220263</v>
       </c>
       <c r="Z35">
-        <v>51.34663837</v>
+        <v>513.4663837000001</v>
       </c>
       <c r="AA35">
-        <v>36.42077921</v>
+        <v>364.2077921</v>
       </c>
       <c r="AB35">
-        <v>53.64506444</v>
+        <v>536.4506444</v>
       </c>
       <c r="AC35">
-        <v>42.57594699</v>
+        <v>425.7594699</v>
       </c>
       <c r="AD35">
-        <v>34.64209182</v>
+        <v>346.4209182</v>
       </c>
       <c r="AE35">
-        <v>30.01206505</v>
+        <v>300.1206505</v>
       </c>
       <c r="AF35">
-        <v>46.51288957</v>
+        <v>465.1288957</v>
       </c>
       <c r="AG35">
-        <v>32.29910333</v>
+        <v>322.9910333</v>
       </c>
       <c r="AH35">
-        <v>16.51285997</v>
+        <v>165.1285997</v>
       </c>
       <c r="AI35">
-        <v>14.19936818</v>
+        <v>141.9936818</v>
       </c>
       <c r="AJ35">
-        <v>22.41408306</v>
+        <v>224.1408306</v>
       </c>
       <c r="AK35">
-        <v>26.58080847</v>
+        <v>265.8080847</v>
       </c>
       <c r="AL35">
-        <v>26.93561717</v>
+        <v>269.3561717</v>
       </c>
     </row>
     <row r="36" spans="1:38">
       <c r="A36">
-        <v>2.158966142</v>
+        <v>21.58966142</v>
       </c>
       <c r="B36">
-        <v>3.473620665</v>
+        <v>34.73620665</v>
       </c>
       <c r="C36">
-        <v>4.093611015</v>
+        <v>40.93611015</v>
       </c>
       <c r="D36">
-        <v>6.862682973</v>
+        <v>68.62682973</v>
       </c>
       <c r="E36">
-        <v>5.943149961</v>
+        <v>59.43149961</v>
       </c>
       <c r="F36">
-        <v>4.116150859</v>
+        <v>41.16150859</v>
       </c>
       <c r="G36">
-        <v>3.571206412</v>
+        <v>35.71206412</v>
       </c>
       <c r="H36">
-        <v>2.205754151</v>
+        <v>22.05754151</v>
       </c>
       <c r="I36">
-        <v>5.009106066</v>
+        <v>50.09106066</v>
       </c>
       <c r="J36">
-        <v>3.95065137</v>
+        <v>39.5065137</v>
       </c>
       <c r="K36">
-        <v>5.217203181</v>
+        <v>52.17203181000001</v>
       </c>
       <c r="L36">
-        <v>7.392666307</v>
+        <v>73.92666307</v>
       </c>
       <c r="M36">
-        <v>8.326210821</v>
+        <v>83.26210821000001</v>
       </c>
       <c r="N36">
-        <v>5.889210036</v>
+        <v>58.89210036</v>
       </c>
       <c r="O36">
-        <v>9.677837418999999</v>
+        <v>96.77837418999999</v>
       </c>
       <c r="P36">
-        <v>11.98106479</v>
+        <v>119.8106479</v>
       </c>
       <c r="Q36">
-        <v>10.01920217</v>
+        <v>100.1920217</v>
       </c>
       <c r="R36">
-        <v>10.46821443</v>
+        <v>104.6821443</v>
       </c>
       <c r="S36">
-        <v>15.11799066</v>
+        <v>151.1799066</v>
       </c>
       <c r="T36">
-        <v>13.78751495</v>
+        <v>137.8751495</v>
       </c>
       <c r="U36">
-        <v>19.44324034</v>
+        <v>194.4324034</v>
       </c>
       <c r="V36">
-        <v>16.6613134</v>
+        <v>166.613134</v>
       </c>
       <c r="W36">
-        <v>12.09189592</v>
+        <v>120.9189592</v>
       </c>
       <c r="X36">
-        <v>39.93605178</v>
+        <v>399.3605178</v>
       </c>
       <c r="Y36">
-        <v>23.52842981</v>
+        <v>235.2842981</v>
       </c>
       <c r="Z36">
-        <v>27.64402109</v>
+        <v>276.4402109</v>
       </c>
       <c r="AA36">
-        <v>67.84525628999999</v>
+        <v>678.4525629</v>
       </c>
       <c r="AB36">
-        <v>46.62278962</v>
+        <v>466.2278962</v>
       </c>
       <c r="AC36">
-        <v>39.47902307</v>
+        <v>394.7902306999999</v>
       </c>
       <c r="AD36">
-        <v>46.68483918</v>
+        <v>466.8483917999999</v>
       </c>
       <c r="AE36">
-        <v>36.77504423</v>
+        <v>367.7504423</v>
       </c>
       <c r="AF36">
-        <v>22.75920023</v>
+        <v>227.5920023</v>
       </c>
       <c r="AG36">
-        <v>30.51655945</v>
+        <v>305.1655945</v>
       </c>
       <c r="AH36">
-        <v>25.35356799</v>
+        <v>253.5356799</v>
       </c>
       <c r="AI36">
-        <v>29.66563987</v>
+        <v>296.6563987</v>
       </c>
       <c r="AJ36">
-        <v>23.8766136</v>
+        <v>238.766136</v>
       </c>
       <c r="AK36">
-        <v>49.8799675</v>
+        <v>498.799675</v>
       </c>
       <c r="AL36">
-        <v>44.37159308</v>
+        <v>443.7159308</v>
       </c>
     </row>
     <row r="37" spans="1:38">
       <c r="A37">
-        <v>4.897889849</v>
+        <v>48.97889849000001</v>
       </c>
       <c r="B37">
-        <v>2.976239138</v>
+        <v>29.76239138</v>
       </c>
       <c r="C37">
-        <v>2.264913275</v>
+        <v>22.64913275</v>
       </c>
       <c r="D37">
-        <v>3.944623329</v>
+        <v>39.44623329</v>
       </c>
       <c r="E37">
-        <v>4.15976037</v>
+        <v>41.5976037</v>
       </c>
       <c r="F37">
-        <v>3.563080463</v>
+        <v>35.63080463</v>
       </c>
       <c r="G37">
-        <v>3.225975771</v>
+        <v>32.25975771</v>
       </c>
       <c r="H37">
-        <v>3.550723797</v>
+        <v>35.50723797</v>
       </c>
       <c r="I37">
-        <v>5.864997578</v>
+        <v>58.64997578</v>
       </c>
       <c r="J37">
-        <v>4.322489326</v>
+        <v>43.22489326</v>
       </c>
       <c r="K37">
-        <v>13.35739908</v>
+        <v>133.5739908</v>
       </c>
       <c r="L37">
-        <v>7.453513032</v>
+        <v>74.53513032000001</v>
       </c>
       <c r="M37">
-        <v>6.547581005</v>
+        <v>65.47581004999999</v>
       </c>
       <c r="N37">
-        <v>24.03496077</v>
+        <v>240.3496077</v>
       </c>
       <c r="O37">
-        <v>15.6181464</v>
+        <v>156.181464</v>
       </c>
       <c r="P37">
-        <v>19.25093189</v>
+        <v>192.5093189</v>
       </c>
       <c r="Q37">
-        <v>16.65165264</v>
+        <v>166.5165264</v>
       </c>
       <c r="R37">
-        <v>18.8228107</v>
+        <v>188.228107</v>
       </c>
       <c r="S37">
-        <v>31.49187164</v>
+        <v>314.9187164</v>
       </c>
       <c r="T37">
-        <v>29.92605391</v>
+        <v>299.2605391</v>
       </c>
       <c r="U37">
-        <v>28.16047698</v>
+        <v>281.6047698</v>
       </c>
       <c r="V37">
-        <v>18.73623724</v>
+        <v>187.3623724</v>
       </c>
       <c r="W37">
-        <v>19.2084343</v>
+        <v>192.084343</v>
       </c>
       <c r="X37">
-        <v>9.917396817</v>
+        <v>99.17396816999999</v>
       </c>
       <c r="Y37">
-        <v>21.80260524</v>
+        <v>218.0260524</v>
       </c>
       <c r="Z37">
-        <v>24.82992227</v>
+        <v>248.2992227</v>
       </c>
       <c r="AA37">
-        <v>22.91655257</v>
+        <v>229.1655257</v>
       </c>
       <c r="AB37">
-        <v>21.34376094</v>
+        <v>213.4376094</v>
       </c>
       <c r="AC37">
-        <v>18.81133228</v>
+        <v>188.1133228</v>
       </c>
       <c r="AD37">
-        <v>37.48082501</v>
+        <v>374.8082501</v>
       </c>
       <c r="AE37">
-        <v>26.41493234</v>
+        <v>264.1493234</v>
       </c>
       <c r="AF37">
-        <v>23.00196091</v>
+        <v>230.0196091</v>
       </c>
       <c r="AG37">
-        <v>24.16703391</v>
+        <v>241.6703391</v>
       </c>
       <c r="AH37">
-        <v>26.17119738</v>
+        <v>261.7119738</v>
       </c>
       <c r="AI37">
-        <v>30.84113865</v>
+        <v>308.4113865</v>
       </c>
       <c r="AJ37">
-        <v>48.79263939</v>
+        <v>487.9263939</v>
       </c>
       <c r="AK37">
-        <v>54.36602777</v>
+        <v>543.6602777000001</v>
       </c>
       <c r="AL37">
-        <v>42.36656413</v>
+        <v>423.6656413</v>
       </c>
     </row>
     <row r="38" spans="1:38">
       <c r="A38">
-        <v>5.393553635</v>
+        <v>53.93553635</v>
       </c>
       <c r="B38">
-        <v>2.197607941</v>
+        <v>21.97607941</v>
       </c>
       <c r="C38">
-        <v>3.202723268</v>
+        <v>32.02723268</v>
       </c>
       <c r="D38">
-        <v>2.701822294</v>
+        <v>27.01822294</v>
       </c>
       <c r="E38">
-        <v>4.298114634</v>
+        <v>42.98114634</v>
       </c>
       <c r="F38">
-        <v>4.284682567</v>
+        <v>42.84682567</v>
       </c>
       <c r="G38">
-        <v>7.071788861</v>
+        <v>70.71788861</v>
       </c>
       <c r="H38">
-        <v>5.323188518</v>
+        <v>53.23188518000001</v>
       </c>
       <c r="I38">
-        <v>8.366163943</v>
+        <v>83.66163943000001</v>
       </c>
       <c r="J38">
-        <v>8.490929442000001</v>
+        <v>84.90929442000001</v>
       </c>
       <c r="K38">
-        <v>12.79986302</v>
+        <v>127.9986302</v>
       </c>
       <c r="L38">
-        <v>20.89331955</v>
+        <v>208.9331955</v>
       </c>
       <c r="M38">
-        <v>18.845977</v>
+        <v>188.45977</v>
       </c>
       <c r="N38">
-        <v>22.59366301</v>
+        <v>225.9366301</v>
       </c>
       <c r="O38">
-        <v>23.95098545</v>
+        <v>239.5098545</v>
       </c>
       <c r="P38">
-        <v>33.36239839</v>
+        <v>333.6239839</v>
       </c>
       <c r="Q38">
-        <v>35.44561214</v>
+        <v>354.4561214</v>
       </c>
       <c r="R38">
-        <v>29.66089374</v>
+        <v>296.6089374</v>
       </c>
       <c r="S38">
-        <v>35.7896759</v>
+        <v>357.896759</v>
       </c>
       <c r="T38">
-        <v>36.70890869</v>
+        <v>367.0890869</v>
       </c>
       <c r="U38">
-        <v>28.57177862</v>
+        <v>285.7177862</v>
       </c>
       <c r="V38">
-        <v>14.6645713</v>
+        <v>146.645713</v>
       </c>
       <c r="W38">
-        <v>14.78729652</v>
+        <v>147.8729652</v>
       </c>
       <c r="X38">
-        <v>14.02598203</v>
+        <v>140.2598203</v>
       </c>
       <c r="Y38">
-        <v>19.26961435</v>
+        <v>192.6961435</v>
       </c>
       <c r="Z38">
-        <v>16.95409621</v>
+        <v>169.5409621</v>
       </c>
       <c r="AA38">
-        <v>24.66288469</v>
+        <v>246.6288469</v>
       </c>
       <c r="AB38">
-        <v>26.88959662</v>
+        <v>268.8959662</v>
       </c>
       <c r="AC38">
-        <v>20.01314823</v>
+        <v>200.1314823</v>
       </c>
       <c r="AD38">
-        <v>25.00909276</v>
+        <v>250.0909276</v>
       </c>
       <c r="AE38">
-        <v>12.59125429</v>
+        <v>125.9125429</v>
       </c>
       <c r="AF38">
-        <v>24.85004266</v>
+        <v>248.5004266</v>
       </c>
       <c r="AG38">
-        <v>27.65425127</v>
+        <v>276.5425127</v>
       </c>
       <c r="AH38">
-        <v>36.60260707</v>
+        <v>366.0260707</v>
       </c>
       <c r="AI38">
-        <v>26.80556377</v>
+        <v>268.0556377</v>
       </c>
       <c r="AJ38">
-        <v>54.99374598</v>
+        <v>549.9374597999999</v>
       </c>
       <c r="AK38">
-        <v>32.0670643</v>
+        <v>320.670643</v>
       </c>
       <c r="AL38">
-        <v>27.64872098</v>
+        <v>276.4872098</v>
       </c>
     </row>
     <row r="39" spans="1:38">
       <c r="A39">
-        <v>4.632763087</v>
+        <v>46.32763087</v>
       </c>
       <c r="B39">
-        <v>2.900846147</v>
+        <v>29.00846147</v>
       </c>
       <c r="C39">
-        <v>2.002746461</v>
+        <v>20.02746461</v>
       </c>
       <c r="D39">
-        <v>3.616748686</v>
+        <v>36.16748686</v>
       </c>
       <c r="E39">
-        <v>6.909100594</v>
+        <v>69.09100594</v>
       </c>
       <c r="F39">
-        <v>10.91903361</v>
+        <v>109.1903361</v>
       </c>
       <c r="G39">
-        <v>10.74040147</v>
+        <v>107.4040147</v>
       </c>
       <c r="H39">
-        <v>11.96164725</v>
+        <v>119.6164725</v>
       </c>
       <c r="I39">
-        <v>14.42844304</v>
+        <v>144.2844304</v>
       </c>
       <c r="J39">
-        <v>19.8612276</v>
+        <v>198.612276</v>
       </c>
       <c r="K39">
-        <v>24.16413404</v>
+        <v>241.6413404</v>
       </c>
       <c r="L39">
-        <v>26.66867003</v>
+        <v>266.6867003</v>
       </c>
       <c r="M39">
-        <v>22.21637144</v>
+        <v>222.1637144</v>
       </c>
       <c r="N39">
-        <v>33.40112123</v>
+        <v>334.0112123</v>
       </c>
       <c r="O39">
-        <v>29.27955437</v>
+        <v>292.7955437</v>
       </c>
       <c r="P39">
-        <v>54.20751051</v>
+        <v>542.0751051</v>
       </c>
       <c r="Q39">
-        <v>32.62175735</v>
+        <v>326.2175735</v>
       </c>
       <c r="R39">
-        <v>38.20473532</v>
+        <v>382.0473532</v>
       </c>
       <c r="S39">
-        <v>23.15937044</v>
+        <v>231.5937044</v>
       </c>
       <c r="T39">
-        <v>29.0061962</v>
+        <v>290.061962</v>
       </c>
       <c r="U39">
-        <v>18.25555595</v>
+        <v>182.5555595</v>
       </c>
       <c r="V39">
-        <v>21.57789626</v>
+        <v>215.7789626</v>
       </c>
       <c r="W39">
-        <v>17.40590418</v>
+        <v>174.0590418</v>
       </c>
       <c r="X39">
-        <v>18.22801086</v>
+        <v>182.2801086</v>
       </c>
       <c r="Y39">
-        <v>19.89442356</v>
+        <v>198.9442356</v>
       </c>
       <c r="Z39">
-        <v>16.09499685</v>
+        <v>160.9499685</v>
       </c>
       <c r="AA39">
-        <v>18.28149725</v>
+        <v>182.8149725</v>
       </c>
       <c r="AB39">
-        <v>13.18423067</v>
+        <v>131.8423067</v>
       </c>
       <c r="AC39">
-        <v>14.7896331</v>
+        <v>147.896331</v>
       </c>
       <c r="AD39">
-        <v>10.01332263</v>
+        <v>100.1332263</v>
       </c>
       <c r="AE39">
-        <v>13.81189903</v>
+        <v>138.1189903</v>
       </c>
       <c r="AF39">
-        <v>23.67381226</v>
+        <v>236.7381226</v>
       </c>
       <c r="AG39">
-        <v>29.905113</v>
+        <v>299.05113</v>
       </c>
       <c r="AH39">
-        <v>36.78460699</v>
+        <v>367.8460699</v>
       </c>
       <c r="AI39">
-        <v>53.15591935</v>
+        <v>531.5591935</v>
       </c>
       <c r="AJ39">
-        <v>26.84526537</v>
+        <v>268.4526537</v>
       </c>
       <c r="AK39">
-        <v>31.70040539</v>
+        <v>317.0040539</v>
       </c>
       <c r="AL39">
-        <v>23.21014504</v>
+        <v>232.1014504</v>
       </c>
     </row>
     <row r="40" spans="1:38">
       <c r="A40">
-        <v>5.929977799</v>
+        <v>59.29977799</v>
       </c>
       <c r="B40">
-        <v>4.277306415</v>
+        <v>42.77306415</v>
       </c>
       <c r="C40">
-        <v>3.836722434</v>
+        <v>38.36722434</v>
       </c>
       <c r="D40">
-        <v>11.38417769</v>
+        <v>113.8417769</v>
       </c>
       <c r="E40">
-        <v>9.672806252000001</v>
+        <v>96.72806252000001</v>
       </c>
       <c r="F40">
-        <v>9.645943548</v>
+        <v>96.45943548</v>
       </c>
       <c r="G40">
-        <v>7.096171897</v>
+        <v>70.96171896999999</v>
       </c>
       <c r="H40">
-        <v>12.09420569</v>
+        <v>120.9420569</v>
       </c>
       <c r="I40">
-        <v>18.87936392</v>
+        <v>188.7936392</v>
       </c>
       <c r="J40">
-        <v>25.3918808</v>
+        <v>253.918808</v>
       </c>
       <c r="K40">
-        <v>27.54055014</v>
+        <v>275.4055014</v>
       </c>
       <c r="L40">
-        <v>52.29493228</v>
+        <v>522.9493228</v>
       </c>
       <c r="M40">
-        <v>40.92575082</v>
+        <v>409.2575082</v>
       </c>
       <c r="N40">
-        <v>43.1861339</v>
+        <v>431.861339</v>
       </c>
       <c r="O40">
-        <v>40.79051053</v>
+        <v>407.9051053</v>
       </c>
       <c r="P40">
-        <v>20.38683744</v>
+        <v>203.8683744</v>
       </c>
       <c r="Q40">
-        <v>33.93203214</v>
+        <v>339.3203214</v>
       </c>
       <c r="R40">
-        <v>31.28095573</v>
+        <v>312.8095573</v>
       </c>
       <c r="S40">
-        <v>19.24669715</v>
+        <v>192.4669715</v>
       </c>
       <c r="T40">
-        <v>20.35831584</v>
+        <v>203.5831584</v>
       </c>
       <c r="U40">
-        <v>30.79737531</v>
+        <v>307.9737531</v>
       </c>
       <c r="V40">
-        <v>21.51756265</v>
+        <v>215.1756265</v>
       </c>
       <c r="W40">
-        <v>19.39993022</v>
+        <v>193.9993022</v>
       </c>
       <c r="X40">
-        <v>24.13998198</v>
+        <v>241.3998198</v>
       </c>
       <c r="Y40">
-        <v>20.74508745</v>
+        <v>207.4508745</v>
       </c>
       <c r="Z40">
-        <v>25.58866472</v>
+        <v>255.8866472</v>
       </c>
       <c r="AA40">
-        <v>15.138989</v>
+        <v>151.38989</v>
       </c>
       <c r="AB40">
-        <v>15.4548129</v>
+        <v>154.548129</v>
       </c>
       <c r="AC40">
-        <v>22.57920769</v>
+        <v>225.7920769</v>
       </c>
       <c r="AD40">
-        <v>18.15978383</v>
+        <v>181.5978383</v>
       </c>
       <c r="AE40">
-        <v>21.93008568</v>
+        <v>219.3008568</v>
       </c>
       <c r="AF40">
-        <v>22.81411605</v>
+        <v>228.1411605</v>
       </c>
       <c r="AG40">
-        <v>46.02797985</v>
+        <v>460.2797985</v>
       </c>
       <c r="AH40">
-        <v>25.14903357</v>
+        <v>251.4903357</v>
       </c>
       <c r="AI40">
-        <v>41.41236341</v>
+        <v>414.1236341</v>
       </c>
       <c r="AJ40">
-        <v>18.39298734</v>
+        <v>183.9298734</v>
       </c>
       <c r="AK40">
-        <v>23.6295836</v>
+        <v>236.295836</v>
       </c>
       <c r="AL40">
-        <v>31.00782119</v>
+        <v>310.0782119</v>
       </c>
     </row>
     <row r="41" spans="1:38">
       <c r="A41">
-        <v>2.876080614</v>
+        <v>28.76080614</v>
       </c>
       <c r="B41">
-        <v>5.352188107</v>
+        <v>53.52188107</v>
       </c>
       <c r="C41">
-        <v>4.280537001</v>
+        <v>42.80537001</v>
       </c>
       <c r="D41">
-        <v>8.570683369999999</v>
+        <v>85.70683369999999</v>
       </c>
       <c r="E41">
-        <v>11.47188741</v>
+        <v>114.7188741</v>
       </c>
       <c r="F41">
-        <v>13.14787922</v>
+        <v>131.4787922</v>
       </c>
       <c r="G41">
-        <v>8.504534308</v>
+        <v>85.04534308000001</v>
       </c>
       <c r="H41">
-        <v>14.88922012</v>
+        <v>148.8922012</v>
       </c>
       <c r="I41">
-        <v>17.18899699</v>
+        <v>171.8899699</v>
       </c>
       <c r="J41">
-        <v>23.84320972</v>
+        <v>238.4320972</v>
       </c>
       <c r="K41">
-        <v>29.45369795</v>
+        <v>294.5369795</v>
       </c>
       <c r="L41">
-        <v>82.66526232</v>
+        <v>826.6526232</v>
       </c>
       <c r="M41">
-        <v>48.86979269</v>
+        <v>488.6979269</v>
       </c>
       <c r="N41">
-        <v>29.78990177</v>
+        <v>297.8990177</v>
       </c>
       <c r="O41">
-        <v>41.99663387</v>
+        <v>419.9663386999999</v>
       </c>
       <c r="P41">
-        <v>25.29886338</v>
+        <v>252.9886338</v>
       </c>
       <c r="Q41">
-        <v>24.9616206</v>
+        <v>249.616206</v>
       </c>
       <c r="R41">
-        <v>10.74502084</v>
+        <v>107.4502084</v>
       </c>
       <c r="S41">
-        <v>11.91349116</v>
+        <v>119.1349116</v>
       </c>
       <c r="T41">
-        <v>18.04339102</v>
+        <v>180.4339102</v>
       </c>
       <c r="U41">
-        <v>18.70123322</v>
+        <v>187.0123322</v>
       </c>
       <c r="V41">
-        <v>15.9218355</v>
+        <v>159.218355</v>
       </c>
       <c r="W41">
-        <v>18.36762252</v>
+        <v>183.6762252</v>
       </c>
       <c r="X41">
-        <v>10.93602592</v>
+        <v>109.3602592</v>
       </c>
       <c r="Y41">
-        <v>26.67960642</v>
+        <v>266.7960642</v>
       </c>
       <c r="Z41">
-        <v>13.97196007</v>
+        <v>139.7196007</v>
       </c>
       <c r="AA41">
-        <v>33.74119415</v>
+        <v>337.4119415</v>
       </c>
       <c r="AB41">
-        <v>32.77511273</v>
+        <v>327.7511273</v>
       </c>
       <c r="AC41">
-        <v>28.89733768</v>
+        <v>288.9733768</v>
       </c>
       <c r="AD41">
-        <v>38.62846613</v>
+        <v>386.2846613</v>
       </c>
       <c r="AE41">
-        <v>23.31599182</v>
+        <v>233.1599182</v>
       </c>
       <c r="AF41">
-        <v>30.95298589</v>
+        <v>309.5298589</v>
       </c>
       <c r="AG41">
-        <v>45.49532026</v>
+        <v>454.9532026</v>
       </c>
       <c r="AH41">
-        <v>37.22049198</v>
+        <v>372.2049198</v>
       </c>
       <c r="AI41">
-        <v>27.62219094</v>
+        <v>276.2219094</v>
       </c>
       <c r="AJ41">
-        <v>26.26348232</v>
+        <v>262.6348232</v>
       </c>
       <c r="AK41">
-        <v>31.87396299</v>
+        <v>318.7396299</v>
       </c>
       <c r="AL41">
-        <v>16.16199453</v>
+        <v>161.6199453</v>
       </c>
     </row>
     <row r="42" spans="1:38">
       <c r="A42">
-        <v>5.963412827</v>
+        <v>59.63412827</v>
       </c>
       <c r="B42">
-        <v>7.118453304</v>
+        <v>71.18453304000001</v>
       </c>
       <c r="C42">
-        <v>8.659209782</v>
+        <v>86.59209781999999</v>
       </c>
       <c r="D42">
-        <v>17.65253624</v>
+        <v>176.5253624</v>
       </c>
       <c r="E42">
-        <v>22.00609519</v>
+        <v>220.0609519</v>
       </c>
       <c r="F42">
-        <v>13.84130821</v>
+        <v>138.4130821</v>
       </c>
       <c r="G42">
-        <v>17.30541519</v>
+        <v>173.0541519</v>
       </c>
       <c r="H42">
-        <v>17.59279546</v>
+        <v>175.9279546</v>
       </c>
       <c r="I42">
-        <v>15.61964582</v>
+        <v>156.1964582</v>
       </c>
       <c r="J42">
-        <v>17.11113582</v>
+        <v>171.1113582</v>
       </c>
       <c r="K42">
-        <v>33.35772799</v>
+        <v>333.5772799</v>
       </c>
       <c r="L42">
-        <v>31.71657672</v>
+        <v>317.1657672</v>
       </c>
       <c r="M42">
-        <v>24.98134807</v>
+        <v>249.8134807</v>
       </c>
       <c r="N42">
-        <v>24.02582922</v>
+        <v>240.2582922</v>
       </c>
       <c r="O42">
-        <v>20.18398502</v>
+        <v>201.8398502</v>
       </c>
       <c r="P42">
-        <v>13.17691545</v>
+        <v>131.7691545</v>
       </c>
       <c r="Q42">
-        <v>8.027855805</v>
+        <v>80.27855805</v>
       </c>
       <c r="R42">
-        <v>13.69544738</v>
+        <v>136.9544738</v>
       </c>
       <c r="S42">
-        <v>7.975851939</v>
+        <v>79.75851939</v>
       </c>
       <c r="T42">
-        <v>8.338409321</v>
+        <v>83.38409321</v>
       </c>
       <c r="U42">
-        <v>4.902422493</v>
+        <v>49.02422493</v>
       </c>
       <c r="V42">
-        <v>11.72794516</v>
+        <v>117.2794516</v>
       </c>
       <c r="W42">
-        <v>8.241385469000001</v>
+        <v>82.41385469000001</v>
       </c>
       <c r="X42">
-        <v>12.38158724</v>
+        <v>123.8158724</v>
       </c>
       <c r="Y42">
-        <v>14.43962941</v>
+        <v>144.3962941</v>
       </c>
       <c r="Z42">
-        <v>24.07489194</v>
+        <v>240.7489194</v>
       </c>
       <c r="AA42">
-        <v>24.47199663</v>
+        <v>244.7199663</v>
       </c>
       <c r="AB42">
-        <v>33.37941756</v>
+        <v>333.7941756</v>
       </c>
       <c r="AC42">
-        <v>25.26827027</v>
+        <v>252.6827027</v>
       </c>
       <c r="AD42">
-        <v>25.12138484</v>
+        <v>251.2138484</v>
       </c>
       <c r="AE42">
-        <v>16.11964105</v>
+        <v>161.1964105</v>
       </c>
       <c r="AF42">
-        <v>32.42499154</v>
+        <v>324.2499154</v>
       </c>
       <c r="AG42">
-        <v>8.046494005</v>
+        <v>80.46494005</v>
       </c>
       <c r="AH42">
-        <v>18.0818644</v>
+        <v>180.818644</v>
       </c>
       <c r="AI42">
-        <v>29.12653077</v>
+        <v>291.2653077</v>
       </c>
       <c r="AJ42">
-        <v>19.43157789</v>
+        <v>194.3157789</v>
       </c>
       <c r="AK42">
-        <v>26.31000984</v>
+        <v>263.1000984</v>
       </c>
       <c r="AL42">
-        <v>17.06243851</v>
+        <v>170.6243851</v>
       </c>
     </row>
     <row r="43" spans="1:38">
       <c r="A43">
-        <v>12.34986917</v>
+        <v>123.4986917</v>
       </c>
       <c r="B43">
-        <v>12.04604595</v>
+        <v>120.4604595</v>
       </c>
       <c r="C43">
-        <v>16.92445249</v>
+        <v>169.2445249</v>
       </c>
       <c r="D43">
-        <v>15.56519714</v>
+        <v>155.6519714</v>
       </c>
       <c r="E43">
-        <v>25.87195256</v>
+        <v>258.7195256</v>
       </c>
       <c r="F43">
-        <v>16.88016846</v>
+        <v>168.8016846</v>
       </c>
       <c r="G43">
-        <v>16.58617421</v>
+        <v>165.8617421</v>
       </c>
       <c r="H43">
-        <v>14.9603964</v>
+        <v>149.603964</v>
       </c>
       <c r="I43">
-        <v>11.85618259</v>
+        <v>118.5618259</v>
       </c>
       <c r="J43">
-        <v>17.33329935</v>
+        <v>173.3329935</v>
       </c>
       <c r="K43">
-        <v>9.385861575</v>
+        <v>93.85861575</v>
       </c>
       <c r="L43">
-        <v>10.15880147</v>
+        <v>101.5880147</v>
       </c>
       <c r="M43">
-        <v>9.270909336000001</v>
+        <v>92.70909336000001</v>
       </c>
       <c r="N43">
-        <v>14.64820012</v>
+        <v>146.4820012</v>
       </c>
       <c r="O43">
-        <v>14.1372544</v>
+        <v>141.372544</v>
       </c>
       <c r="P43">
-        <v>6.695779947</v>
+        <v>66.95779947</v>
       </c>
       <c r="Q43">
-        <v>6.85367133</v>
+        <v>68.5367133</v>
       </c>
       <c r="R43">
-        <v>9.011436287</v>
+        <v>90.11436287000001</v>
       </c>
       <c r="S43">
-        <v>6.048021533</v>
+        <v>60.48021533</v>
       </c>
       <c r="T43">
-        <v>7.804468617</v>
+        <v>78.04468617000001</v>
       </c>
       <c r="U43">
-        <v>8.790947239999999</v>
+        <v>87.9094724</v>
       </c>
       <c r="V43">
-        <v>3.653386221</v>
+        <v>36.53386221</v>
       </c>
       <c r="W43">
-        <v>11.96709104</v>
+        <v>119.6709104</v>
       </c>
       <c r="X43">
-        <v>7.34889138</v>
+        <v>73.48891380000001</v>
       </c>
       <c r="Y43">
-        <v>12.87304344</v>
+        <v>128.7304344</v>
       </c>
       <c r="Z43">
-        <v>21.44495606</v>
+        <v>214.4495606</v>
       </c>
       <c r="AA43">
-        <v>26.12961824</v>
+        <v>261.2961824</v>
       </c>
       <c r="AB43">
-        <v>24.53104527</v>
+        <v>245.3104527</v>
       </c>
       <c r="AC43">
-        <v>15.43254312</v>
+        <v>154.3254312</v>
       </c>
       <c r="AD43">
-        <v>16.70051353</v>
+        <v>167.0051353</v>
       </c>
       <c r="AE43">
-        <v>20.02155552</v>
+        <v>200.2155552</v>
       </c>
       <c r="AF43">
-        <v>30.96382133</v>
+        <v>309.6382133</v>
       </c>
       <c r="AG43">
-        <v>17.56291311</v>
+        <v>175.6291311</v>
       </c>
       <c r="AH43">
-        <v>20.37522026</v>
+        <v>203.7522026</v>
       </c>
       <c r="AI43">
-        <v>35.23357521</v>
+        <v>352.3357521</v>
       </c>
       <c r="AJ43">
-        <v>34.2062874</v>
+        <v>342.062874</v>
       </c>
       <c r="AK43">
-        <v>19.87354538</v>
+        <v>198.7354538</v>
       </c>
       <c r="AL43">
-        <v>17.80411249</v>
+        <v>178.0411249</v>
       </c>
     </row>
     <row r="44" spans="1:38">
       <c r="A44">
-        <v>30.99480064</v>
+        <v>309.9480064</v>
       </c>
       <c r="B44">
-        <v>20.02736261</v>
+        <v>200.2736261</v>
       </c>
       <c r="C44">
-        <v>29.97067697</v>
+        <v>299.7067697</v>
       </c>
       <c r="D44">
-        <v>24.33144311</v>
+        <v>243.3144311</v>
       </c>
       <c r="E44">
-        <v>33.57492368</v>
+        <v>335.7492367999999</v>
       </c>
       <c r="F44">
-        <v>17.68805352</v>
+        <v>176.8805352</v>
       </c>
       <c r="G44">
-        <v>12.8221157</v>
+        <v>128.221157</v>
       </c>
       <c r="H44">
-        <v>28.39631744</v>
+        <v>283.9631744</v>
       </c>
       <c r="I44">
-        <v>16.10660553</v>
+        <v>161.0660553</v>
       </c>
       <c r="J44">
-        <v>7.700794222</v>
+        <v>77.00794222</v>
       </c>
       <c r="K44">
-        <v>11.7113033</v>
+        <v>117.113033</v>
       </c>
       <c r="L44">
-        <v>16.20241766</v>
+        <v>162.0241766</v>
       </c>
       <c r="M44">
-        <v>10.0129221</v>
+        <v>100.129221</v>
       </c>
       <c r="N44">
-        <v>7.041079308</v>
+        <v>70.41079307999999</v>
       </c>
       <c r="O44">
-        <v>7.675200902</v>
+        <v>76.75200902</v>
       </c>
       <c r="P44">
-        <v>5.172719001</v>
+        <v>51.72719001</v>
       </c>
       <c r="Q44">
-        <v>6.080378633</v>
+        <v>60.80378632999999</v>
       </c>
       <c r="R44">
-        <v>5.760031649</v>
+        <v>57.60031649</v>
       </c>
       <c r="S44">
-        <v>4.554612561</v>
+        <v>45.54612561</v>
       </c>
       <c r="T44">
-        <v>4.223843389</v>
+        <v>42.23843389</v>
       </c>
       <c r="U44">
-        <v>4.392359127</v>
+        <v>43.92359127</v>
       </c>
       <c r="V44">
-        <v>7.78419557</v>
+        <v>77.8419557</v>
       </c>
       <c r="W44">
-        <v>16.88776625</v>
+        <v>168.8776625</v>
       </c>
       <c r="X44">
-        <v>16.9839617</v>
+        <v>169.839617</v>
       </c>
       <c r="Y44">
-        <v>15.02925251</v>
+        <v>150.2925251</v>
       </c>
       <c r="Z44">
-        <v>10.78093686</v>
+        <v>107.8093686</v>
       </c>
       <c r="AA44">
-        <v>12.18014868</v>
+        <v>121.8014868</v>
       </c>
       <c r="AB44">
-        <v>17.18951267</v>
+        <v>171.8951267</v>
       </c>
       <c r="AC44">
-        <v>22.34180237</v>
+        <v>223.4180237</v>
       </c>
       <c r="AD44">
-        <v>16.25330819</v>
+        <v>162.5330819</v>
       </c>
       <c r="AE44">
-        <v>31.27438742</v>
+        <v>312.7438742</v>
       </c>
       <c r="AF44">
-        <v>23.06622599</v>
+        <v>230.6622599</v>
       </c>
       <c r="AG44">
-        <v>37.14501102</v>
+        <v>371.4501102</v>
       </c>
       <c r="AH44">
-        <v>23.12211385</v>
+        <v>231.2211385</v>
       </c>
       <c r="AI44">
-        <v>21.95466113</v>
+        <v>219.5466113</v>
       </c>
       <c r="AJ44">
-        <v>11.03529165</v>
+        <v>110.3529165</v>
       </c>
       <c r="AK44">
-        <v>12.74310663</v>
+        <v>127.4310663</v>
       </c>
       <c r="AL44">
-        <v>10.5073548</v>
+        <v>105.073548</v>
       </c>
     </row>
     <row r="45" spans="1:38">
       <c r="A45">
-        <v>22.13941423</v>
+        <v>221.3941423</v>
       </c>
       <c r="B45">
-        <v>21.67326491</v>
+        <v>216.7326491</v>
       </c>
       <c r="C45">
-        <v>18.48296449</v>
+        <v>184.8296449</v>
       </c>
       <c r="D45">
-        <v>26.01359977</v>
+        <v>260.1359977</v>
       </c>
       <c r="E45">
-        <v>17.43691428</v>
+        <v>174.3691428</v>
       </c>
       <c r="F45">
-        <v>15.94178213</v>
+        <v>159.4178213</v>
       </c>
       <c r="G45">
-        <v>17.87547156</v>
+        <v>178.7547156</v>
       </c>
       <c r="H45">
-        <v>14.10414138</v>
+        <v>141.0414138</v>
       </c>
       <c r="I45">
-        <v>13.18871407</v>
+        <v>131.8871407</v>
       </c>
       <c r="J45">
-        <v>8.462921704999999</v>
+        <v>84.62921704999999</v>
       </c>
       <c r="K45">
-        <v>8.126623058</v>
+        <v>81.26623058</v>
       </c>
       <c r="L45">
-        <v>10.27776135</v>
+        <v>102.7776135</v>
       </c>
       <c r="M45">
-        <v>10.13110576</v>
+        <v>101.3110576</v>
       </c>
       <c r="N45">
-        <v>11.6680282</v>
+        <v>116.680282</v>
       </c>
       <c r="O45">
-        <v>9.595866849</v>
+        <v>95.95866849000001</v>
       </c>
       <c r="P45">
-        <v>5.111927166</v>
+        <v>51.11927166</v>
       </c>
       <c r="Q45">
-        <v>6.498845003</v>
+        <v>64.98845003</v>
       </c>
       <c r="R45">
-        <v>6.368697466</v>
+        <v>63.68697466</v>
       </c>
       <c r="S45">
-        <v>4.331818667</v>
+        <v>43.31818667</v>
       </c>
       <c r="T45">
-        <v>4.759675384</v>
+        <v>47.59675384000001</v>
       </c>
       <c r="U45">
-        <v>3.305062782</v>
+        <v>33.05062782</v>
       </c>
       <c r="V45">
-        <v>11.99558265</v>
+        <v>119.9558265</v>
       </c>
       <c r="W45">
-        <v>18.49905166</v>
+        <v>184.9905166</v>
       </c>
       <c r="X45">
-        <v>21.86089598</v>
+        <v>218.6089598</v>
       </c>
       <c r="Y45">
-        <v>9.285021118</v>
+        <v>92.85021118</v>
       </c>
       <c r="Z45">
-        <v>9.228804061</v>
+        <v>92.28804061</v>
       </c>
       <c r="AA45">
-        <v>10.58666795</v>
+        <v>105.8666795</v>
       </c>
       <c r="AB45">
-        <v>10.7271989</v>
+        <v>107.271989</v>
       </c>
       <c r="AC45">
-        <v>12.59601469</v>
+        <v>125.9601469</v>
       </c>
       <c r="AD45">
-        <v>20.28901221</v>
+        <v>202.8901221</v>
       </c>
       <c r="AE45">
-        <v>17.02715579</v>
+        <v>170.2715579</v>
       </c>
       <c r="AF45">
-        <v>19.76394799</v>
+        <v>197.6394799</v>
       </c>
       <c r="AG45">
-        <v>18.06722402</v>
+        <v>180.6722402</v>
       </c>
       <c r="AH45">
-        <v>14.53892404</v>
+        <v>145.3892404</v>
       </c>
       <c r="AI45">
-        <v>11.15685904</v>
+        <v>111.5685904</v>
       </c>
       <c r="AJ45">
-        <v>9.432351877</v>
+        <v>94.32351877000001</v>
       </c>
       <c r="AK45">
-        <v>7.07749102</v>
+        <v>70.77491019999999</v>
       </c>
       <c r="AL45">
-        <v>9.345654438</v>
+        <v>93.45654438</v>
       </c>
     </row>
     <row r="46" spans="1:38">
       <c r="A46">
-        <v>49.20717613</v>
+        <v>492.0717613</v>
       </c>
       <c r="B46">
-        <v>38.92121479</v>
+        <v>389.2121479</v>
       </c>
       <c r="C46">
-        <v>15.2705398</v>
+        <v>152.705398</v>
       </c>
       <c r="D46">
-        <v>28.432688</v>
+        <v>284.32688</v>
       </c>
       <c r="E46">
-        <v>13.39781279</v>
+        <v>133.9781279</v>
       </c>
       <c r="F46">
-        <v>9.54562056</v>
+        <v>95.4562056</v>
       </c>
       <c r="G46">
-        <v>11.64135063</v>
+        <v>116.4135063</v>
       </c>
       <c r="H46">
-        <v>10.17266753</v>
+        <v>101.7266753</v>
       </c>
       <c r="I46">
-        <v>9.965304092</v>
+        <v>99.65304092</v>
       </c>
       <c r="J46">
-        <v>8.546060949999999</v>
+        <v>85.46060949999999</v>
       </c>
       <c r="K46">
-        <v>10.54199147</v>
+        <v>105.4199147</v>
       </c>
       <c r="L46">
-        <v>8.064643193</v>
+        <v>80.64643193000001</v>
       </c>
       <c r="M46">
-        <v>5.498613498</v>
+        <v>54.98613498</v>
       </c>
       <c r="N46">
-        <v>2.832383177</v>
+        <v>28.32383177</v>
       </c>
       <c r="O46">
-        <v>4.78086967</v>
+        <v>47.80869670000001</v>
       </c>
       <c r="P46">
-        <v>6.268770038</v>
+        <v>62.68770038</v>
       </c>
       <c r="Q46">
-        <v>5.253399912</v>
+        <v>52.53399912</v>
       </c>
       <c r="R46">
-        <v>4.477901266</v>
+        <v>44.77901266</v>
       </c>
       <c r="S46">
-        <v>2.633033146</v>
+        <v>26.33033146</v>
       </c>
       <c r="T46">
-        <v>5.214871612</v>
+        <v>52.14871612</v>
       </c>
       <c r="U46">
-        <v>8.619115499999999</v>
+        <v>86.19115499999999</v>
       </c>
       <c r="V46">
-        <v>7.539579937</v>
+        <v>75.39579937000001</v>
       </c>
       <c r="W46">
-        <v>9.320156955</v>
+        <v>93.20156955</v>
       </c>
       <c r="X46">
-        <v>8.327293299000001</v>
+        <v>83.27293299000002</v>
       </c>
       <c r="Y46">
-        <v>5.952624527</v>
+        <v>59.52624527</v>
       </c>
       <c r="Z46">
-        <v>4.073678784</v>
+        <v>40.73678784000001</v>
       </c>
       <c r="AA46">
-        <v>6.085607574</v>
+        <v>60.85607574</v>
       </c>
       <c r="AB46">
-        <v>9.096834257999999</v>
+        <v>90.96834258</v>
       </c>
       <c r="AC46">
-        <v>8.772567028999999</v>
+        <v>87.72567029</v>
       </c>
       <c r="AD46">
-        <v>11.68795085</v>
+        <v>116.8795085</v>
       </c>
       <c r="AE46">
-        <v>9.555524502999999</v>
+        <v>95.55524502999999</v>
       </c>
       <c r="AF46">
-        <v>16.03266926</v>
+        <v>160.3266926</v>
       </c>
       <c r="AG46">
-        <v>27.06115945</v>
+        <v>270.6115945</v>
       </c>
       <c r="AH46">
-        <v>22.21148437</v>
+        <v>222.1148437</v>
       </c>
       <c r="AI46">
-        <v>10.29894507</v>
+        <v>102.9894507</v>
       </c>
       <c r="AJ46">
-        <v>12.74737629</v>
+        <v>127.4737629</v>
       </c>
       <c r="AK46">
-        <v>10.46972197</v>
+        <v>104.6972197</v>
       </c>
       <c r="AL46">
-        <v>10.25821111</v>
+        <v>102.5821111</v>
       </c>
     </row>
     <row r="47" spans="1:38">
       <c r="A47">
-        <v>17.1953581</v>
+        <v>171.953581</v>
       </c>
       <c r="B47">
-        <v>27.88055435</v>
+        <v>278.8055435</v>
       </c>
       <c r="C47">
-        <v>22.67378631</v>
+        <v>226.7378631</v>
       </c>
       <c r="D47">
-        <v>14.05106887</v>
+        <v>140.5106887</v>
       </c>
       <c r="E47">
-        <v>11.79637722</v>
+        <v>117.9637722</v>
       </c>
       <c r="F47">
-        <v>9.962145591000001</v>
+        <v>99.62145591000001</v>
       </c>
       <c r="G47">
-        <v>11.48960219</v>
+        <v>114.8960219</v>
       </c>
       <c r="H47">
-        <v>12.39966516</v>
+        <v>123.9966516</v>
       </c>
       <c r="I47">
-        <v>11.43732888</v>
+        <v>114.3732888</v>
       </c>
       <c r="J47">
-        <v>16.62719269</v>
+        <v>166.2719269</v>
       </c>
       <c r="K47">
-        <v>7.180840728</v>
+        <v>71.80840728</v>
       </c>
       <c r="L47">
-        <v>5.99488631</v>
+        <v>59.9488631</v>
       </c>
       <c r="M47">
-        <v>3.185685423</v>
+        <v>31.85685423</v>
       </c>
       <c r="N47">
-        <v>4.371745989</v>
+        <v>43.71745989</v>
       </c>
       <c r="O47">
-        <v>4.463032507</v>
+        <v>44.63032507</v>
       </c>
       <c r="P47">
-        <v>8.407737974</v>
+        <v>84.07737974</v>
       </c>
       <c r="Q47">
-        <v>6.179221355</v>
+        <v>61.79221355</v>
       </c>
       <c r="R47">
-        <v>4.830724562</v>
+        <v>48.30724562</v>
       </c>
       <c r="S47">
-        <v>3.208461277</v>
+        <v>32.08461277</v>
       </c>
       <c r="T47">
-        <v>4.236970331</v>
+        <v>42.36970331000001</v>
       </c>
       <c r="U47">
-        <v>3.082402943</v>
+        <v>30.82402943</v>
       </c>
       <c r="V47">
-        <v>3.485932101</v>
+        <v>34.85932101</v>
       </c>
       <c r="W47">
-        <v>2.997625482</v>
+        <v>29.97625482</v>
       </c>
       <c r="X47">
-        <v>4.02699109</v>
+        <v>40.2699109</v>
       </c>
       <c r="Y47">
-        <v>4.432024464</v>
+        <v>44.32024464000001</v>
       </c>
       <c r="Z47">
-        <v>5.16795712</v>
+        <v>51.6795712</v>
       </c>
       <c r="AA47">
-        <v>12.51931272</v>
+        <v>125.1931272</v>
       </c>
       <c r="AB47">
-        <v>9.915542436999999</v>
+        <v>99.15542436999999</v>
       </c>
       <c r="AC47">
-        <v>5.032145678</v>
+        <v>50.32145678</v>
       </c>
       <c r="AD47">
-        <v>9.280945888</v>
+        <v>92.80945887999999</v>
       </c>
       <c r="AE47">
-        <v>12.00877304</v>
+        <v>120.0877304</v>
       </c>
       <c r="AF47">
-        <v>9.875998989999999</v>
+        <v>98.75998989999999</v>
       </c>
       <c r="AG47">
-        <v>11.4939231</v>
+        <v>114.939231</v>
       </c>
       <c r="AH47">
-        <v>10.05254131</v>
+        <v>100.5254131</v>
       </c>
       <c r="AI47">
-        <v>13.2108501</v>
+        <v>132.108501</v>
       </c>
       <c r="AJ47">
-        <v>13.21005747</v>
+        <v>132.1005747</v>
       </c>
       <c r="AK47">
-        <v>9.931886792</v>
+        <v>99.31886792</v>
       </c>
       <c r="AL47">
-        <v>13.59317012</v>
+        <v>135.9317012</v>
       </c>
     </row>
     <row r="48" spans="1:38">
       <c r="A48">
-        <v>14.14593734</v>
+        <v>141.4593734</v>
       </c>
       <c r="B48">
-        <v>13.81547678</v>
+        <v>138.1547678</v>
       </c>
       <c r="C48">
-        <v>13.09600824</v>
+        <v>130.9600824</v>
       </c>
       <c r="D48">
-        <v>10.8848125</v>
+        <v>108.848125</v>
       </c>
       <c r="E48">
-        <v>11.05571478</v>
+        <v>110.5571478</v>
       </c>
       <c r="F48">
-        <v>7.923669896</v>
+        <v>79.23669896</v>
       </c>
       <c r="G48">
-        <v>12.61875841</v>
+        <v>126.1875841</v>
       </c>
       <c r="H48">
-        <v>9.450517190999999</v>
+        <v>94.50517191</v>
       </c>
       <c r="I48">
-        <v>7.963029112</v>
+        <v>79.63029112</v>
       </c>
       <c r="J48">
-        <v>9.002861482</v>
+        <v>90.02861482</v>
       </c>
       <c r="K48">
-        <v>5.25675265</v>
+        <v>52.5675265</v>
       </c>
       <c r="L48">
-        <v>4.197640028</v>
+        <v>41.97640028000001</v>
       </c>
       <c r="M48">
-        <v>7.126865163</v>
+        <v>71.26865162999999</v>
       </c>
       <c r="N48">
-        <v>3.682568495</v>
+        <v>36.82568495</v>
       </c>
       <c r="O48">
-        <v>2.919929491</v>
+        <v>29.19929491</v>
       </c>
       <c r="P48">
-        <v>4.788410261</v>
+        <v>47.88410261</v>
       </c>
       <c r="Q48">
-        <v>2.549077348</v>
+        <v>25.49077348</v>
       </c>
       <c r="R48">
-        <v>4.4417057</v>
+        <v>44.417057</v>
       </c>
       <c r="S48">
-        <v>3.4708047</v>
+        <v>34.708047</v>
       </c>
       <c r="T48">
-        <v>3.302304207</v>
+        <v>33.02304207</v>
       </c>
       <c r="U48">
-        <v>2.352925551</v>
+        <v>23.52925551</v>
       </c>
       <c r="V48">
-        <v>3.589961468</v>
+        <v>35.89961468</v>
       </c>
       <c r="W48">
-        <v>4.409434585</v>
+        <v>44.09434585</v>
       </c>
       <c r="X48">
-        <v>4.156587683</v>
+        <v>41.56587682999999</v>
       </c>
       <c r="Y48">
-        <v>4.682257986</v>
+        <v>46.82257986</v>
       </c>
       <c r="Z48">
-        <v>9.621541291</v>
+        <v>96.21541291</v>
       </c>
       <c r="AA48">
-        <v>4.177347473</v>
+        <v>41.77347473</v>
       </c>
       <c r="AB48">
-        <v>10.24957734</v>
+        <v>102.4957734</v>
       </c>
       <c r="AC48">
-        <v>8.934520387999999</v>
+        <v>89.34520387999999</v>
       </c>
       <c r="AD48">
-        <v>9.455215266</v>
+        <v>94.55215265999999</v>
       </c>
       <c r="AE48">
-        <v>6.797238789</v>
+        <v>67.97238788999999</v>
       </c>
       <c r="AF48">
-        <v>12.68828934</v>
+        <v>126.8828934</v>
       </c>
       <c r="AG48">
-        <v>15.70839793</v>
+        <v>157.0839793</v>
       </c>
       <c r="AH48">
-        <v>10.24818349</v>
+        <v>102.4818349</v>
       </c>
       <c r="AI48">
-        <v>9.877243443999999</v>
+        <v>98.77243444</v>
       </c>
       <c r="AJ48">
-        <v>16.05328448</v>
+        <v>160.5328448</v>
       </c>
       <c r="AK48">
-        <v>13.91341481</v>
+        <v>139.1341481</v>
       </c>
       <c r="AL48">
-        <v>24.57401218</v>
+        <v>245.7401218</v>
       </c>
     </row>
     <row r="49" spans="1:38">
       <c r="A49">
-        <v>12.77931016</v>
+        <v>127.7931016</v>
       </c>
       <c r="B49">
-        <v>15.80639285</v>
+        <v>158.0639285</v>
       </c>
       <c r="C49">
-        <v>16.04081592</v>
+        <v>160.4081592</v>
       </c>
       <c r="D49">
-        <v>11.09912714</v>
+        <v>110.9912714</v>
       </c>
       <c r="E49">
-        <v>8.284426849999999</v>
+        <v>82.8442685</v>
       </c>
       <c r="F49">
-        <v>9.428655119</v>
+        <v>94.28655119</v>
       </c>
       <c r="G49">
-        <v>6.350747162</v>
+        <v>63.50747162</v>
       </c>
       <c r="H49">
-        <v>9.884545425000001</v>
+        <v>98.84545425</v>
       </c>
       <c r="I49">
-        <v>6.424137427</v>
+        <v>64.24137426999999</v>
       </c>
       <c r="J49">
-        <v>4.093328565</v>
+        <v>40.93328565</v>
       </c>
       <c r="K49">
-        <v>3.070159361</v>
+        <v>30.70159361</v>
       </c>
       <c r="L49">
-        <v>4.187590334</v>
+        <v>41.87590334</v>
       </c>
       <c r="M49">
-        <v>3.054364249</v>
+        <v>30.54364249</v>
       </c>
       <c r="N49">
-        <v>3.661198194</v>
+        <v>36.61198194</v>
       </c>
       <c r="O49">
-        <v>2.271890875</v>
+        <v>22.71890875</v>
       </c>
       <c r="P49">
-        <v>4.314223994</v>
+        <v>43.14223994</v>
       </c>
       <c r="Q49">
-        <v>4.909816013</v>
+        <v>49.09816013</v>
       </c>
       <c r="R49">
-        <v>2.635219471</v>
+        <v>26.35219471</v>
       </c>
       <c r="S49">
-        <v>4.029359657</v>
+        <v>40.29359657</v>
       </c>
       <c r="T49">
-        <v>3.279072045</v>
+        <v>32.79072045</v>
       </c>
       <c r="U49">
-        <v>1.939537358</v>
+        <v>19.39537358</v>
       </c>
       <c r="V49">
-        <v>1.765615702</v>
+        <v>17.65615702</v>
       </c>
       <c r="W49">
-        <v>3.057576074</v>
+        <v>30.57576074</v>
       </c>
       <c r="X49">
-        <v>2.725596952</v>
+        <v>27.25596952</v>
       </c>
       <c r="Y49">
-        <v>8.676111714999999</v>
+        <v>86.76111714999999</v>
       </c>
       <c r="Z49">
-        <v>7.774727967</v>
+        <v>77.74727967</v>
       </c>
       <c r="AA49">
-        <v>5.473317208</v>
+        <v>54.73317208</v>
       </c>
       <c r="AB49">
-        <v>10.21665743</v>
+        <v>102.1665743</v>
       </c>
       <c r="AC49">
-        <v>4.430314032</v>
+        <v>44.30314032</v>
       </c>
       <c r="AD49">
-        <v>7.867280651</v>
+        <v>78.67280651</v>
       </c>
       <c r="AE49">
-        <v>5.211076567</v>
+        <v>52.11076567</v>
       </c>
       <c r="AF49">
-        <v>7.378537655</v>
+        <v>73.78537655</v>
       </c>
       <c r="AG49">
-        <v>8.950796021</v>
+        <v>89.50796021000001</v>
       </c>
       <c r="AH49">
-        <v>8.739119748</v>
+        <v>87.39119748</v>
       </c>
       <c r="AI49">
-        <v>9.208716389999999</v>
+        <v>92.08716389999999</v>
       </c>
       <c r="AJ49">
-        <v>18.02373444</v>
+        <v>180.2373444</v>
       </c>
       <c r="AK49">
-        <v>18.90335594</v>
+        <v>189.0335594</v>
       </c>
       <c r="AL49">
-        <v>11.26971984</v>
+        <v>112.6971984</v>
       </c>
     </row>
     <row r="50" spans="1:38">
       <c r="A50">
-        <v>12.17229502</v>
+        <v>121.7229502</v>
       </c>
       <c r="B50">
-        <v>12.95921955</v>
+        <v>129.5921955</v>
       </c>
       <c r="C50">
-        <v>10.90681114</v>
+        <v>109.0681114</v>
       </c>
       <c r="D50">
-        <v>9.80013802</v>
+        <v>98.0013802</v>
       </c>
       <c r="E50">
-        <v>13.32123621</v>
+        <v>133.2123621</v>
       </c>
       <c r="F50">
-        <v>9.237335417000001</v>
+        <v>92.37335417</v>
       </c>
       <c r="G50">
-        <v>5.595098627</v>
+        <v>55.95098626999999</v>
       </c>
       <c r="H50">
-        <v>5.125384103</v>
+        <v>51.25384103</v>
       </c>
       <c r="I50">
-        <v>3.865575105</v>
+        <v>38.65575105</v>
       </c>
       <c r="J50">
-        <v>3.862935819</v>
+        <v>38.62935819</v>
       </c>
       <c r="K50">
-        <v>5.00128795</v>
+        <v>50.0128795</v>
       </c>
       <c r="L50">
-        <v>6.850450861</v>
+        <v>68.50450861</v>
       </c>
       <c r="M50">
-        <v>5.050905172</v>
+        <v>50.50905172</v>
       </c>
       <c r="N50">
-        <v>4.906056534</v>
+        <v>49.06056534</v>
       </c>
       <c r="O50">
-        <v>2.066072515</v>
+        <v>20.66072515</v>
       </c>
       <c r="P50">
-        <v>3.812192448</v>
+        <v>38.12192448</v>
       </c>
       <c r="Q50">
-        <v>2.093713889</v>
+        <v>20.93713889</v>
       </c>
       <c r="R50">
-        <v>2.590685388</v>
+        <v>25.90685388</v>
       </c>
       <c r="S50">
-        <v>2.578398499</v>
+        <v>25.78398499</v>
       </c>
       <c r="T50">
-        <v>2.245862129</v>
+        <v>22.45862129</v>
       </c>
       <c r="U50">
-        <v>3.0975221</v>
+        <v>30.975221</v>
       </c>
       <c r="V50">
-        <v>2.624235116</v>
+        <v>26.24235116</v>
       </c>
       <c r="W50">
-        <v>5.491736288</v>
+        <v>54.91736288</v>
       </c>
       <c r="X50">
-        <v>3.038708134</v>
+        <v>30.38708134</v>
       </c>
       <c r="Y50">
-        <v>3.339461175</v>
+        <v>33.39461175</v>
       </c>
       <c r="Z50">
-        <v>6.863705589</v>
+        <v>68.63705589</v>
       </c>
       <c r="AA50">
-        <v>4.419720546</v>
+        <v>44.19720546</v>
       </c>
       <c r="AB50">
-        <v>5.186787202</v>
+        <v>51.86787201999999</v>
       </c>
       <c r="AC50">
-        <v>5.806970865</v>
+        <v>58.06970865</v>
       </c>
       <c r="AD50">
-        <v>4.325234979</v>
+        <v>43.25234979</v>
       </c>
       <c r="AE50">
-        <v>6.451799404</v>
+        <v>64.51799404</v>
       </c>
       <c r="AF50">
-        <v>8.423096105999999</v>
+        <v>84.23096106</v>
       </c>
       <c r="AG50">
-        <v>5.769217576</v>
+        <v>57.69217576</v>
       </c>
       <c r="AH50">
-        <v>3.592378325</v>
+        <v>35.92378325</v>
       </c>
       <c r="AI50">
-        <v>15.1948639</v>
+        <v>151.948639</v>
       </c>
       <c r="AJ50">
-        <v>18.27619639</v>
+        <v>182.7619639</v>
       </c>
       <c r="AK50">
-        <v>17.3581037</v>
+        <v>173.581037</v>
       </c>
       <c r="AL50">
-        <v>8.241278332</v>
+        <v>82.41278332</v>
       </c>
     </row>
     <row r="51" spans="1:38">
       <c r="A51">
-        <v>11.89037761</v>
+        <v>118.9037761</v>
       </c>
       <c r="B51">
-        <v>15.04006243</v>
+        <v>150.4006243</v>
       </c>
       <c r="C51">
-        <v>8.038813271</v>
+        <v>80.38813271000001</v>
       </c>
       <c r="D51">
-        <v>5.956945259</v>
+        <v>59.56945259</v>
       </c>
       <c r="E51">
-        <v>6.212272489</v>
+        <v>62.12272489</v>
       </c>
       <c r="F51">
-        <v>4.407552158</v>
+        <v>44.07552158</v>
       </c>
       <c r="G51">
-        <v>2.916255613</v>
+        <v>29.16255613</v>
       </c>
       <c r="H51">
-        <v>3.316073722</v>
+        <v>33.16073722</v>
       </c>
       <c r="I51">
-        <v>2.980378987</v>
+        <v>29.80378987</v>
       </c>
       <c r="J51">
-        <v>2.943450313</v>
+        <v>29.43450313</v>
       </c>
       <c r="K51">
-        <v>5.588225356</v>
+        <v>55.88225356</v>
       </c>
       <c r="L51">
-        <v>5.057829654</v>
+        <v>50.57829654</v>
       </c>
       <c r="M51">
-        <v>4.962141836</v>
+        <v>49.62141836</v>
       </c>
       <c r="N51">
-        <v>3.364698867</v>
+        <v>33.64698867</v>
       </c>
       <c r="O51">
-        <v>1.952849268</v>
+        <v>19.52849268</v>
       </c>
       <c r="P51">
-        <v>1.237817155</v>
+        <v>12.37817155</v>
       </c>
       <c r="Q51">
-        <v>2.262312385</v>
+        <v>22.62312385</v>
       </c>
       <c r="R51">
-        <v>2.930735658</v>
+        <v>29.30735658</v>
       </c>
       <c r="S51">
-        <v>3.956158463</v>
+        <v>39.56158463</v>
       </c>
       <c r="T51">
-        <v>2.527158298</v>
+        <v>25.27158298</v>
       </c>
       <c r="U51">
-        <v>1.479419039</v>
+        <v>14.79419039</v>
       </c>
       <c r="V51">
-        <v>3.979365837</v>
+        <v>39.79365837</v>
       </c>
       <c r="W51">
-        <v>4.007110745</v>
+        <v>40.07110745</v>
       </c>
       <c r="X51">
-        <v>2.281703856</v>
+        <v>22.81703856</v>
       </c>
       <c r="Y51">
-        <v>2.254457729</v>
+        <v>22.54457729</v>
       </c>
       <c r="Z51">
-        <v>4.717978714</v>
+        <v>47.17978714</v>
       </c>
       <c r="AA51">
-        <v>4.752165787</v>
+        <v>47.52165787</v>
       </c>
       <c r="AB51">
-        <v>6.884465311</v>
+        <v>68.84465311</v>
       </c>
       <c r="AC51">
-        <v>5.441260095</v>
+        <v>54.41260095</v>
       </c>
       <c r="AD51">
-        <v>4.763046427</v>
+        <v>47.63046427</v>
       </c>
       <c r="AE51">
-        <v>7.938381945</v>
+        <v>79.38381945</v>
       </c>
       <c r="AF51">
-        <v>5.580502741</v>
+        <v>55.80502741</v>
       </c>
       <c r="AG51">
-        <v>4.085595395</v>
+        <v>40.85595395</v>
       </c>
       <c r="AH51">
-        <v>6.369161124</v>
+        <v>63.69161124</v>
       </c>
       <c r="AI51">
-        <v>8.472151319</v>
+        <v>84.72151319</v>
       </c>
       <c r="AJ51">
-        <v>10.63134241</v>
+        <v>106.3134241</v>
       </c>
       <c r="AK51">
-        <v>8.946268064</v>
+        <v>89.46268064</v>
       </c>
       <c r="AL51">
-        <v>14.06266579</v>
+        <v>140.6266579</v>
       </c>
     </row>
     <row r="52" spans="1:38">
       <c r="A52">
-        <v>4.592104746</v>
+        <v>45.92104746</v>
       </c>
       <c r="B52">
-        <v>7.10116226</v>
+        <v>71.0116226</v>
       </c>
       <c r="C52">
-        <v>5.597263229</v>
+        <v>55.97263229</v>
       </c>
       <c r="D52">
-        <v>4.386455375</v>
+        <v>43.86455375</v>
       </c>
       <c r="E52">
-        <v>3.613693824</v>
+        <v>36.13693824</v>
       </c>
       <c r="F52">
-        <v>1.738546587</v>
+        <v>17.38546587</v>
       </c>
       <c r="G52">
-        <v>2.687365832</v>
+        <v>26.87365832</v>
       </c>
       <c r="H52">
-        <v>2.875925309</v>
+        <v>28.75925309</v>
       </c>
       <c r="I52">
-        <v>3.407614442</v>
+        <v>34.07614442</v>
       </c>
       <c r="J52">
-        <v>3.013332078</v>
+        <v>30.13332078</v>
       </c>
       <c r="K52">
-        <v>3.965208621</v>
+        <v>39.65208621</v>
       </c>
       <c r="L52">
-        <v>3.651231359</v>
+        <v>36.51231359</v>
       </c>
       <c r="M52">
-        <v>1.861587222</v>
+        <v>18.61587222</v>
       </c>
       <c r="N52">
-        <v>1.765315573</v>
+        <v>17.65315573</v>
       </c>
       <c r="O52">
-        <v>2.466022353</v>
+        <v>24.66022353</v>
       </c>
       <c r="P52">
-        <v>2.283091554</v>
+        <v>22.83091554</v>
       </c>
       <c r="Q52">
-        <v>2.511719226</v>
+        <v>25.11719226</v>
       </c>
       <c r="R52">
-        <v>4.013731949</v>
+        <v>40.13731949</v>
       </c>
       <c r="S52">
-        <v>2.557574809</v>
+        <v>25.57574809</v>
       </c>
       <c r="T52">
-        <v>2.750812903</v>
+        <v>27.50812903</v>
       </c>
       <c r="U52">
-        <v>2.875341556</v>
+        <v>28.75341556</v>
       </c>
       <c r="V52">
-        <v>2.206349785</v>
+        <v>22.06349785</v>
       </c>
       <c r="W52">
-        <v>2.901896443</v>
+        <v>29.01896443</v>
       </c>
       <c r="X52">
-        <v>2.834491254</v>
+        <v>28.34491254</v>
       </c>
       <c r="Y52">
-        <v>3.496426578</v>
+        <v>34.96426578</v>
       </c>
       <c r="Z52">
-        <v>4.547967679</v>
+        <v>45.47967679</v>
       </c>
       <c r="AA52">
-        <v>4.170915138</v>
+        <v>41.70915137999999</v>
       </c>
       <c r="AB52">
-        <v>5.298313006</v>
+        <v>52.98313006</v>
       </c>
       <c r="AC52">
-        <v>9.201361564000001</v>
+        <v>92.01361564000001</v>
       </c>
       <c r="AD52">
-        <v>6.676623991</v>
+        <v>66.76623991</v>
       </c>
       <c r="AE52">
-        <v>5.962886639</v>
+        <v>59.62886639</v>
       </c>
       <c r="AF52">
-        <v>3.57745434</v>
+        <v>35.7745434</v>
       </c>
       <c r="AG52">
-        <v>6.210430823</v>
+        <v>62.10430823</v>
       </c>
       <c r="AH52">
-        <v>4.818291811</v>
+        <v>48.18291811</v>
       </c>
       <c r="AI52">
-        <v>10.28118442</v>
+        <v>102.8118442</v>
       </c>
       <c r="AJ52">
-        <v>7.490559312</v>
+        <v>74.90559312000001</v>
       </c>
       <c r="AK52">
-        <v>15.0119788</v>
+        <v>150.119788</v>
       </c>
       <c r="AL52">
-        <v>15.76594871</v>
+        <v>157.6594871</v>
       </c>
     </row>
     <row r="53" spans="1:38">
       <c r="A53">
-        <v>6.640295525</v>
+        <v>66.40295525000001</v>
       </c>
       <c r="B53">
-        <v>7.360975533</v>
+        <v>73.60975533</v>
       </c>
       <c r="C53">
-        <v>12.55564631</v>
+        <v>125.5564631</v>
       </c>
       <c r="D53">
-        <v>4.880132979</v>
+        <v>48.80132979</v>
       </c>
       <c r="E53">
-        <v>3.656756196</v>
+        <v>36.56756196</v>
       </c>
       <c r="F53">
-        <v>3.881048966</v>
+        <v>38.81048966</v>
       </c>
       <c r="G53">
-        <v>2.611431319</v>
+        <v>26.11431319</v>
       </c>
       <c r="H53">
-        <v>2.023946806</v>
+        <v>20.23946806</v>
       </c>
       <c r="I53">
-        <v>4.49450019</v>
+        <v>44.9450019</v>
       </c>
       <c r="J53">
-        <v>3.967687651</v>
+        <v>39.67687651</v>
       </c>
       <c r="K53">
-        <v>2.124740058</v>
+        <v>21.24740058</v>
       </c>
       <c r="L53">
-        <v>1.660169108</v>
+        <v>16.60169108</v>
       </c>
       <c r="M53">
-        <v>1.135904749</v>
+        <v>11.35904749</v>
       </c>
       <c r="N53">
-        <v>1.943983988</v>
+        <v>19.43983988</v>
       </c>
       <c r="O53">
-        <v>1.632870435</v>
+        <v>16.32870435</v>
       </c>
       <c r="P53">
-        <v>1.234948748</v>
+        <v>12.34948748</v>
       </c>
       <c r="Q53">
-        <v>2.752026279</v>
+        <v>27.52026279</v>
       </c>
       <c r="R53">
-        <v>1.786448319</v>
+        <v>17.86448319</v>
       </c>
       <c r="S53">
-        <v>1.651872461</v>
+        <v>16.51872461</v>
       </c>
       <c r="T53">
-        <v>3.175367803</v>
+        <v>31.75367803</v>
       </c>
       <c r="U53">
-        <v>2.796460385</v>
+        <v>27.96460385</v>
       </c>
       <c r="V53">
-        <v>2.535919946</v>
+        <v>25.35919946</v>
       </c>
       <c r="W53">
-        <v>4.348919699</v>
+        <v>43.48919699</v>
       </c>
       <c r="X53">
-        <v>2.366472546</v>
+        <v>23.66472546</v>
       </c>
       <c r="Y53">
-        <v>5.314933337</v>
+        <v>53.14933337</v>
       </c>
       <c r="Z53">
-        <v>6.890629666</v>
+        <v>68.90629666</v>
       </c>
       <c r="AA53">
-        <v>7.876671918</v>
+        <v>78.76671918000001</v>
       </c>
       <c r="AB53">
-        <v>10.89135624</v>
+        <v>108.9135624</v>
       </c>
       <c r="AC53">
-        <v>6.352387136</v>
+        <v>63.52387136</v>
       </c>
       <c r="AD53">
-        <v>4.620585687</v>
+        <v>46.20585687000001</v>
       </c>
       <c r="AE53">
-        <v>4.138318183</v>
+        <v>41.38318183</v>
       </c>
       <c r="AF53">
-        <v>5.63799423</v>
+        <v>56.3799423</v>
       </c>
       <c r="AG53">
-        <v>6.973501523</v>
+        <v>69.73501523</v>
       </c>
       <c r="AH53">
-        <v>6.178094986</v>
+        <v>61.78094985999999</v>
       </c>
       <c r="AI53">
-        <v>5.118638416</v>
+        <v>51.18638416</v>
       </c>
       <c r="AJ53">
-        <v>7.513755965</v>
+        <v>75.13755965</v>
       </c>
       <c r="AK53">
-        <v>9.726882744999999</v>
+        <v>97.26882744999999</v>
       </c>
       <c r="AL53">
-        <v>8.068127872</v>
+        <v>80.68127871999999</v>
       </c>
     </row>
     <row r="54" spans="1:38">
       <c r="A54">
-        <v>7.02148314</v>
+        <v>70.21483139999999</v>
       </c>
       <c r="B54">
-        <v>13.21033489</v>
+        <v>132.1033489</v>
       </c>
       <c r="C54">
-        <v>11.78554133</v>
+        <v>117.8554133</v>
       </c>
       <c r="D54">
-        <v>4.656953455</v>
+        <v>46.56953455</v>
       </c>
       <c r="E54">
-        <v>2.750521333</v>
+        <v>27.50521333</v>
       </c>
       <c r="F54">
-        <v>2.728866903</v>
+        <v>27.28866903</v>
       </c>
       <c r="G54">
-        <v>3.929803675</v>
+        <v>39.29803675</v>
       </c>
       <c r="H54">
-        <v>3.098005351</v>
+        <v>30.98005351</v>
       </c>
       <c r="I54">
-        <v>3.588389409</v>
+        <v>35.88389409</v>
       </c>
       <c r="J54">
-        <v>1.395021</v>
+        <v>13.95021</v>
       </c>
       <c r="K54">
-        <v>0.990455312</v>
+        <v>9.904553120000001</v>
       </c>
       <c r="L54">
-        <v>0.618424273</v>
+        <v>6.18424273</v>
       </c>
       <c r="M54">
-        <v>1.198774122</v>
+        <v>11.98774122</v>
       </c>
       <c r="N54">
-        <v>2.07424964</v>
+        <v>20.7424964</v>
       </c>
       <c r="O54">
-        <v>2.208910636</v>
+        <v>22.08910636</v>
       </c>
       <c r="P54">
-        <v>2.889346839</v>
+        <v>28.89346839</v>
       </c>
       <c r="Q54">
-        <v>1.879582108</v>
+        <v>18.79582108</v>
       </c>
       <c r="R54">
-        <v>4.074310253</v>
+        <v>40.74310253</v>
       </c>
       <c r="S54">
-        <v>4.555323136</v>
+        <v>45.55323136</v>
       </c>
       <c r="T54">
-        <v>4.24573296</v>
+        <v>42.45732959999999</v>
       </c>
       <c r="U54">
-        <v>2.348691746</v>
+        <v>23.48691746</v>
       </c>
       <c r="V54">
-        <v>2.569978336</v>
+        <v>25.69978336</v>
       </c>
       <c r="W54">
-        <v>5.357044744</v>
+        <v>53.57044744</v>
       </c>
       <c r="X54">
-        <v>4.338650995</v>
+        <v>43.38650995</v>
       </c>
       <c r="Y54">
-        <v>5.714149511</v>
+        <v>57.14149510999999</v>
       </c>
       <c r="Z54">
-        <v>5.895096887</v>
+        <v>58.95096887</v>
       </c>
       <c r="AA54">
-        <v>5.349785514</v>
+        <v>53.49785514</v>
       </c>
       <c r="AB54">
-        <v>4.944077864</v>
+        <v>49.44077864</v>
       </c>
       <c r="AC54">
-        <v>4.025895897</v>
+        <v>40.25895896999999</v>
       </c>
       <c r="AD54">
-        <v>2.881388999</v>
+        <v>28.81388999</v>
       </c>
       <c r="AE54">
-        <v>2.801896388</v>
+        <v>28.01896388</v>
       </c>
       <c r="AF54">
-        <v>4.303516457</v>
+        <v>43.03516457</v>
       </c>
       <c r="AG54">
-        <v>4.874109735</v>
+        <v>48.74109735</v>
       </c>
       <c r="AH54">
-        <v>3.488889425</v>
+        <v>34.88889425</v>
       </c>
       <c r="AI54">
-        <v>5.120983289</v>
+        <v>51.20983289</v>
       </c>
       <c r="AJ54">
-        <v>7.023554783</v>
+        <v>70.23554783</v>
       </c>
       <c r="AK54">
-        <v>9.678911719</v>
+        <v>96.78911719</v>
       </c>
       <c r="AL54">
-        <v>19.01730719</v>
+        <v>190.1730719</v>
       </c>
     </row>
     <row r="55" spans="1:38">
       <c r="A55">
-        <v>5.924033606</v>
+        <v>59.24033606</v>
       </c>
       <c r="B55">
-        <v>18.36119498</v>
+        <v>183.6119498</v>
       </c>
       <c r="C55">
-        <v>9.562043593</v>
+        <v>95.62043593</v>
       </c>
       <c r="D55">
-        <v>5.222569224</v>
+        <v>52.22569224</v>
       </c>
       <c r="E55">
-        <v>6.042571094</v>
+        <v>60.42571094</v>
       </c>
       <c r="F55">
-        <v>5.446511812</v>
+        <v>54.46511812</v>
       </c>
       <c r="G55">
-        <v>4.095134121</v>
+        <v>40.95134121</v>
       </c>
       <c r="H55">
-        <v>1.665673372</v>
+        <v>16.65673372</v>
       </c>
       <c r="I55">
-        <v>1.372425303</v>
+        <v>13.72425303</v>
       </c>
       <c r="J55">
-        <v>1.340133813</v>
+        <v>13.40133813</v>
       </c>
       <c r="K55">
-        <v>1.518342788</v>
+        <v>15.18342788</v>
       </c>
       <c r="L55">
-        <v>1.771522718</v>
+        <v>17.71522718</v>
       </c>
       <c r="M55">
-        <v>1.99704676</v>
+        <v>19.9704676</v>
       </c>
       <c r="N55">
-        <v>1.525465286</v>
+        <v>15.25465286</v>
       </c>
       <c r="O55">
-        <v>2.077550321</v>
+        <v>20.77550321</v>
       </c>
       <c r="P55">
-        <v>2.069898287</v>
+        <v>20.69898287</v>
       </c>
       <c r="Q55">
-        <v>2.106271808</v>
+        <v>21.06271808</v>
       </c>
       <c r="R55">
-        <v>1.974330728</v>
+        <v>19.74330728</v>
       </c>
       <c r="S55">
-        <v>1.238708704</v>
+        <v>12.38708704</v>
       </c>
       <c r="T55">
-        <v>2.933265974</v>
+        <v>29.33265974</v>
       </c>
       <c r="U55">
-        <v>5.289054356</v>
+        <v>52.89054356</v>
       </c>
       <c r="V55">
-        <v>4.907445145</v>
+        <v>49.07445145</v>
       </c>
       <c r="W55">
-        <v>6.936625862</v>
+        <v>69.36625862</v>
       </c>
       <c r="X55">
-        <v>8.729328683</v>
+        <v>87.29328683</v>
       </c>
       <c r="Y55">
-        <v>4.924557728</v>
+        <v>49.24557728</v>
       </c>
       <c r="Z55">
-        <v>2.432855011</v>
+        <v>24.32855011</v>
       </c>
       <c r="AA55">
-        <v>7.986307152</v>
+        <v>79.86307152000001</v>
       </c>
       <c r="AB55">
-        <v>5.88767492</v>
+        <v>58.87674920000001</v>
       </c>
       <c r="AC55">
-        <v>2.870130414</v>
+        <v>28.70130414</v>
       </c>
       <c r="AD55">
-        <v>4.113377508</v>
+        <v>41.13377508</v>
       </c>
       <c r="AE55">
-        <v>4.926966426</v>
+        <v>49.26966426</v>
       </c>
       <c r="AF55">
-        <v>4.056852673</v>
+        <v>40.56852673</v>
       </c>
       <c r="AG55">
-        <v>2.874734923</v>
+        <v>28.74734923</v>
       </c>
       <c r="AH55">
-        <v>4.744838849</v>
+        <v>47.44838849</v>
       </c>
       <c r="AI55">
-        <v>9.063156593</v>
+        <v>90.63156593000001</v>
       </c>
       <c r="AJ55">
-        <v>9.484619335</v>
+        <v>94.84619334999999</v>
       </c>
       <c r="AK55">
-        <v>9.530035752</v>
+        <v>95.30035752000001</v>
       </c>
       <c r="AL55">
-        <v>13.81846124</v>
+        <v>138.1846124</v>
       </c>
     </row>
     <row r="56" spans="1:38">
       <c r="A56">
-        <v>6.176842195</v>
+        <v>61.76842195</v>
       </c>
       <c r="B56">
-        <v>7.437832451</v>
+        <v>74.37832451</v>
       </c>
       <c r="C56">
-        <v>7.005373302</v>
+        <v>70.05373302</v>
       </c>
       <c r="D56">
-        <v>6.218279553</v>
+        <v>62.18279553000001</v>
       </c>
       <c r="E56">
-        <v>4.851948948</v>
+        <v>48.51948948</v>
       </c>
       <c r="F56">
-        <v>3.836672557</v>
+        <v>38.36672557</v>
       </c>
       <c r="G56">
-        <v>1.438684953</v>
+        <v>14.38684953</v>
       </c>
       <c r="H56">
-        <v>1.002783336</v>
+        <v>10.02783336</v>
       </c>
       <c r="I56">
-        <v>2.143413109</v>
+        <v>21.43413109</v>
       </c>
       <c r="J56">
-        <v>1.058316533</v>
+        <v>10.58316533</v>
       </c>
       <c r="K56">
-        <v>1.760802145</v>
+        <v>17.60802145</v>
       </c>
       <c r="L56">
-        <v>3.472252328</v>
+        <v>34.72252328</v>
       </c>
       <c r="M56">
-        <v>2.213131474</v>
+        <v>22.13131474</v>
       </c>
       <c r="N56">
-        <v>1.153290855</v>
+        <v>11.53290855</v>
       </c>
       <c r="O56">
-        <v>2.330680929</v>
+        <v>23.30680929</v>
       </c>
       <c r="P56">
-        <v>2.102462905</v>
+        <v>21.02462905</v>
       </c>
       <c r="Q56">
-        <v>2.036452797</v>
+        <v>20.36452797</v>
       </c>
       <c r="R56">
-        <v>1.900770764</v>
+        <v>19.00770764</v>
       </c>
       <c r="S56">
-        <v>2.422874074</v>
+        <v>24.22874074</v>
       </c>
       <c r="T56">
-        <v>4.551402691</v>
+        <v>45.51402691</v>
       </c>
       <c r="U56">
-        <v>4.157589542</v>
+        <v>41.57589542</v>
       </c>
       <c r="V56">
-        <v>2.935317044</v>
+        <v>29.35317044</v>
       </c>
       <c r="W56">
-        <v>4.07952055</v>
+        <v>40.79520549999999</v>
       </c>
       <c r="X56">
-        <v>8.032087600000001</v>
+        <v>80.320876</v>
       </c>
       <c r="Y56">
-        <v>4.037369917</v>
+        <v>40.37369917</v>
       </c>
       <c r="Z56">
-        <v>5.514287048</v>
+        <v>55.14287048</v>
       </c>
       <c r="AA56">
-        <v>5.123503433</v>
+        <v>51.23503433</v>
       </c>
       <c r="AB56">
-        <v>4.561709617</v>
+        <v>45.61709617</v>
       </c>
       <c r="AC56">
-        <v>2.973109781</v>
+        <v>29.73109781</v>
       </c>
       <c r="AD56">
-        <v>5.977740353</v>
+        <v>59.77740353</v>
       </c>
       <c r="AE56">
-        <v>3.345146433</v>
+        <v>33.45146433</v>
       </c>
       <c r="AF56">
-        <v>3.032718674</v>
+        <v>30.32718674</v>
       </c>
       <c r="AG56">
-        <v>7.777356269</v>
+        <v>77.77356269000001</v>
       </c>
       <c r="AH56">
-        <v>9.680479829999999</v>
+        <v>96.80479829999999</v>
       </c>
       <c r="AI56">
-        <v>19.30954376</v>
+        <v>193.0954376</v>
       </c>
       <c r="AJ56">
-        <v>16.81480031</v>
+        <v>168.1480031</v>
       </c>
       <c r="AK56">
-        <v>11.9854986</v>
+        <v>119.854986</v>
       </c>
       <c r="AL56">
-        <v>30.51655945</v>
+        <v>305.1655945</v>
       </c>
     </row>
     <row r="57" spans="1:38">
       <c r="A57">
-        <v>15.56910449</v>
+        <v>155.6910449</v>
       </c>
       <c r="B57">
-        <v>5.499791427</v>
+        <v>54.99791427</v>
       </c>
       <c r="C57">
-        <v>10.49958223</v>
+        <v>104.9958223</v>
       </c>
       <c r="D57">
-        <v>5.644562369</v>
+        <v>56.44562369</v>
       </c>
       <c r="E57">
-        <v>1.879995662</v>
+        <v>18.79995662</v>
       </c>
       <c r="F57">
-        <v>1.432225416</v>
+        <v>14.32225416</v>
       </c>
       <c r="G57">
-        <v>1.274124746</v>
+        <v>12.74124746</v>
       </c>
       <c r="H57">
-        <v>1.308706794</v>
+        <v>13.08706794</v>
       </c>
       <c r="I57">
-        <v>1.010544677</v>
+        <v>10.10544677</v>
       </c>
       <c r="J57">
-        <v>2.652091222</v>
+        <v>26.52091222</v>
       </c>
       <c r="K57">
-        <v>2.545511136</v>
+        <v>25.45511136</v>
       </c>
       <c r="L57">
-        <v>1.839400069</v>
+        <v>18.39400069</v>
       </c>
       <c r="M57">
-        <v>1.344724917</v>
+        <v>13.44724917</v>
       </c>
       <c r="N57">
-        <v>1.607820394</v>
+        <v>16.07820394</v>
       </c>
       <c r="O57">
-        <v>0.864165886</v>
+        <v>8.64165886</v>
       </c>
       <c r="P57">
-        <v>0.649572691</v>
+        <v>6.49572691</v>
       </c>
       <c r="Q57">
-        <v>2.852002757</v>
+        <v>28.52002757</v>
       </c>
       <c r="R57">
-        <v>1.801373572</v>
+        <v>18.01373572</v>
       </c>
       <c r="S57">
-        <v>3.95138626</v>
+        <v>39.5138626</v>
       </c>
       <c r="T57">
-        <v>4.177163674</v>
+        <v>41.77163674</v>
       </c>
       <c r="U57">
-        <v>2.799115485</v>
+        <v>27.99115485</v>
       </c>
       <c r="V57">
-        <v>5.611322151</v>
+        <v>56.11322151</v>
       </c>
       <c r="W57">
-        <v>3.419281596</v>
+        <v>34.19281596</v>
       </c>
       <c r="X57">
-        <v>4.167146334</v>
+        <v>41.67146334</v>
       </c>
       <c r="Y57">
-        <v>4.141667437</v>
+        <v>41.41667437</v>
       </c>
       <c r="Z57">
-        <v>3.0078137</v>
+        <v>30.078137</v>
       </c>
       <c r="AA57">
-        <v>3.924941589</v>
+        <v>39.24941589</v>
       </c>
       <c r="AB57">
-        <v>4.650433631</v>
+        <v>46.50433631</v>
       </c>
       <c r="AC57">
-        <v>6.500155952</v>
+        <v>65.00155952</v>
       </c>
       <c r="AD57">
-        <v>3.177928182</v>
+        <v>31.77928182</v>
       </c>
       <c r="AE57">
-        <v>4.26651984</v>
+        <v>42.6651984</v>
       </c>
       <c r="AF57">
-        <v>7.507822442</v>
+        <v>75.07822442</v>
       </c>
       <c r="AG57">
-        <v>13.51142291</v>
+        <v>135.1142291</v>
       </c>
       <c r="AH57">
-        <v>14.09062199</v>
+        <v>140.9062199</v>
       </c>
       <c r="AI57">
-        <v>19.27057785</v>
+        <v>192.7057785</v>
       </c>
       <c r="AJ57">
-        <v>22.60021612</v>
+        <v>226.0021612</v>
       </c>
       <c r="AK57">
-        <v>24.08645066</v>
+        <v>240.8645066</v>
       </c>
       <c r="AL57">
-        <v>31.1414419</v>
+        <v>311.414419</v>
       </c>
     </row>
     <row r="58" spans="1:38">
       <c r="A58">
-        <v>5.717791728</v>
+        <v>57.17791728</v>
       </c>
       <c r="B58">
-        <v>6.671925302</v>
+        <v>66.71925302</v>
       </c>
       <c r="C58">
-        <v>3.563059084</v>
+        <v>35.63059084</v>
       </c>
       <c r="D58">
-        <v>4.240993124</v>
+        <v>42.40993124</v>
       </c>
       <c r="E58">
-        <v>3.921893093</v>
+        <v>39.21893093</v>
       </c>
       <c r="F58">
-        <v>2.321003115</v>
+        <v>23.21003115</v>
       </c>
       <c r="G58">
-        <v>1.549387156</v>
+        <v>15.49387156</v>
       </c>
       <c r="H58">
-        <v>1.992438906</v>
+        <v>19.92438906</v>
       </c>
       <c r="I58">
-        <v>2.788066847</v>
+        <v>27.88066847</v>
       </c>
       <c r="J58">
-        <v>1.59513675</v>
+        <v>15.9513675</v>
       </c>
       <c r="K58">
-        <v>1.052185542</v>
+        <v>10.52185542</v>
       </c>
       <c r="L58">
-        <v>2.426074379</v>
+        <v>24.26074379</v>
       </c>
       <c r="M58">
-        <v>2.107030203</v>
+        <v>21.07030203</v>
       </c>
       <c r="N58">
-        <v>1.06327043</v>
+        <v>10.6327043</v>
       </c>
       <c r="O58">
-        <v>1.848509187</v>
+        <v>18.48509187</v>
       </c>
       <c r="P58">
-        <v>2.834397717</v>
+        <v>28.34397717</v>
       </c>
       <c r="Q58">
-        <v>2.35348326</v>
+        <v>23.5348326</v>
       </c>
       <c r="R58">
-        <v>4.159685495</v>
+        <v>41.59685494999999</v>
       </c>
       <c r="S58">
-        <v>6.208691525</v>
+        <v>62.08691525</v>
       </c>
       <c r="T58">
-        <v>4.836873153</v>
+        <v>48.36873153</v>
       </c>
       <c r="U58">
-        <v>5.657928123</v>
+        <v>56.57928122999999</v>
       </c>
       <c r="V58">
-        <v>5.924158012</v>
+        <v>59.24158012</v>
       </c>
       <c r="W58">
-        <v>3.03862609</v>
+        <v>30.3862609</v>
       </c>
       <c r="X58">
-        <v>2.718269513</v>
+        <v>27.18269513</v>
       </c>
       <c r="Y58">
-        <v>3.067725689</v>
+        <v>30.67725689</v>
       </c>
       <c r="Z58">
-        <v>4.227177316</v>
+        <v>42.27177316</v>
       </c>
       <c r="AA58">
-        <v>4.778513282</v>
+        <v>47.78513281999999</v>
       </c>
       <c r="AB58">
-        <v>5.980202853</v>
+        <v>59.80202853</v>
       </c>
       <c r="AC58">
-        <v>3.539758375</v>
+        <v>35.39758375</v>
       </c>
       <c r="AD58">
-        <v>5.12152102</v>
+        <v>51.2152102</v>
       </c>
       <c r="AE58">
-        <v>3.559067133</v>
+        <v>35.59067133</v>
       </c>
       <c r="AF58">
-        <v>8.125087271</v>
+        <v>81.25087271</v>
       </c>
       <c r="AG58">
-        <v>14.35544725</v>
+        <v>143.5544725</v>
       </c>
       <c r="AH58">
-        <v>17.18848133</v>
+        <v>171.8848133</v>
       </c>
       <c r="AI58">
-        <v>14.98131067</v>
+        <v>149.8131067</v>
       </c>
       <c r="AJ58">
-        <v>15.62952055</v>
+        <v>156.2952055</v>
       </c>
       <c r="AK58">
-        <v>42.46751664</v>
+        <v>424.6751664</v>
       </c>
       <c r="AL58">
-        <v>20.5425731</v>
+        <v>205.425731</v>
       </c>
     </row>
   </sheetData>
